--- a/_documents/메뉴구조도(KPC-SCC-IA01).xlsx
+++ b/_documents/메뉴구조도(KPC-SCC-IA01).xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\회의록\산출물샘플\산출물샘플\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\_documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12168"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="표지" sheetId="2" r:id="rId1"/>
@@ -37,289 +37,270 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
   <si>
     <t>버전</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>변경일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>변경사유</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>작성자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>승인자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>변경내용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>제·개 정 이 력</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>문서번호</t>
   </si>
   <si>
     <t>메뉴구조도</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>메뉴ID</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>1차기능
 (1Depth 메뉴)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2차기능
 (2Depth 메뉴)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>3차기능
 (3Depth 메뉴)</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>4차기능
 (4Depth 메뉴/팝업)</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>5차기능
 (5Depth 메뉴)</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>6차기능
 (6Depth 메뉴)</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>7차기능
 (7Depth 메뉴)</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>프로세스ID
 (필수)</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>Activity ID
 (선택)</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>UP</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>메인 대시보드</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>AD</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자 서비스</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>초안 작성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>KepcoA 스프린터 프로젝트 1조</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>메뉴 선택</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>차량 검색</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>인기 차량 목록</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>판매 업체</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>충전소</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>차량 모델</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>자유게시판</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>차량 세부 정보</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>순위별 차량 이미지</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>안전 수칙</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>안전 수칙 포스터</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>안전 가이드 동영상</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">보조금 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>보조기기 등록업소 목록</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>지역 선택 기능</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>차량 모델 목록 및 세부사항</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>충전소 위치 목록</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>지역 선택 기능</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>글 목록</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>글 작성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>목록 클릭 시 글 내용 보여주기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>글 저장 기능</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>첨부 파일 기능</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>SCCUP000000</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>SCCUP100000</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>SCCUP110000</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>SCCUP111000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>SCCUP120000</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>SCCUP121000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>SCCUP121100</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>SCCUP130000</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>SCCUP131100</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>SCCUP140000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>SCCUP141000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>SCCUP141100</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>SCCUP142000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>SCCUP142100</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>SCCUP142200</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>SCCUP200000</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>SCCUP210000</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>SCCUP300000</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP310000</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>SCCUP400000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>SCCUP410000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -347,120 +328,128 @@
       </rPr>
       <t>0000</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>SCCUP500000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>보조금 자격 포스터 팝업</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>우리지역 판매소 확인</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">보조금 자격 확인 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>SCCUP131000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>SCCUP131000 로 이동</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>계정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>로그인</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>회원가입</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>로그아웃</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>SCCUP510000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>SCCUP511000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>SCCUP520000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>SCCUP521000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>SCCUP600000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>SCCUP610000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>SCCUP620000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>SCCUP630000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCAD000000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCAD100000</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시글 관리</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>댓글 관리</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCAD200000</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>강다솜</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">KPC-SCC-IA01
 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>KepcoA 스프린트 프로젝트 1조</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매 버튼 클릭 시 네이버 쇼핑 이동</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP310000</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP311000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>푸터</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -613,6 +602,12 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="6">
@@ -824,226 +819,229 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="31" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1189,7 +1187,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="0" y="38100"/>
-          <a:ext cx="14573250" cy="811108"/>
+          <a:ext cx="16402050" cy="776818"/>
           <a:chOff x="136071" y="136071"/>
           <a:chExt cx="11112954" cy="530680"/>
         </a:xfrm>
@@ -1345,7 +1343,7 @@
                 <a:latin typeface="+mn-ea"/>
                 <a:ea typeface="+mn-ea"/>
               </a:rPr>
-              <a:t>스프린터 프로젝트 </a:t>
+              <a:t>스프린트 프로젝트 </a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="ko-KR" sz="1000">
@@ -2257,16 +2255,16 @@
   </sheetPr>
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="6.296875" style="2" customWidth="1"/>
-    <col min="2" max="12" width="11.3984375" style="2" customWidth="1"/>
-    <col min="13" max="13" width="7.296875" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="8.796875" style="1"/>
+    <col min="1" max="1" width="6.33203125" style="2" customWidth="1"/>
+    <col min="2" max="12" width="11.44140625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="7.33203125" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21" customHeight="1">
@@ -2312,10 +2310,10 @@
       <c r="J3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="71" t="s">
-        <v>94</v>
-      </c>
-      <c r="L3" s="71"/>
+      <c r="K3" s="64" t="s">
+        <v>84</v>
+      </c>
+      <c r="L3" s="64"/>
       <c r="M3" s="12"/>
     </row>
     <row r="4" spans="1:13" ht="21" customHeight="1">
@@ -2425,79 +2423,79 @@
     </row>
     <row r="11" spans="1:13" ht="21" customHeight="1">
       <c r="A11" s="10"/>
-      <c r="B11" s="57" t="s">
+      <c r="B11" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="59"/>
       <c r="M11" s="12"/>
     </row>
     <row r="12" spans="1:13" ht="21" customHeight="1">
       <c r="A12" s="10"/>
-      <c r="B12" s="58"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="58"/>
-      <c r="L12" s="58"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
       <c r="M12" s="12"/>
     </row>
     <row r="13" spans="1:13" ht="21" customHeight="1">
       <c r="A13" s="10"/>
-      <c r="B13" s="58"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="58"/>
-      <c r="L13" s="58"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="60"/>
+      <c r="L13" s="60"/>
       <c r="M13" s="12"/>
     </row>
     <row r="14" spans="1:13" ht="21" customHeight="1">
       <c r="A14" s="10"/>
-      <c r="B14" s="58"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="58"/>
-      <c r="I14" s="58"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="58"/>
-      <c r="L14" s="58"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
       <c r="M14" s="12"/>
     </row>
     <row r="15" spans="1:13" ht="21" customHeight="1" thickBot="1">
       <c r="A15" s="10"/>
-      <c r="B15" s="59"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="61"/>
+      <c r="L15" s="61"/>
       <c r="M15" s="12"/>
     </row>
     <row r="16" spans="1:13" ht="21" customHeight="1" thickTop="1">
@@ -2596,11 +2594,11 @@
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
-      <c r="F22" s="60">
+      <c r="F22" s="62">
         <v>45273</v>
       </c>
-      <c r="G22" s="61"/>
-      <c r="H22" s="61"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="63"/>
       <c r="I22" s="11"/>
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
@@ -2613,9 +2611,9 @@
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="61"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="63"/>
       <c r="I23" s="11"/>
       <c r="J23" s="11"/>
       <c r="K23" s="11"/>
@@ -2718,7 +2716,7 @@
     <mergeCell ref="F22:H23"/>
     <mergeCell ref="K3:L3"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="81" orientation="landscape" r:id="rId1"/>
@@ -2734,18 +2732,18 @@
   <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="6.296875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="11.3984375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="11.3984375" style="6" customWidth="1"/>
-    <col min="4" max="10" width="11.3984375" style="4" customWidth="1"/>
-    <col min="11" max="12" width="11.3984375" style="5" customWidth="1"/>
-    <col min="13" max="13" width="7.296875" style="4" customWidth="1"/>
-    <col min="14" max="16384" width="8.796875" style="3"/>
+    <col min="1" max="1" width="6.33203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" style="6" customWidth="1"/>
+    <col min="4" max="10" width="11.44140625" style="4" customWidth="1"/>
+    <col min="11" max="12" width="11.44140625" style="5" customWidth="1"/>
+    <col min="13" max="13" width="7.33203125" style="4" customWidth="1"/>
+    <col min="14" max="16384" width="8.77734375" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21" customHeight="1">
@@ -2766,7 +2764,7 @@
     <row r="2" spans="1:13" ht="21" customHeight="1">
       <c r="A2" s="25"/>
       <c r="B2" s="26" t="s">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="C2" s="27"/>
       <c r="D2" s="28"/>
@@ -2783,7 +2781,7 @@
       <c r="L2" s="65"/>
       <c r="M2" s="29"/>
     </row>
-    <row r="3" spans="1:13" ht="30">
+    <row r="3" spans="1:13" ht="31.5">
       <c r="A3" s="25"/>
       <c r="B3" s="30"/>
       <c r="C3" s="31"/>
@@ -2865,17 +2863,17 @@
       <c r="C7" s="35">
         <v>45273</v>
       </c>
-      <c r="D7" s="62" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="63"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="63"/>
+      <c r="D7" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="69"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="69"/>
       <c r="K7" s="34" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="L7" s="34"/>
       <c r="M7" s="29"/>
@@ -2884,13 +2882,13 @@
       <c r="A8" s="25"/>
       <c r="B8" s="34"/>
       <c r="C8" s="35"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="63"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="69"/>
       <c r="K8" s="34"/>
       <c r="L8" s="34"/>
       <c r="M8" s="29"/>
@@ -2899,13 +2897,13 @@
       <c r="A9" s="25"/>
       <c r="B9" s="34"/>
       <c r="C9" s="35"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="64"/>
-      <c r="J9" s="63"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="69"/>
       <c r="K9" s="34"/>
       <c r="L9" s="34"/>
       <c r="M9" s="29"/>
@@ -2914,13 +2912,13 @@
       <c r="A10" s="25"/>
       <c r="B10" s="34"/>
       <c r="C10" s="35"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="63"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="69"/>
       <c r="K10" s="34"/>
       <c r="L10" s="34"/>
       <c r="M10" s="29"/>
@@ -2929,13 +2927,13 @@
       <c r="A11" s="25"/>
       <c r="B11" s="34"/>
       <c r="C11" s="35"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="64"/>
-      <c r="J11" s="63"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="69"/>
       <c r="K11" s="34"/>
       <c r="L11" s="34"/>
       <c r="M11" s="29"/>
@@ -2944,13 +2942,13 @@
       <c r="A12" s="25"/>
       <c r="B12" s="36"/>
       <c r="C12" s="37"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="64"/>
-      <c r="I12" s="64"/>
-      <c r="J12" s="63"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="69"/>
       <c r="K12" s="36"/>
       <c r="L12" s="36"/>
       <c r="M12" s="29"/>
@@ -2959,13 +2957,13 @@
       <c r="A13" s="25"/>
       <c r="B13" s="36"/>
       <c r="C13" s="37"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="63"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="69"/>
       <c r="K13" s="36"/>
       <c r="L13" s="36"/>
       <c r="M13" s="29"/>
@@ -2974,13 +2972,13 @@
       <c r="A14" s="25"/>
       <c r="B14" s="36"/>
       <c r="C14" s="37"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="64"/>
-      <c r="J14" s="63"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="69"/>
       <c r="K14" s="36"/>
       <c r="L14" s="36"/>
       <c r="M14" s="29"/>
@@ -2989,13 +2987,13 @@
       <c r="A15" s="25"/>
       <c r="B15" s="36"/>
       <c r="C15" s="37"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="64"/>
-      <c r="J15" s="63"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="69"/>
       <c r="K15" s="36"/>
       <c r="L15" s="36"/>
       <c r="M15" s="29"/>
@@ -3004,13 +3002,13 @@
       <c r="A16" s="25"/>
       <c r="B16" s="36"/>
       <c r="C16" s="37"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="64"/>
-      <c r="I16" s="64"/>
-      <c r="J16" s="63"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="69"/>
       <c r="K16" s="36"/>
       <c r="L16" s="36"/>
       <c r="M16" s="29"/>
@@ -3019,13 +3017,13 @@
       <c r="A17" s="25"/>
       <c r="B17" s="34"/>
       <c r="C17" s="35"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="63"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="70"/>
+      <c r="J17" s="69"/>
       <c r="K17" s="34"/>
       <c r="L17" s="34"/>
       <c r="M17" s="29"/>
@@ -3034,13 +3032,13 @@
       <c r="A18" s="25"/>
       <c r="B18" s="34"/>
       <c r="C18" s="35"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="64"/>
-      <c r="J18" s="63"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="70"/>
+      <c r="J18" s="69"/>
       <c r="K18" s="34"/>
       <c r="L18" s="34"/>
       <c r="M18" s="29"/>
@@ -3049,13 +3047,13 @@
       <c r="A19" s="25"/>
       <c r="B19" s="34"/>
       <c r="C19" s="35"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="63"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="69"/>
       <c r="K19" s="34"/>
       <c r="L19" s="34"/>
       <c r="M19" s="29"/>
@@ -3064,13 +3062,13 @@
       <c r="A20" s="25"/>
       <c r="B20" s="34"/>
       <c r="C20" s="35"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="64"/>
-      <c r="J20" s="63"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="70"/>
+      <c r="I20" s="70"/>
+      <c r="J20" s="69"/>
       <c r="K20" s="34"/>
       <c r="L20" s="34"/>
       <c r="M20" s="29"/>
@@ -3079,13 +3077,13 @@
       <c r="A21" s="25"/>
       <c r="B21" s="34"/>
       <c r="C21" s="35"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="64"/>
-      <c r="H21" s="64"/>
-      <c r="I21" s="64"/>
-      <c r="J21" s="63"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="68"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="70"/>
+      <c r="I21" s="70"/>
+      <c r="J21" s="69"/>
       <c r="K21" s="34"/>
       <c r="L21" s="34"/>
       <c r="M21" s="29"/>
@@ -3094,13 +3092,13 @@
       <c r="A22" s="25"/>
       <c r="B22" s="34"/>
       <c r="C22" s="35"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="64"/>
-      <c r="J22" s="63"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="68"/>
+      <c r="G22" s="70"/>
+      <c r="H22" s="70"/>
+      <c r="I22" s="70"/>
+      <c r="J22" s="69"/>
       <c r="K22" s="34"/>
       <c r="L22" s="34"/>
       <c r="M22" s="29"/>
@@ -3109,13 +3107,13 @@
       <c r="A23" s="25"/>
       <c r="B23" s="34"/>
       <c r="C23" s="35"/>
-      <c r="D23" s="62"/>
-      <c r="E23" s="63"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="64"/>
-      <c r="J23" s="63"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="70"/>
+      <c r="I23" s="70"/>
+      <c r="J23" s="69"/>
       <c r="K23" s="34"/>
       <c r="L23" s="34"/>
       <c r="M23" s="29"/>
@@ -3124,13 +3122,13 @@
       <c r="A24" s="25"/>
       <c r="B24" s="34"/>
       <c r="C24" s="35"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="63"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="64"/>
-      <c r="H24" s="64"/>
-      <c r="I24" s="64"/>
-      <c r="J24" s="63"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="68"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="70"/>
+      <c r="I24" s="70"/>
+      <c r="J24" s="69"/>
       <c r="K24" s="34"/>
       <c r="L24" s="34"/>
       <c r="M24" s="29"/>
@@ -3212,36 +3210,6 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="B4:L4"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:J7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:J8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:J10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:J11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:J14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:J15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:J17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:J18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:J19"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="F23:J23"/>
     <mergeCell ref="D24:E24"/>
@@ -3252,11 +3220,41 @@
     <mergeCell ref="F21:J21"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="F22:J22"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="B4:L4"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:J7"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="82" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="78" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3265,67 +3263,67 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A5:R44"/>
+  <dimension ref="A5:R39"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="20" style="45" customWidth="1"/>
-    <col min="2" max="2" width="4.296875" style="45" customWidth="1"/>
-    <col min="3" max="3" width="11.796875" style="45" customWidth="1"/>
-    <col min="4" max="4" width="3.3984375" style="46" customWidth="1"/>
-    <col min="5" max="5" width="17.296875" style="45" customWidth="1"/>
-    <col min="6" max="6" width="3.296875" style="46" customWidth="1"/>
+    <col min="2" max="2" width="4.33203125" style="45" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" style="45" customWidth="1"/>
+    <col min="4" max="4" width="3.44140625" style="46" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" style="45" customWidth="1"/>
+    <col min="6" max="6" width="3.33203125" style="46" customWidth="1"/>
     <col min="7" max="7" width="20" style="45" customWidth="1"/>
-    <col min="8" max="8" width="3.69921875" style="45" customWidth="1"/>
-    <col min="9" max="9" width="26.69921875" style="45" customWidth="1"/>
-    <col min="10" max="10" width="3.09765625" style="45" customWidth="1"/>
-    <col min="11" max="11" width="25.09765625" style="45" customWidth="1"/>
-    <col min="12" max="12" width="3.796875" style="45" customWidth="1"/>
-    <col min="13" max="13" width="8.09765625" style="45" customWidth="1"/>
-    <col min="14" max="14" width="4.09765625" style="45" customWidth="1"/>
-    <col min="15" max="15" width="7.796875" style="45" customWidth="1"/>
-    <col min="16" max="16" width="13.3984375" style="45" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.09765625" style="45" customWidth="1"/>
-    <col min="18" max="16384" width="8.796875" style="45"/>
+    <col min="8" max="8" width="3.6640625" style="45" customWidth="1"/>
+    <col min="9" max="9" width="26.6640625" style="45" customWidth="1"/>
+    <col min="10" max="10" width="3.109375" style="45" customWidth="1"/>
+    <col min="11" max="11" width="25.109375" style="45" customWidth="1"/>
+    <col min="12" max="12" width="3.77734375" style="45" customWidth="1"/>
+    <col min="13" max="13" width="8.109375" style="45" customWidth="1"/>
+    <col min="14" max="14" width="4.109375" style="45" customWidth="1"/>
+    <col min="15" max="15" width="7.77734375" style="45" customWidth="1"/>
+    <col min="16" max="16" width="13.44140625" style="45" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.109375" style="45" customWidth="1"/>
+    <col min="18" max="16384" width="8.77734375" style="45"/>
   </cols>
   <sheetData>
     <row r="5" spans="1:17" ht="9" customHeight="1"/>
-    <row r="6" spans="1:17" ht="31.2">
+    <row r="6" spans="1:17" ht="27">
       <c r="A6" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="68" t="s">
+      <c r="B6" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68" t="s">
+      <c r="C6" s="71"/>
+      <c r="D6" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68" t="s">
+      <c r="E6" s="71"/>
+      <c r="F6" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="68"/>
-      <c r="H6" s="68" t="s">
+      <c r="G6" s="71"/>
+      <c r="H6" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="68"/>
-      <c r="J6" s="68" t="s">
+      <c r="I6" s="71"/>
+      <c r="J6" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="68"/>
-      <c r="L6" s="68" t="s">
+      <c r="K6" s="71"/>
+      <c r="L6" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="M6" s="68"/>
-      <c r="N6" s="68" t="s">
+      <c r="M6" s="71"/>
+      <c r="N6" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="O6" s="68"/>
+      <c r="O6" s="71"/>
       <c r="P6" s="47" t="s">
         <v>17</v>
       </c>
@@ -3335,7 +3333,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="48" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B7" s="49" t="s">
         <v>19</v>
@@ -3360,7 +3358,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="48" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B8" s="49"/>
       <c r="C8" s="50"/>
@@ -3368,12 +3366,12 @@
         <v>1</v>
       </c>
       <c r="E8" s="51" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F8" s="49"/>
       <c r="G8" s="51"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
       <c r="J8" s="49"/>
       <c r="K8" s="51"/>
       <c r="L8" s="49"/>
@@ -3385,7 +3383,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="48" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B9" s="49"/>
       <c r="C9" s="50"/>
@@ -3395,10 +3393,10 @@
         <v>1</v>
       </c>
       <c r="G9" s="51" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
+        <v>27</v>
+      </c>
+      <c r="H9" s="72"/>
+      <c r="I9" s="72"/>
       <c r="J9" s="49"/>
       <c r="K9" s="51"/>
       <c r="L9" s="49"/>
@@ -3409,8 +3407,8 @@
       <c r="Q9" s="53"/>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="69" t="s">
-        <v>51</v>
+      <c r="A10" s="57" t="s">
+        <v>47</v>
       </c>
       <c r="B10" s="49"/>
       <c r="C10" s="50"/>
@@ -3418,11 +3416,11 @@
       <c r="E10" s="51"/>
       <c r="F10" s="49"/>
       <c r="G10" s="51"/>
-      <c r="H10" s="54">
+      <c r="H10" s="72">
         <v>1</v>
       </c>
-      <c r="I10" s="54" t="s">
-        <v>40</v>
+      <c r="I10" s="72" t="s">
+        <v>36</v>
       </c>
       <c r="J10" s="49"/>
       <c r="K10" s="51"/>
@@ -3435,7 +3433,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="54" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B11" s="49"/>
       <c r="C11" s="50"/>
@@ -3445,10 +3443,10 @@
         <v>2</v>
       </c>
       <c r="G11" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" s="54"/>
-      <c r="I11" s="54"/>
+        <v>25</v>
+      </c>
+      <c r="H11" s="72"/>
+      <c r="I11" s="72"/>
       <c r="J11" s="49"/>
       <c r="K11" s="51"/>
       <c r="L11" s="49"/>
@@ -3460,7 +3458,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="54" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B12" s="49"/>
       <c r="C12" s="50"/>
@@ -3468,11 +3466,11 @@
       <c r="E12" s="51"/>
       <c r="F12" s="49"/>
       <c r="G12" s="51"/>
-      <c r="H12" s="54">
+      <c r="H12" s="72">
         <v>1</v>
       </c>
-      <c r="I12" s="54" t="s">
-        <v>38</v>
+      <c r="I12" s="72" t="s">
+        <v>34</v>
       </c>
       <c r="J12" s="49"/>
       <c r="K12" s="51"/>
@@ -3485,7 +3483,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="54" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B13" s="49"/>
       <c r="C13" s="50"/>
@@ -3493,13 +3491,13 @@
       <c r="E13" s="51"/>
       <c r="F13" s="49"/>
       <c r="G13" s="51"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="54"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="72"/>
       <c r="J13" s="49">
         <v>1</v>
       </c>
       <c r="K13" s="51" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="L13" s="49"/>
       <c r="M13" s="51"/>
@@ -3510,7 +3508,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="54" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B14" s="49"/>
       <c r="C14" s="50"/>
@@ -3520,10 +3518,10 @@
         <v>3</v>
       </c>
       <c r="G14" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="H14" s="54"/>
-      <c r="I14" s="54"/>
+        <v>26</v>
+      </c>
+      <c r="H14" s="72"/>
+      <c r="I14" s="72"/>
       <c r="J14" s="49"/>
       <c r="K14" s="51"/>
       <c r="L14" s="49"/>
@@ -3535,7 +3533,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="54" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B15" s="49"/>
       <c r="C15" s="50"/>
@@ -3543,11 +3541,11 @@
       <c r="E15" s="51"/>
       <c r="F15" s="49"/>
       <c r="G15" s="51"/>
-      <c r="H15" s="54">
+      <c r="H15" s="72">
         <v>1</v>
       </c>
-      <c r="I15" s="54" t="s">
-        <v>41</v>
+      <c r="I15" s="72" t="s">
+        <v>37</v>
       </c>
       <c r="J15" s="49"/>
       <c r="K15" s="51"/>
@@ -3560,7 +3558,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="54" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B16" s="49"/>
       <c r="C16" s="50"/>
@@ -3568,13 +3566,13 @@
       <c r="E16" s="51"/>
       <c r="F16" s="49"/>
       <c r="G16" s="51"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="54"/>
+      <c r="H16" s="72"/>
+      <c r="I16" s="72"/>
       <c r="J16" s="49">
         <v>1</v>
       </c>
       <c r="K16" s="51" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="L16" s="49"/>
       <c r="M16" s="51"/>
@@ -3585,7 +3583,7 @@
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="54" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B17" s="49"/>
       <c r="C17" s="50"/>
@@ -3595,10 +3593,10 @@
         <v>4</v>
       </c>
       <c r="G17" s="51" t="s">
-        <v>31</v>
-      </c>
-      <c r="H17" s="54"/>
-      <c r="I17" s="54"/>
+        <v>28</v>
+      </c>
+      <c r="H17" s="72"/>
+      <c r="I17" s="72"/>
       <c r="J17" s="49"/>
       <c r="K17" s="51"/>
       <c r="L17" s="49"/>
@@ -3610,7 +3608,7 @@
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="54" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B18" s="49"/>
       <c r="C18" s="50"/>
@@ -3618,11 +3616,11 @@
       <c r="E18" s="51"/>
       <c r="F18" s="49"/>
       <c r="G18" s="51"/>
-      <c r="H18" s="54">
+      <c r="H18" s="72">
         <v>1</v>
       </c>
-      <c r="I18" s="54" t="s">
-        <v>43</v>
+      <c r="I18" s="72" t="s">
+        <v>39</v>
       </c>
       <c r="J18" s="49"/>
       <c r="K18" s="51"/>
@@ -3635,7 +3633,7 @@
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="54" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B19" s="49"/>
       <c r="C19" s="50"/>
@@ -3643,13 +3641,13 @@
       <c r="E19" s="51"/>
       <c r="F19" s="49"/>
       <c r="G19" s="51"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="54"/>
+      <c r="H19" s="72"/>
+      <c r="I19" s="72"/>
       <c r="J19" s="49">
         <v>1</v>
       </c>
       <c r="K19" s="51" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="L19" s="49"/>
       <c r="M19" s="51"/>
@@ -3660,7 +3658,7 @@
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="54" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B20" s="49"/>
       <c r="C20" s="50"/>
@@ -3668,11 +3666,11 @@
       <c r="E20" s="51"/>
       <c r="F20" s="49"/>
       <c r="G20" s="51"/>
-      <c r="H20" s="54">
+      <c r="H20" s="72">
         <v>2</v>
       </c>
-      <c r="I20" s="54" t="s">
-        <v>44</v>
+      <c r="I20" s="72" t="s">
+        <v>40</v>
       </c>
       <c r="J20" s="49"/>
       <c r="K20" s="51"/>
@@ -3686,7 +3684,7 @@
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="54" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B21" s="49"/>
       <c r="C21" s="50"/>
@@ -3694,13 +3692,13 @@
       <c r="E21" s="51"/>
       <c r="F21" s="49"/>
       <c r="G21" s="51"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="54"/>
+      <c r="H21" s="72"/>
+      <c r="I21" s="72"/>
       <c r="J21" s="49">
         <v>1</v>
       </c>
       <c r="K21" s="51" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="L21" s="49"/>
       <c r="M21" s="51"/>
@@ -3711,7 +3709,7 @@
     </row>
     <row r="22" spans="1:18">
       <c r="A22" s="54" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B22" s="49"/>
       <c r="C22" s="50"/>
@@ -3719,13 +3717,13 @@
       <c r="E22" s="51"/>
       <c r="F22" s="49"/>
       <c r="G22" s="51"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="54"/>
+      <c r="H22" s="72"/>
+      <c r="I22" s="72"/>
       <c r="J22" s="49">
         <v>2</v>
       </c>
       <c r="K22" s="51" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="L22" s="49"/>
       <c r="M22" s="51"/>
@@ -3736,7 +3734,7 @@
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="54" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B23" s="49"/>
       <c r="C23" s="50"/>
@@ -3744,12 +3742,12 @@
         <v>2</v>
       </c>
       <c r="E23" s="51" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F23" s="49"/>
       <c r="G23" s="51"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="54"/>
+      <c r="H23" s="72"/>
+      <c r="I23" s="72"/>
       <c r="J23" s="49"/>
       <c r="K23" s="51"/>
       <c r="L23" s="49"/>
@@ -3761,7 +3759,7 @@
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="54" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B24" s="49"/>
       <c r="C24" s="50"/>
@@ -3771,10 +3769,10 @@
         <v>1</v>
       </c>
       <c r="G24" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="H24" s="54"/>
-      <c r="I24" s="54"/>
+        <v>29</v>
+      </c>
+      <c r="H24" s="72"/>
+      <c r="I24" s="72"/>
       <c r="J24" s="49"/>
       <c r="K24" s="51"/>
       <c r="L24" s="49"/>
@@ -3786,7 +3784,7 @@
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="54" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B25" s="49"/>
       <c r="C25" s="50"/>
@@ -3794,12 +3792,12 @@
         <v>3</v>
       </c>
       <c r="E25" s="51" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F25" s="49"/>
       <c r="G25" s="51"/>
-      <c r="H25" s="54"/>
-      <c r="I25" s="54"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="72"/>
       <c r="J25" s="49"/>
       <c r="K25" s="51"/>
       <c r="L25" s="49"/>
@@ -3811,7 +3809,7 @@
     </row>
     <row r="26" spans="1:18">
       <c r="A26" s="54" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="B26" s="49"/>
       <c r="C26" s="50"/>
@@ -3821,10 +3819,10 @@
         <v>1</v>
       </c>
       <c r="G26" s="51" t="s">
-        <v>33</v>
-      </c>
-      <c r="H26" s="54"/>
-      <c r="I26" s="54"/>
+        <v>30</v>
+      </c>
+      <c r="H26" s="72"/>
+      <c r="I26" s="72"/>
       <c r="J26" s="49"/>
       <c r="K26" s="51"/>
       <c r="L26" s="49"/>
@@ -3836,70 +3834,70 @@
     </row>
     <row r="27" spans="1:18">
       <c r="A27" s="54" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="B27" s="49"/>
       <c r="C27" s="50"/>
-      <c r="D27" s="49">
-        <v>4</v>
-      </c>
-      <c r="E27" s="51" t="s">
-        <v>34</v>
-      </c>
+      <c r="D27" s="49"/>
+      <c r="E27" s="51"/>
       <c r="F27" s="49"/>
       <c r="G27" s="51"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="54"/>
+      <c r="H27" s="72">
+        <v>1</v>
+      </c>
+      <c r="I27" s="72" t="s">
+        <v>86</v>
+      </c>
       <c r="J27" s="49"/>
       <c r="K27" s="51"/>
       <c r="L27" s="49"/>
       <c r="M27" s="51"/>
       <c r="N27" s="49"/>
       <c r="O27" s="51"/>
-      <c r="P27" s="56"/>
-      <c r="Q27" s="51"/>
+      <c r="P27" s="52"/>
+      <c r="Q27" s="53"/>
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="54" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B28" s="49"/>
       <c r="C28" s="50"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="49">
-        <v>1</v>
-      </c>
-      <c r="G28" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="H28" s="54"/>
-      <c r="I28" s="54"/>
+      <c r="D28" s="49">
+        <v>4</v>
+      </c>
+      <c r="E28" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="F28" s="49"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="72"/>
+      <c r="I28" s="72"/>
       <c r="J28" s="49"/>
       <c r="K28" s="51"/>
       <c r="L28" s="49"/>
       <c r="M28" s="51"/>
       <c r="N28" s="49"/>
       <c r="O28" s="51"/>
-      <c r="P28" s="52"/>
-      <c r="Q28" s="53"/>
+      <c r="P28" s="56"/>
+      <c r="Q28" s="51"/>
     </row>
     <row r="29" spans="1:18">
-      <c r="A29" s="70" t="s">
-        <v>69</v>
+      <c r="A29" s="54" t="s">
+        <v>63</v>
       </c>
       <c r="B29" s="49"/>
       <c r="C29" s="50"/>
       <c r="D29" s="49"/>
       <c r="E29" s="51"/>
       <c r="F29" s="49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G29" s="51" t="s">
-        <v>36</v>
-      </c>
-      <c r="H29" s="54"/>
-      <c r="I29" s="54"/>
+        <v>32</v>
+      </c>
+      <c r="H29" s="72"/>
+      <c r="I29" s="72"/>
       <c r="J29" s="49"/>
       <c r="K29" s="51"/>
       <c r="L29" s="49"/>
@@ -3910,21 +3908,21 @@
       <c r="Q29" s="53"/>
     </row>
     <row r="30" spans="1:18">
-      <c r="A30" s="54" t="s">
-        <v>70</v>
+      <c r="A30" s="58" t="s">
+        <v>64</v>
       </c>
       <c r="B30" s="49"/>
       <c r="C30" s="50"/>
-      <c r="D30" s="49">
-        <v>5</v>
-      </c>
-      <c r="E30" s="51" t="s">
-        <v>37</v>
-      </c>
-      <c r="F30" s="49"/>
-      <c r="G30" s="55"/>
-      <c r="H30" s="54"/>
-      <c r="I30" s="54"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="49">
+        <v>2</v>
+      </c>
+      <c r="G30" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="H30" s="72"/>
+      <c r="I30" s="72"/>
       <c r="J30" s="49"/>
       <c r="K30" s="51"/>
       <c r="L30" s="49"/>
@@ -3936,20 +3934,20 @@
     </row>
     <row r="31" spans="1:18">
       <c r="A31" s="54" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="B31" s="49"/>
       <c r="C31" s="50"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="49">
-        <v>1</v>
-      </c>
-      <c r="G31" s="55" t="s">
-        <v>73</v>
-      </c>
-      <c r="H31" s="54"/>
-      <c r="I31" s="54"/>
+      <c r="D31" s="49">
+        <v>5</v>
+      </c>
+      <c r="E31" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="F31" s="49"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="72"/>
+      <c r="I31" s="72"/>
       <c r="J31" s="49"/>
       <c r="K31" s="51"/>
       <c r="L31" s="49"/>
@@ -3961,20 +3959,20 @@
     </row>
     <row r="32" spans="1:18">
       <c r="A32" s="54" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B32" s="49"/>
       <c r="C32" s="50"/>
       <c r="D32" s="49"/>
       <c r="E32" s="51"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="55"/>
-      <c r="H32" s="54">
+      <c r="F32" s="49">
         <v>1</v>
       </c>
-      <c r="I32" s="54" t="s">
-        <v>71</v>
-      </c>
+      <c r="G32" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="H32" s="72"/>
+      <c r="I32" s="72"/>
       <c r="J32" s="49"/>
       <c r="K32" s="51"/>
       <c r="L32" s="49"/>
@@ -3986,20 +3984,20 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="54" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B33" s="49"/>
       <c r="C33" s="50"/>
       <c r="D33" s="49"/>
       <c r="E33" s="51"/>
-      <c r="F33" s="49">
-        <v>2</v>
-      </c>
-      <c r="G33" s="55" t="s">
-        <v>72</v>
-      </c>
-      <c r="H33" s="54"/>
-      <c r="I33" s="54"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="72">
+        <v>1</v>
+      </c>
+      <c r="I33" s="72" t="s">
+        <v>66</v>
+      </c>
       <c r="J33" s="49"/>
       <c r="K33" s="51"/>
       <c r="L33" s="49"/>
@@ -4011,20 +4009,20 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="54" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B34" s="49"/>
       <c r="C34" s="50"/>
       <c r="D34" s="49"/>
       <c r="E34" s="51"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="55"/>
-      <c r="H34" s="54">
-        <v>1</v>
-      </c>
-      <c r="I34" s="54" t="s">
-        <v>75</v>
-      </c>
+      <c r="F34" s="49">
+        <v>2</v>
+      </c>
+      <c r="G34" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="H34" s="72"/>
+      <c r="I34" s="72"/>
       <c r="J34" s="49"/>
       <c r="K34" s="51"/>
       <c r="L34" s="49"/>
@@ -4036,20 +4034,20 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="54" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B35" s="49"/>
       <c r="C35" s="50"/>
-      <c r="D35" s="49">
-        <v>6</v>
-      </c>
-      <c r="E35" s="51" t="s">
-        <v>76</v>
-      </c>
+      <c r="D35" s="49"/>
+      <c r="E35" s="51"/>
       <c r="F35" s="49"/>
       <c r="G35" s="55"/>
-      <c r="H35" s="54"/>
-      <c r="I35" s="54"/>
+      <c r="H35" s="72">
+        <v>1</v>
+      </c>
+      <c r="I35" s="72" t="s">
+        <v>70</v>
+      </c>
       <c r="J35" s="49"/>
       <c r="K35" s="51"/>
       <c r="L35" s="49"/>
@@ -4061,20 +4059,20 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="54" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B36" s="49"/>
       <c r="C36" s="50"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="49">
-        <v>1</v>
-      </c>
-      <c r="G36" s="55" t="s">
-        <v>77</v>
-      </c>
-      <c r="H36" s="54"/>
-      <c r="I36" s="54"/>
+      <c r="D36" s="49">
+        <v>6</v>
+      </c>
+      <c r="E36" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="F36" s="49"/>
+      <c r="G36" s="55"/>
+      <c r="H36" s="72"/>
+      <c r="I36" s="72"/>
       <c r="J36" s="49"/>
       <c r="K36" s="51"/>
       <c r="L36" s="49"/>
@@ -4086,20 +4084,20 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="54" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B37" s="49"/>
       <c r="C37" s="50"/>
       <c r="D37" s="49"/>
       <c r="E37" s="51"/>
       <c r="F37" s="49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G37" s="55" t="s">
-        <v>79</v>
-      </c>
-      <c r="H37" s="54"/>
-      <c r="I37" s="54"/>
+        <v>72</v>
+      </c>
+      <c r="H37" s="72"/>
+      <c r="I37" s="72"/>
       <c r="J37" s="49"/>
       <c r="K37" s="51"/>
       <c r="L37" s="49"/>
@@ -4111,20 +4109,20 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="54" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B38" s="49"/>
       <c r="C38" s="50"/>
       <c r="D38" s="49"/>
       <c r="E38" s="51"/>
       <c r="F38" s="49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G38" s="55" t="s">
-        <v>78</v>
-      </c>
-      <c r="H38" s="54"/>
-      <c r="I38" s="54"/>
+        <v>74</v>
+      </c>
+      <c r="H38" s="72"/>
+      <c r="I38" s="72"/>
       <c r="J38" s="49"/>
       <c r="K38" s="51"/>
       <c r="L38" s="49"/>
@@ -4136,20 +4134,20 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="54" t="s">
-        <v>88</v>
-      </c>
-      <c r="B39" s="49" t="s">
-        <v>21</v>
-      </c>
-      <c r="C39" s="50" t="s">
-        <v>22</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="B39" s="49"/>
+      <c r="C39" s="50"/>
       <c r="D39" s="49"/>
       <c r="E39" s="51"/>
-      <c r="F39" s="49"/>
-      <c r="G39" s="55"/>
-      <c r="H39" s="54"/>
-      <c r="I39" s="54"/>
+      <c r="F39" s="49">
+        <v>3</v>
+      </c>
+      <c r="G39" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="H39" s="72"/>
+      <c r="I39" s="72"/>
       <c r="J39" s="49"/>
       <c r="K39" s="51"/>
       <c r="L39" s="49"/>
@@ -4158,113 +4156,6 @@
       <c r="O39" s="51"/>
       <c r="P39" s="52"/>
       <c r="Q39" s="53"/>
-    </row>
-    <row r="40" spans="1:17">
-      <c r="A40" s="54" t="s">
-        <v>89</v>
-      </c>
-      <c r="B40" s="49"/>
-      <c r="C40" s="50"/>
-      <c r="D40" s="49">
-        <v>1</v>
-      </c>
-      <c r="E40" s="51" t="s">
-        <v>90</v>
-      </c>
-      <c r="F40" s="49"/>
-      <c r="G40" s="55"/>
-      <c r="H40" s="54"/>
-      <c r="I40" s="54"/>
-      <c r="J40" s="49"/>
-      <c r="K40" s="51"/>
-      <c r="L40" s="49"/>
-      <c r="M40" s="51"/>
-      <c r="N40" s="49"/>
-      <c r="O40" s="51"/>
-      <c r="P40" s="52"/>
-      <c r="Q40" s="53"/>
-    </row>
-    <row r="41" spans="1:17">
-      <c r="A41" s="54" t="s">
-        <v>92</v>
-      </c>
-      <c r="B41" s="49"/>
-      <c r="C41" s="50"/>
-      <c r="D41" s="49">
-        <v>2</v>
-      </c>
-      <c r="E41" s="51" t="s">
-        <v>91</v>
-      </c>
-      <c r="F41" s="49"/>
-      <c r="G41" s="55"/>
-      <c r="H41" s="54"/>
-      <c r="I41" s="54"/>
-      <c r="J41" s="49"/>
-      <c r="K41" s="51"/>
-      <c r="L41" s="49"/>
-      <c r="M41" s="51"/>
-      <c r="N41" s="49"/>
-      <c r="O41" s="51"/>
-      <c r="P41" s="52"/>
-      <c r="Q41" s="53"/>
-    </row>
-    <row r="42" spans="1:17">
-      <c r="A42" s="54"/>
-      <c r="B42" s="49"/>
-      <c r="C42" s="50"/>
-      <c r="D42" s="49"/>
-      <c r="E42" s="51"/>
-      <c r="F42" s="49"/>
-      <c r="G42" s="55"/>
-      <c r="H42" s="54"/>
-      <c r="I42" s="54"/>
-      <c r="J42" s="49"/>
-      <c r="K42" s="51"/>
-      <c r="L42" s="49"/>
-      <c r="M42" s="51"/>
-      <c r="N42" s="49"/>
-      <c r="O42" s="51"/>
-      <c r="P42" s="52"/>
-      <c r="Q42" s="53"/>
-    </row>
-    <row r="43" spans="1:17">
-      <c r="A43" s="54"/>
-      <c r="B43" s="49"/>
-      <c r="C43" s="50"/>
-      <c r="D43" s="49"/>
-      <c r="E43" s="51"/>
-      <c r="F43" s="49"/>
-      <c r="G43" s="55"/>
-      <c r="H43" s="54"/>
-      <c r="I43" s="54"/>
-      <c r="J43" s="49"/>
-      <c r="K43" s="51"/>
-      <c r="L43" s="49"/>
-      <c r="M43" s="51"/>
-      <c r="N43" s="49"/>
-      <c r="O43" s="51"/>
-      <c r="P43" s="52"/>
-      <c r="Q43" s="53"/>
-    </row>
-    <row r="44" spans="1:17">
-      <c r="A44" s="54"/>
-      <c r="B44" s="49"/>
-      <c r="C44" s="50"/>
-      <c r="D44" s="49"/>
-      <c r="E44" s="51"/>
-      <c r="F44" s="49"/>
-      <c r="G44" s="55"/>
-      <c r="H44" s="54"/>
-      <c r="I44" s="54"/>
-      <c r="J44" s="49"/>
-      <c r="K44" s="51"/>
-      <c r="L44" s="49"/>
-      <c r="M44" s="51"/>
-      <c r="N44" s="49"/>
-      <c r="O44" s="51"/>
-      <c r="P44" s="52"/>
-      <c r="Q44" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4276,7 +4167,7 @@
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="L6:M6"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="69" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/_documents/메뉴구조도(KPC-SCC-IA01).xlsx
+++ b/_documents/메뉴구조도(KPC-SCC-IA01).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\_documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\silver-car-community\_documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <si>
     <t>버전</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -264,10 +264,6 @@
   </si>
   <si>
     <t>SCCUP141000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP141100</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -429,6 +425,18 @@
   </si>
   <si>
     <t>푸터</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글, 대댓글</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP141100</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP141200</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1001,6 +1009,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1019,6 +1030,15 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1028,20 +1048,8 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2310,10 +2318,10 @@
       <c r="J3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="64" t="s">
-        <v>84</v>
-      </c>
-      <c r="L3" s="64"/>
+      <c r="K3" s="65" t="s">
+        <v>83</v>
+      </c>
+      <c r="L3" s="65"/>
       <c r="M3" s="12"/>
     </row>
     <row r="4" spans="1:13" ht="21" customHeight="1">
@@ -2423,79 +2431,79 @@
     </row>
     <row r="11" spans="1:13" ht="21" customHeight="1">
       <c r="A11" s="10"/>
-      <c r="B11" s="59" t="s">
+      <c r="B11" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="59"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="59"/>
-      <c r="K11" s="59"/>
-      <c r="L11" s="59"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="60"/>
+      <c r="L11" s="60"/>
       <c r="M11" s="12"/>
     </row>
     <row r="12" spans="1:13" ht="21" customHeight="1">
       <c r="A12" s="10"/>
-      <c r="B12" s="60"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="61"/>
+      <c r="L12" s="61"/>
       <c r="M12" s="12"/>
     </row>
     <row r="13" spans="1:13" ht="21" customHeight="1">
       <c r="A13" s="10"/>
-      <c r="B13" s="60"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="60"/>
-      <c r="K13" s="60"/>
-      <c r="L13" s="60"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="61"/>
       <c r="M13" s="12"/>
     </row>
     <row r="14" spans="1:13" ht="21" customHeight="1">
       <c r="A14" s="10"/>
-      <c r="B14" s="60"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="61"/>
+      <c r="L14" s="61"/>
       <c r="M14" s="12"/>
     </row>
     <row r="15" spans="1:13" ht="21" customHeight="1" thickBot="1">
       <c r="A15" s="10"/>
-      <c r="B15" s="61"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="61"/>
-      <c r="J15" s="61"/>
-      <c r="K15" s="61"/>
-      <c r="L15" s="61"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="62"/>
+      <c r="L15" s="62"/>
       <c r="M15" s="12"/>
     </row>
     <row r="16" spans="1:13" ht="21" customHeight="1" thickTop="1">
@@ -2594,11 +2602,11 @@
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
-      <c r="F22" s="62">
+      <c r="F22" s="63">
         <v>45273</v>
       </c>
-      <c r="G22" s="63"/>
-      <c r="H22" s="63"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
       <c r="I22" s="11"/>
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
@@ -2611,9 +2619,9 @@
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
-      <c r="F23" s="63"/>
-      <c r="G23" s="63"/>
-      <c r="H23" s="63"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="64"/>
       <c r="I23" s="11"/>
       <c r="J23" s="11"/>
       <c r="K23" s="11"/>
@@ -2764,7 +2772,7 @@
     <row r="2" spans="1:13" ht="21" customHeight="1">
       <c r="A2" s="25"/>
       <c r="B2" s="26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C2" s="27"/>
       <c r="D2" s="28"/>
@@ -2774,11 +2782,11 @@
       <c r="H2" s="28"/>
       <c r="I2" s="28"/>
       <c r="J2" s="28"/>
-      <c r="K2" s="65" t="str">
+      <c r="K2" s="69" t="str">
         <f>표지!B11</f>
         <v>메뉴구조도</v>
       </c>
-      <c r="L2" s="65"/>
+      <c r="L2" s="69"/>
       <c r="M2" s="29"/>
     </row>
     <row r="3" spans="1:13" ht="31.5">
@@ -2798,19 +2806,19 @@
     </row>
     <row r="4" spans="1:13" ht="21" customHeight="1">
       <c r="A4" s="25"/>
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="70"/>
       <c r="M4" s="29"/>
     </row>
     <row r="5" spans="1:13" ht="21" customHeight="1">
@@ -2836,17 +2844,17 @@
       <c r="C6" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="67" t="s">
+      <c r="D6" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67" t="s">
+      <c r="E6" s="71"/>
+      <c r="F6" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="67"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="67"/>
-      <c r="J6" s="67"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
       <c r="K6" s="43" t="s">
         <v>3</v>
       </c>
@@ -2863,17 +2871,17 @@
       <c r="C7" s="35">
         <v>45273</v>
       </c>
-      <c r="D7" s="68" t="s">
+      <c r="D7" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="69"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="69"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="67"/>
       <c r="K7" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L7" s="34"/>
       <c r="M7" s="29"/>
@@ -2882,13 +2890,13 @@
       <c r="A8" s="25"/>
       <c r="B8" s="34"/>
       <c r="C8" s="35"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="69"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="67"/>
       <c r="K8" s="34"/>
       <c r="L8" s="34"/>
       <c r="M8" s="29"/>
@@ -2897,13 +2905,13 @@
       <c r="A9" s="25"/>
       <c r="B9" s="34"/>
       <c r="C9" s="35"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="69"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="67"/>
       <c r="K9" s="34"/>
       <c r="L9" s="34"/>
       <c r="M9" s="29"/>
@@ -2912,13 +2920,13 @@
       <c r="A10" s="25"/>
       <c r="B10" s="34"/>
       <c r="C10" s="35"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="69"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="67"/>
       <c r="K10" s="34"/>
       <c r="L10" s="34"/>
       <c r="M10" s="29"/>
@@ -2927,13 +2935,13 @@
       <c r="A11" s="25"/>
       <c r="B11" s="34"/>
       <c r="C11" s="35"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="69"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="67"/>
       <c r="K11" s="34"/>
       <c r="L11" s="34"/>
       <c r="M11" s="29"/>
@@ -2942,13 +2950,13 @@
       <c r="A12" s="25"/>
       <c r="B12" s="36"/>
       <c r="C12" s="37"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="69"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="67"/>
       <c r="K12" s="36"/>
       <c r="L12" s="36"/>
       <c r="M12" s="29"/>
@@ -2957,13 +2965,13 @@
       <c r="A13" s="25"/>
       <c r="B13" s="36"/>
       <c r="C13" s="37"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="69"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="67"/>
       <c r="K13" s="36"/>
       <c r="L13" s="36"/>
       <c r="M13" s="29"/>
@@ -2972,13 +2980,13 @@
       <c r="A14" s="25"/>
       <c r="B14" s="36"/>
       <c r="C14" s="37"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="70"/>
-      <c r="I14" s="70"/>
-      <c r="J14" s="69"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="67"/>
       <c r="K14" s="36"/>
       <c r="L14" s="36"/>
       <c r="M14" s="29"/>
@@ -2987,13 +2995,13 @@
       <c r="A15" s="25"/>
       <c r="B15" s="36"/>
       <c r="C15" s="37"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="69"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="67"/>
       <c r="K15" s="36"/>
       <c r="L15" s="36"/>
       <c r="M15" s="29"/>
@@ -3002,13 +3010,13 @@
       <c r="A16" s="25"/>
       <c r="B16" s="36"/>
       <c r="C16" s="37"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="70"/>
-      <c r="H16" s="70"/>
-      <c r="I16" s="70"/>
-      <c r="J16" s="69"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="67"/>
       <c r="K16" s="36"/>
       <c r="L16" s="36"/>
       <c r="M16" s="29"/>
@@ -3017,13 +3025,13 @@
       <c r="A17" s="25"/>
       <c r="B17" s="34"/>
       <c r="C17" s="35"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70"/>
-      <c r="I17" s="70"/>
-      <c r="J17" s="69"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="67"/>
       <c r="K17" s="34"/>
       <c r="L17" s="34"/>
       <c r="M17" s="29"/>
@@ -3032,13 +3040,13 @@
       <c r="A18" s="25"/>
       <c r="B18" s="34"/>
       <c r="C18" s="35"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="70"/>
-      <c r="H18" s="70"/>
-      <c r="I18" s="70"/>
-      <c r="J18" s="69"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="67"/>
       <c r="K18" s="34"/>
       <c r="L18" s="34"/>
       <c r="M18" s="29"/>
@@ -3047,13 +3055,13 @@
       <c r="A19" s="25"/>
       <c r="B19" s="34"/>
       <c r="C19" s="35"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="68"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="70"/>
-      <c r="I19" s="70"/>
-      <c r="J19" s="69"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="68"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="67"/>
       <c r="K19" s="34"/>
       <c r="L19" s="34"/>
       <c r="M19" s="29"/>
@@ -3062,13 +3070,13 @@
       <c r="A20" s="25"/>
       <c r="B20" s="34"/>
       <c r="C20" s="35"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="68"/>
-      <c r="G20" s="70"/>
-      <c r="H20" s="70"/>
-      <c r="I20" s="70"/>
-      <c r="J20" s="69"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="68"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="67"/>
       <c r="K20" s="34"/>
       <c r="L20" s="34"/>
       <c r="M20" s="29"/>
@@ -3077,13 +3085,13 @@
       <c r="A21" s="25"/>
       <c r="B21" s="34"/>
       <c r="C21" s="35"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="68"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="70"/>
-      <c r="I21" s="70"/>
-      <c r="J21" s="69"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="68"/>
+      <c r="H21" s="68"/>
+      <c r="I21" s="68"/>
+      <c r="J21" s="67"/>
       <c r="K21" s="34"/>
       <c r="L21" s="34"/>
       <c r="M21" s="29"/>
@@ -3092,13 +3100,13 @@
       <c r="A22" s="25"/>
       <c r="B22" s="34"/>
       <c r="C22" s="35"/>
-      <c r="D22" s="68"/>
-      <c r="E22" s="69"/>
-      <c r="F22" s="68"/>
-      <c r="G22" s="70"/>
-      <c r="H22" s="70"/>
-      <c r="I22" s="70"/>
-      <c r="J22" s="69"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="68"/>
+      <c r="H22" s="68"/>
+      <c r="I22" s="68"/>
+      <c r="J22" s="67"/>
       <c r="K22" s="34"/>
       <c r="L22" s="34"/>
       <c r="M22" s="29"/>
@@ -3107,13 +3115,13 @@
       <c r="A23" s="25"/>
       <c r="B23" s="34"/>
       <c r="C23" s="35"/>
-      <c r="D23" s="68"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="68"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="70"/>
-      <c r="I23" s="70"/>
-      <c r="J23" s="69"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="68"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="68"/>
+      <c r="J23" s="67"/>
       <c r="K23" s="34"/>
       <c r="L23" s="34"/>
       <c r="M23" s="29"/>
@@ -3122,13 +3130,13 @@
       <c r="A24" s="25"/>
       <c r="B24" s="34"/>
       <c r="C24" s="35"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="68"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="70"/>
-      <c r="I24" s="70"/>
-      <c r="J24" s="69"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="68"/>
+      <c r="I24" s="68"/>
+      <c r="J24" s="67"/>
       <c r="K24" s="34"/>
       <c r="L24" s="34"/>
       <c r="M24" s="29"/>
@@ -3210,6 +3218,36 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="B4:L4"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:J7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:J19"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="F23:J23"/>
     <mergeCell ref="D24:E24"/>
@@ -3220,36 +3258,6 @@
     <mergeCell ref="F21:J21"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="F22:J22"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:J17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:J18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:J19"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:J14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:J15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:J11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:J8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:J10"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="B4:L4"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:J7"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -3263,10 +3271,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A5:R39"/>
+  <dimension ref="A5:R40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.5"/>
@@ -3296,34 +3304,34 @@
       <c r="A6" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="71" t="s">
+      <c r="B6" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="71"/>
-      <c r="D6" s="71" t="s">
+      <c r="C6" s="72"/>
+      <c r="D6" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71" t="s">
+      <c r="E6" s="72"/>
+      <c r="F6" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="71"/>
-      <c r="H6" s="71" t="s">
+      <c r="G6" s="72"/>
+      <c r="H6" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71" t="s">
+      <c r="I6" s="72"/>
+      <c r="J6" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="71"/>
-      <c r="L6" s="71" t="s">
+      <c r="K6" s="72"/>
+      <c r="L6" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="M6" s="71"/>
-      <c r="N6" s="71" t="s">
+      <c r="M6" s="72"/>
+      <c r="N6" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="O6" s="71"/>
+      <c r="O6" s="72"/>
       <c r="P6" s="47" t="s">
         <v>17</v>
       </c>
@@ -3370,8 +3378,8 @@
       </c>
       <c r="F8" s="49"/>
       <c r="G8" s="51"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="72"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="59"/>
       <c r="J8" s="49"/>
       <c r="K8" s="51"/>
       <c r="L8" s="49"/>
@@ -3395,8 +3403,8 @@
       <c r="G9" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="72"/>
-      <c r="I9" s="72"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="59"/>
       <c r="J9" s="49"/>
       <c r="K9" s="51"/>
       <c r="L9" s="49"/>
@@ -3416,10 +3424,10 @@
       <c r="E10" s="51"/>
       <c r="F10" s="49"/>
       <c r="G10" s="51"/>
-      <c r="H10" s="72">
+      <c r="H10" s="59">
         <v>1</v>
       </c>
-      <c r="I10" s="72" t="s">
+      <c r="I10" s="59" t="s">
         <v>36</v>
       </c>
       <c r="J10" s="49"/>
@@ -3445,8 +3453,8 @@
       <c r="G11" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="72"/>
-      <c r="I11" s="72"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
       <c r="J11" s="49"/>
       <c r="K11" s="51"/>
       <c r="L11" s="49"/>
@@ -3466,10 +3474,10 @@
       <c r="E12" s="51"/>
       <c r="F12" s="49"/>
       <c r="G12" s="51"/>
-      <c r="H12" s="72">
+      <c r="H12" s="59">
         <v>1</v>
       </c>
-      <c r="I12" s="72" t="s">
+      <c r="I12" s="59" t="s">
         <v>34</v>
       </c>
       <c r="J12" s="49"/>
@@ -3491,8 +3499,8 @@
       <c r="E13" s="51"/>
       <c r="F13" s="49"/>
       <c r="G13" s="51"/>
-      <c r="H13" s="72"/>
-      <c r="I13" s="72"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
       <c r="J13" s="49">
         <v>1</v>
       </c>
@@ -3520,8 +3528,8 @@
       <c r="G14" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="H14" s="72"/>
-      <c r="I14" s="72"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
       <c r="J14" s="49"/>
       <c r="K14" s="51"/>
       <c r="L14" s="49"/>
@@ -3533,7 +3541,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="54" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B15" s="49"/>
       <c r="C15" s="50"/>
@@ -3541,10 +3549,10 @@
       <c r="E15" s="51"/>
       <c r="F15" s="49"/>
       <c r="G15" s="51"/>
-      <c r="H15" s="72">
+      <c r="H15" s="59">
         <v>1</v>
       </c>
-      <c r="I15" s="72" t="s">
+      <c r="I15" s="59" t="s">
         <v>37</v>
       </c>
       <c r="J15" s="49"/>
@@ -3566,8 +3574,8 @@
       <c r="E16" s="51"/>
       <c r="F16" s="49"/>
       <c r="G16" s="51"/>
-      <c r="H16" s="72"/>
-      <c r="I16" s="72"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="59"/>
       <c r="J16" s="49">
         <v>1</v>
       </c>
@@ -3595,8 +3603,8 @@
       <c r="G17" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="H17" s="72"/>
-      <c r="I17" s="72"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
       <c r="J17" s="49"/>
       <c r="K17" s="51"/>
       <c r="L17" s="49"/>
@@ -3616,10 +3624,10 @@
       <c r="E18" s="51"/>
       <c r="F18" s="49"/>
       <c r="G18" s="51"/>
-      <c r="H18" s="72">
+      <c r="H18" s="59">
         <v>1</v>
       </c>
-      <c r="I18" s="72" t="s">
+      <c r="I18" s="59" t="s">
         <v>39</v>
       </c>
       <c r="J18" s="49"/>
@@ -3633,7 +3641,7 @@
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="54" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="B19" s="49"/>
       <c r="C19" s="50"/>
@@ -3641,8 +3649,8 @@
       <c r="E19" s="51"/>
       <c r="F19" s="49"/>
       <c r="G19" s="51"/>
-      <c r="H19" s="72"/>
-      <c r="I19" s="72"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
       <c r="J19" s="49">
         <v>1</v>
       </c>
@@ -3658,7 +3666,7 @@
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="54" t="s">
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="B20" s="49"/>
       <c r="C20" s="50"/>
@@ -3666,25 +3674,24 @@
       <c r="E20" s="51"/>
       <c r="F20" s="49"/>
       <c r="G20" s="51"/>
-      <c r="H20" s="72">
+      <c r="H20" s="59"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="49">
         <v>2</v>
       </c>
-      <c r="I20" s="72" t="s">
-        <v>40</v>
-      </c>
-      <c r="J20" s="49"/>
-      <c r="K20" s="51"/>
+      <c r="K20" s="51" t="s">
+        <v>89</v>
+      </c>
       <c r="L20" s="49"/>
       <c r="M20" s="51"/>
       <c r="N20" s="49"/>
       <c r="O20" s="51"/>
       <c r="P20" s="52"/>
       <c r="Q20" s="53"/>
-      <c r="R20" s="54"/>
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="54" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B21" s="49"/>
       <c r="C21" s="50"/>
@@ -3692,24 +3699,25 @@
       <c r="E21" s="51"/>
       <c r="F21" s="49"/>
       <c r="G21" s="51"/>
-      <c r="H21" s="72"/>
-      <c r="I21" s="72"/>
-      <c r="J21" s="49">
-        <v>1</v>
-      </c>
-      <c r="K21" s="51" t="s">
-        <v>42</v>
-      </c>
+      <c r="H21" s="59">
+        <v>2</v>
+      </c>
+      <c r="I21" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="J21" s="49"/>
+      <c r="K21" s="51"/>
       <c r="L21" s="49"/>
       <c r="M21" s="51"/>
       <c r="N21" s="49"/>
       <c r="O21" s="51"/>
       <c r="P21" s="52"/>
       <c r="Q21" s="53"/>
+      <c r="R21" s="54"/>
     </row>
     <row r="22" spans="1:18">
       <c r="A22" s="54" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B22" s="49"/>
       <c r="C22" s="50"/>
@@ -3717,13 +3725,13 @@
       <c r="E22" s="51"/>
       <c r="F22" s="49"/>
       <c r="G22" s="51"/>
-      <c r="H22" s="72"/>
-      <c r="I22" s="72"/>
+      <c r="H22" s="59"/>
+      <c r="I22" s="59"/>
       <c r="J22" s="49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K22" s="51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L22" s="49"/>
       <c r="M22" s="51"/>
@@ -3734,22 +3742,22 @@
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="54" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B23" s="49"/>
       <c r="C23" s="50"/>
-      <c r="D23" s="49">
-        <v>2</v>
-      </c>
-      <c r="E23" s="51" t="s">
-        <v>23</v>
-      </c>
+      <c r="D23" s="49"/>
+      <c r="E23" s="51"/>
       <c r="F23" s="49"/>
       <c r="G23" s="51"/>
-      <c r="H23" s="72"/>
-      <c r="I23" s="72"/>
-      <c r="J23" s="49"/>
-      <c r="K23" s="51"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="59"/>
+      <c r="J23" s="49">
+        <v>2</v>
+      </c>
+      <c r="K23" s="51" t="s">
+        <v>43</v>
+      </c>
       <c r="L23" s="49"/>
       <c r="M23" s="51"/>
       <c r="N23" s="49"/>
@@ -3759,20 +3767,20 @@
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="54" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B24" s="49"/>
       <c r="C24" s="50"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="49">
-        <v>1</v>
-      </c>
-      <c r="G24" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="H24" s="72"/>
-      <c r="I24" s="72"/>
+      <c r="D24" s="49">
+        <v>2</v>
+      </c>
+      <c r="E24" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="49"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="59"/>
       <c r="J24" s="49"/>
       <c r="K24" s="51"/>
       <c r="L24" s="49"/>
@@ -3784,20 +3792,20 @@
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="54" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B25" s="49"/>
       <c r="C25" s="50"/>
-      <c r="D25" s="49">
-        <v>3</v>
-      </c>
-      <c r="E25" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="F25" s="49"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="72"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="49">
+        <v>1</v>
+      </c>
+      <c r="G25" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="H25" s="59"/>
+      <c r="I25" s="59"/>
       <c r="J25" s="49"/>
       <c r="K25" s="51"/>
       <c r="L25" s="49"/>
@@ -3809,20 +3817,20 @@
     </row>
     <row r="26" spans="1:18">
       <c r="A26" s="54" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="B26" s="49"/>
       <c r="C26" s="50"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="49">
-        <v>1</v>
-      </c>
-      <c r="G26" s="51" t="s">
-        <v>30</v>
-      </c>
-      <c r="H26" s="72"/>
-      <c r="I26" s="72"/>
+      <c r="D26" s="49">
+        <v>3</v>
+      </c>
+      <c r="E26" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26" s="49"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="59"/>
+      <c r="I26" s="59"/>
       <c r="J26" s="49"/>
       <c r="K26" s="51"/>
       <c r="L26" s="49"/>
@@ -3834,20 +3842,20 @@
     </row>
     <row r="27" spans="1:18">
       <c r="A27" s="54" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B27" s="49"/>
       <c r="C27" s="50"/>
       <c r="D27" s="49"/>
       <c r="E27" s="51"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="72">
+      <c r="F27" s="49">
         <v>1</v>
       </c>
-      <c r="I27" s="72" t="s">
-        <v>86</v>
-      </c>
+      <c r="G27" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="59"/>
+      <c r="I27" s="59"/>
       <c r="J27" s="49"/>
       <c r="K27" s="51"/>
       <c r="L27" s="49"/>
@@ -3859,70 +3867,70 @@
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="54" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="B28" s="49"/>
       <c r="C28" s="50"/>
-      <c r="D28" s="49">
-        <v>4</v>
-      </c>
-      <c r="E28" s="51" t="s">
-        <v>31</v>
-      </c>
+      <c r="D28" s="49"/>
+      <c r="E28" s="51"/>
       <c r="F28" s="49"/>
       <c r="G28" s="51"/>
-      <c r="H28" s="72"/>
-      <c r="I28" s="72"/>
+      <c r="H28" s="59">
+        <v>1</v>
+      </c>
+      <c r="I28" s="59" t="s">
+        <v>85</v>
+      </c>
       <c r="J28" s="49"/>
       <c r="K28" s="51"/>
       <c r="L28" s="49"/>
       <c r="M28" s="51"/>
       <c r="N28" s="49"/>
       <c r="O28" s="51"/>
-      <c r="P28" s="56"/>
-      <c r="Q28" s="51"/>
+      <c r="P28" s="52"/>
+      <c r="Q28" s="53"/>
     </row>
     <row r="29" spans="1:18">
       <c r="A29" s="54" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B29" s="49"/>
       <c r="C29" s="50"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="51"/>
-      <c r="F29" s="49">
-        <v>1</v>
-      </c>
-      <c r="G29" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="H29" s="72"/>
-      <c r="I29" s="72"/>
+      <c r="D29" s="49">
+        <v>4</v>
+      </c>
+      <c r="E29" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="F29" s="49"/>
+      <c r="G29" s="51"/>
+      <c r="H29" s="59"/>
+      <c r="I29" s="59"/>
       <c r="J29" s="49"/>
       <c r="K29" s="51"/>
       <c r="L29" s="49"/>
       <c r="M29" s="51"/>
       <c r="N29" s="49"/>
       <c r="O29" s="51"/>
-      <c r="P29" s="52"/>
-      <c r="Q29" s="53"/>
+      <c r="P29" s="56"/>
+      <c r="Q29" s="51"/>
     </row>
     <row r="30" spans="1:18">
-      <c r="A30" s="58" t="s">
-        <v>64</v>
+      <c r="A30" s="54" t="s">
+        <v>62</v>
       </c>
       <c r="B30" s="49"/>
       <c r="C30" s="50"/>
       <c r="D30" s="49"/>
       <c r="E30" s="51"/>
       <c r="F30" s="49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G30" s="51" t="s">
-        <v>33</v>
-      </c>
-      <c r="H30" s="72"/>
-      <c r="I30" s="72"/>
+        <v>32</v>
+      </c>
+      <c r="H30" s="59"/>
+      <c r="I30" s="59"/>
       <c r="J30" s="49"/>
       <c r="K30" s="51"/>
       <c r="L30" s="49"/>
@@ -3933,21 +3941,21 @@
       <c r="Q30" s="53"/>
     </row>
     <row r="31" spans="1:18">
-      <c r="A31" s="54" t="s">
-        <v>65</v>
+      <c r="A31" s="58" t="s">
+        <v>63</v>
       </c>
       <c r="B31" s="49"/>
       <c r="C31" s="50"/>
-      <c r="D31" s="49">
-        <v>5</v>
-      </c>
-      <c r="E31" s="51" t="s">
-        <v>89</v>
-      </c>
-      <c r="F31" s="49"/>
-      <c r="G31" s="55"/>
-      <c r="H31" s="72"/>
-      <c r="I31" s="72"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="49">
+        <v>2</v>
+      </c>
+      <c r="G31" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="H31" s="59"/>
+      <c r="I31" s="59"/>
       <c r="J31" s="49"/>
       <c r="K31" s="51"/>
       <c r="L31" s="49"/>
@@ -3959,20 +3967,20 @@
     </row>
     <row r="32" spans="1:18">
       <c r="A32" s="54" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="B32" s="49"/>
       <c r="C32" s="50"/>
-      <c r="D32" s="49"/>
-      <c r="E32" s="51"/>
-      <c r="F32" s="49">
-        <v>1</v>
-      </c>
-      <c r="G32" s="55" t="s">
-        <v>68</v>
-      </c>
-      <c r="H32" s="72"/>
-      <c r="I32" s="72"/>
+      <c r="D32" s="49">
+        <v>5</v>
+      </c>
+      <c r="E32" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="F32" s="49"/>
+      <c r="G32" s="55"/>
+      <c r="H32" s="59"/>
+      <c r="I32" s="59"/>
       <c r="J32" s="49"/>
       <c r="K32" s="51"/>
       <c r="L32" s="49"/>
@@ -3984,20 +3992,20 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="54" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B33" s="49"/>
       <c r="C33" s="50"/>
       <c r="D33" s="49"/>
       <c r="E33" s="51"/>
-      <c r="F33" s="49"/>
-      <c r="G33" s="55"/>
-      <c r="H33" s="72">
+      <c r="F33" s="49">
         <v>1</v>
       </c>
-      <c r="I33" s="72" t="s">
-        <v>66</v>
-      </c>
+      <c r="G33" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="H33" s="59"/>
+      <c r="I33" s="59"/>
       <c r="J33" s="49"/>
       <c r="K33" s="51"/>
       <c r="L33" s="49"/>
@@ -4009,20 +4017,20 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="54" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B34" s="49"/>
       <c r="C34" s="50"/>
       <c r="D34" s="49"/>
       <c r="E34" s="51"/>
-      <c r="F34" s="49">
-        <v>2</v>
-      </c>
-      <c r="G34" s="55" t="s">
-        <v>67</v>
-      </c>
-      <c r="H34" s="72"/>
-      <c r="I34" s="72"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="55"/>
+      <c r="H34" s="59">
+        <v>1</v>
+      </c>
+      <c r="I34" s="59" t="s">
+        <v>65</v>
+      </c>
       <c r="J34" s="49"/>
       <c r="K34" s="51"/>
       <c r="L34" s="49"/>
@@ -4034,20 +4042,20 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="54" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B35" s="49"/>
       <c r="C35" s="50"/>
       <c r="D35" s="49"/>
       <c r="E35" s="51"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="55"/>
-      <c r="H35" s="72">
-        <v>1</v>
-      </c>
-      <c r="I35" s="72" t="s">
-        <v>70</v>
-      </c>
+      <c r="F35" s="49">
+        <v>2</v>
+      </c>
+      <c r="G35" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="H35" s="59"/>
+      <c r="I35" s="59"/>
       <c r="J35" s="49"/>
       <c r="K35" s="51"/>
       <c r="L35" s="49"/>
@@ -4059,20 +4067,20 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="54" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B36" s="49"/>
       <c r="C36" s="50"/>
-      <c r="D36" s="49">
-        <v>6</v>
-      </c>
-      <c r="E36" s="51" t="s">
-        <v>71</v>
-      </c>
+      <c r="D36" s="49"/>
+      <c r="E36" s="51"/>
       <c r="F36" s="49"/>
       <c r="G36" s="55"/>
-      <c r="H36" s="72"/>
-      <c r="I36" s="72"/>
+      <c r="H36" s="59">
+        <v>1</v>
+      </c>
+      <c r="I36" s="59" t="s">
+        <v>69</v>
+      </c>
       <c r="J36" s="49"/>
       <c r="K36" s="51"/>
       <c r="L36" s="49"/>
@@ -4084,20 +4092,20 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="54" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B37" s="49"/>
       <c r="C37" s="50"/>
-      <c r="D37" s="49"/>
-      <c r="E37" s="51"/>
-      <c r="F37" s="49">
-        <v>1</v>
-      </c>
-      <c r="G37" s="55" t="s">
-        <v>72</v>
-      </c>
-      <c r="H37" s="72"/>
-      <c r="I37" s="72"/>
+      <c r="D37" s="49">
+        <v>6</v>
+      </c>
+      <c r="E37" s="51" t="s">
+        <v>70</v>
+      </c>
+      <c r="F37" s="49"/>
+      <c r="G37" s="55"/>
+      <c r="H37" s="59"/>
+      <c r="I37" s="59"/>
       <c r="J37" s="49"/>
       <c r="K37" s="51"/>
       <c r="L37" s="49"/>
@@ -4109,20 +4117,20 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="54" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B38" s="49"/>
       <c r="C38" s="50"/>
       <c r="D38" s="49"/>
       <c r="E38" s="51"/>
       <c r="F38" s="49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G38" s="55" t="s">
-        <v>74</v>
-      </c>
-      <c r="H38" s="72"/>
-      <c r="I38" s="72"/>
+        <v>71</v>
+      </c>
+      <c r="H38" s="59"/>
+      <c r="I38" s="59"/>
       <c r="J38" s="49"/>
       <c r="K38" s="51"/>
       <c r="L38" s="49"/>
@@ -4134,20 +4142,20 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="54" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B39" s="49"/>
       <c r="C39" s="50"/>
       <c r="D39" s="49"/>
       <c r="E39" s="51"/>
       <c r="F39" s="49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G39" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="H39" s="72"/>
-      <c r="I39" s="72"/>
+      <c r="H39" s="59"/>
+      <c r="I39" s="59"/>
       <c r="J39" s="49"/>
       <c r="K39" s="51"/>
       <c r="L39" s="49"/>
@@ -4156,6 +4164,31 @@
       <c r="O39" s="51"/>
       <c r="P39" s="52"/>
       <c r="Q39" s="53"/>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40" s="54" t="s">
+        <v>81</v>
+      </c>
+      <c r="B40" s="49"/>
+      <c r="C40" s="50"/>
+      <c r="D40" s="49"/>
+      <c r="E40" s="51"/>
+      <c r="F40" s="49">
+        <v>3</v>
+      </c>
+      <c r="G40" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="H40" s="59"/>
+      <c r="I40" s="59"/>
+      <c r="J40" s="49"/>
+      <c r="K40" s="51"/>
+      <c r="L40" s="49"/>
+      <c r="M40" s="51"/>
+      <c r="N40" s="49"/>
+      <c r="O40" s="51"/>
+      <c r="P40" s="52"/>
+      <c r="Q40" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/_documents/메뉴구조도(KPC-SCC-IA01).xlsx
+++ b/_documents/메뉴구조도(KPC-SCC-IA01).xlsx
@@ -21,23 +21,12 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'사용자 포털'!$1:$4</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="160">
   <si>
     <t>버전</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -135,14 +124,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>메뉴 선택</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>차량 검색</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>인기 차량 목록</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -155,10 +136,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>차량 모델</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>자유게시판</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -215,14 +192,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>글 저장 기능</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>첨부 파일 기능</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>SCCUP000000</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -231,12 +200,229 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
+    <t>SCCUP200000</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP400000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP500000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>보조금 자격 포스터 팝업</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리지역 판매소 확인</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">보조금 자격 확인 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>강다솜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">KPC-SCC-IA01
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>KepcoA 스프린트 프로젝트 1조</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매 버튼 클릭 시 네이버 쇼핑 이동</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>푸터</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글, 대댓글</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>비회원</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 작성</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 페이지 이동</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>홈페이지 이동</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>차량 목록</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매 버튼 클릭 시 네이버 쇼핑 이동</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>홈페이지 이동</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 정보 수정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 정보 수정 이동</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 화면 이동</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>홈페이지 이동</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 탈퇴</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>SCCUP110000</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
+    <t>회원탈퇴 동의 알람</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 알람</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 알람</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>공통</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>차량 검색</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>보조기기 등록업소 페이지 이동</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>자유게시판</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>글 작성</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 알람</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 작성</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>비회원</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>글 게시</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>자유게시판 페이지 이동</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 게시</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 목록</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>대댓글 작성</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 삭제</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>글 목록</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>글 상세페이지</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>글 수정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>글 삭제</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원/관리자</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>SCCUP111000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP111100</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP111200</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP111300</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>SCCUP120000</t>
@@ -244,42 +430,18 @@
   </si>
   <si>
     <t>SCCUP121000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP121100</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP130000</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>SCCUP131100</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP140000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP141000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP142000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP142100</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP142200</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP200000</t>
+    <t>SCCUP122000</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP122100</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP122200</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -287,156 +449,231 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
+    <t>SCCUP211000</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP211100</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP211200</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP221000</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP220000</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
     <t>SCCUP300000</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>SCCUP400000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP410000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>SCCUP4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0000</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP500000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>보조금 자격 포스터 팝업</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>우리지역 판매소 확인</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">보조금 자격 확인 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP131000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP131000 로 이동</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>계정</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원가입</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그아웃</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP510000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP511000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP520000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP521000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP600000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP610000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP620000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP630000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>강다솜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">KPC-SCC-IA01
-</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>KepcoA 스프린트 프로젝트 1조</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>구매 버튼 클릭 시 네이버 쇼핑 이동</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>SCCUP310000</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>SCCUP311000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>푸터</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>댓글, 대댓글</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP141100</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP141200</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP311100</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP320000</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP321000</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP321100</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP330000</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP331000</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP331100</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP340000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP341000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP341100</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP341200</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP342000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP342100</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP343000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP343100</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP350000</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP351000</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP351100</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP360000</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP361000</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP370000</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP371000</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP372000</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP380000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP381000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP381100</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP382000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP382100</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP410000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP411000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP411100</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP412000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP412100</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP510000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP511000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP512000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP511100</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP511200</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP512100</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP512110</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP512120</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP512200</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP512210</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP512300</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP512310</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP512320</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용 수정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>전반적</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>강다솜</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -444,7 +681,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="23">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="돋움"/>
@@ -808,9 +1048,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="8"/>
       </right>
@@ -831,7 +1069,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -973,83 +1211,110 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1195,7 +1460,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="0" y="38100"/>
-          <a:ext cx="16402050" cy="776818"/>
+          <a:ext cx="16839079" cy="786903"/>
           <a:chOff x="136071" y="136071"/>
           <a:chExt cx="11112954" cy="530680"/>
         </a:xfrm>
@@ -1876,7 +2141,7 @@
                 <a:latin typeface="+mn-ea"/>
                 <a:ea typeface="+mn-ea"/>
               </a:rPr>
-              <a:t>2023-12-13</a:t>
+              <a:t>2023-12-18</a:t>
             </a:r>
             <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1000">
               <a:latin typeface="+mn-ea"/>
@@ -1928,7 +2193,7 @@
                 <a:latin typeface="+mn-ea"/>
                 <a:ea typeface="+mn-ea"/>
               </a:rPr>
-              <a:t>1.0</a:t>
+              <a:t>2.0</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -2267,7 +2532,7 @@
       <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.33203125" style="2" customWidth="1"/>
     <col min="2" max="12" width="11.44140625" style="2" customWidth="1"/>
@@ -2275,7 +2540,7 @@
     <col min="14" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="21" customHeight="1">
+    <row r="1" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="7"/>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -2290,7 +2555,7 @@
       <c r="L1" s="8"/>
       <c r="M1" s="9"/>
     </row>
-    <row r="2" spans="1:13" ht="21" customHeight="1">
+    <row r="2" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="10"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -2305,7 +2570,7 @@
       <c r="L2" s="11"/>
       <c r="M2" s="12"/>
     </row>
-    <row r="3" spans="1:13" ht="21" customHeight="1">
+    <row r="3" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="10"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -2318,13 +2583,13 @@
       <c r="J3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="65" t="s">
-        <v>83</v>
-      </c>
-      <c r="L3" s="65"/>
+      <c r="K3" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="L3" s="64"/>
       <c r="M3" s="12"/>
     </row>
-    <row r="4" spans="1:13" ht="21" customHeight="1">
+    <row r="4" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="10"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -2339,7 +2604,7 @@
       <c r="L4" s="11"/>
       <c r="M4" s="12"/>
     </row>
-    <row r="5" spans="1:13" ht="21" customHeight="1">
+    <row r="5" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="10"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -2354,7 +2619,7 @@
       <c r="L5" s="11"/>
       <c r="M5" s="12"/>
     </row>
-    <row r="6" spans="1:13" ht="21" customHeight="1">
+    <row r="6" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="10"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -2369,7 +2634,7 @@
       <c r="L6" s="11"/>
       <c r="M6" s="12"/>
     </row>
-    <row r="7" spans="1:13" ht="21" customHeight="1">
+    <row r="7" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="10"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -2384,7 +2649,7 @@
       <c r="L7" s="11"/>
       <c r="M7" s="12"/>
     </row>
-    <row r="8" spans="1:13" ht="21" customHeight="1">
+    <row r="8" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="10"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -2399,7 +2664,7 @@
       <c r="L8" s="11"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" ht="21" customHeight="1">
+    <row r="9" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="10"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -2414,7 +2679,7 @@
       <c r="L9" s="11"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="1:13" ht="21" customHeight="1">
+    <row r="10" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="10"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -2429,84 +2694,84 @@
       <c r="L10" s="11"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="1:13" ht="21" customHeight="1">
+    <row r="11" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="10"/>
-      <c r="B11" s="60" t="s">
+      <c r="B11" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="60"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="60"/>
-      <c r="K11" s="60"/>
-      <c r="L11" s="60"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="59"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="1:13" ht="21" customHeight="1">
+    <row r="12" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="10"/>
-      <c r="B12" s="61"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="61"/>
-      <c r="K12" s="61"/>
-      <c r="L12" s="61"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
       <c r="M12" s="12"/>
     </row>
-    <row r="13" spans="1:13" ht="21" customHeight="1">
+    <row r="13" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="10"/>
-      <c r="B13" s="61"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="61"/>
-      <c r="L13" s="61"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="60"/>
+      <c r="L13" s="60"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="1:13" ht="21" customHeight="1">
+    <row r="14" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="10"/>
-      <c r="B14" s="61"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="61"/>
-      <c r="L14" s="61"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
       <c r="M14" s="12"/>
     </row>
-    <row r="15" spans="1:13" ht="21" customHeight="1" thickBot="1">
+    <row r="15" spans="1:13" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="10"/>
-      <c r="B15" s="62"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="62"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="62"/>
-      <c r="L15" s="62"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="61"/>
+      <c r="L15" s="61"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="1:13" ht="21" customHeight="1" thickTop="1">
+    <row r="16" spans="1:13" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A16" s="10"/>
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
@@ -2521,7 +2786,7 @@
       <c r="L16" s="14"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" ht="21" customHeight="1">
+    <row r="17" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="10"/>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
@@ -2536,7 +2801,7 @@
       <c r="L17" s="14"/>
       <c r="M17" s="12"/>
     </row>
-    <row r="18" spans="1:13" ht="21" customHeight="1">
+    <row r="18" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="10"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
@@ -2551,7 +2816,7 @@
       <c r="L18" s="14"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" ht="21" customHeight="1">
+    <row r="19" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="10"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -2566,7 +2831,7 @@
       <c r="L19" s="11"/>
       <c r="M19" s="12"/>
     </row>
-    <row r="20" spans="1:13" ht="21" customHeight="1">
+    <row r="20" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="10"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -2581,7 +2846,7 @@
       <c r="L20" s="11"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" ht="21" customHeight="1">
+    <row r="21" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="10"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -2596,39 +2861,39 @@
       <c r="L21" s="11"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13" ht="21" customHeight="1">
+    <row r="22" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="10"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
-      <c r="F22" s="63">
+      <c r="F22" s="62">
         <v>45273</v>
       </c>
-      <c r="G22" s="64"/>
-      <c r="H22" s="64"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="63"/>
       <c r="I22" s="11"/>
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
       <c r="L22" s="11"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13" ht="21" customHeight="1">
+    <row r="23" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="10"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
-      <c r="F23" s="64"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="64"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="63"/>
       <c r="I23" s="11"/>
       <c r="J23" s="11"/>
       <c r="K23" s="11"/>
       <c r="L23" s="11"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" ht="21" customHeight="1">
+    <row r="24" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -2643,7 +2908,7 @@
       <c r="L24" s="11"/>
       <c r="M24" s="12"/>
     </row>
-    <row r="25" spans="1:13" ht="21" customHeight="1">
+    <row r="25" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -2658,7 +2923,7 @@
       <c r="L25" s="11"/>
       <c r="M25" s="12"/>
     </row>
-    <row r="26" spans="1:13" ht="21" customHeight="1">
+    <row r="26" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -2673,7 +2938,7 @@
       <c r="L26" s="11"/>
       <c r="M26" s="12"/>
     </row>
-    <row r="27" spans="1:13" ht="21" customHeight="1">
+    <row r="27" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="10"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -2688,7 +2953,7 @@
       <c r="L27" s="11"/>
       <c r="M27" s="12"/>
     </row>
-    <row r="28" spans="1:13" ht="21" customHeight="1">
+    <row r="28" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -2703,7 +2968,7 @@
       <c r="L28" s="11"/>
       <c r="M28" s="12"/>
     </row>
-    <row r="29" spans="1:13" ht="21" customHeight="1" thickBot="1">
+    <row r="29" spans="1:13" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A29" s="17"/>
       <c r="B29" s="18"/>
       <c r="C29" s="18"/>
@@ -2740,10 +3005,10 @@
   <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.33203125" style="4" customWidth="1"/>
     <col min="2" max="2" width="11.44140625" style="5" customWidth="1"/>
@@ -2754,7 +3019,7 @@
     <col min="14" max="16384" width="8.77734375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="21" customHeight="1">
+    <row r="1" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="20"/>
       <c r="B1" s="21"/>
       <c r="C1" s="22"/>
@@ -2769,10 +3034,10 @@
       <c r="L1" s="21"/>
       <c r="M1" s="24"/>
     </row>
-    <row r="2" spans="1:13" ht="21" customHeight="1">
+    <row r="2" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="25"/>
       <c r="B2" s="26" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="C2" s="27"/>
       <c r="D2" s="28"/>
@@ -2782,14 +3047,14 @@
       <c r="H2" s="28"/>
       <c r="I2" s="28"/>
       <c r="J2" s="28"/>
-      <c r="K2" s="69" t="str">
+      <c r="K2" s="68" t="str">
         <f>표지!B11</f>
         <v>메뉴구조도</v>
       </c>
-      <c r="L2" s="69"/>
+      <c r="L2" s="68"/>
       <c r="M2" s="29"/>
     </row>
-    <row r="3" spans="1:13" ht="31.5">
+    <row r="3" spans="1:13" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A3" s="25"/>
       <c r="B3" s="30"/>
       <c r="C3" s="31"/>
@@ -2804,24 +3069,24 @@
       <c r="L3" s="30"/>
       <c r="M3" s="29"/>
     </row>
-    <row r="4" spans="1:13" ht="21" customHeight="1">
+    <row r="4" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="25"/>
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="70"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
       <c r="M4" s="29"/>
     </row>
-    <row r="5" spans="1:13" ht="21" customHeight="1">
+    <row r="5" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="25"/>
       <c r="B5" s="33"/>
       <c r="C5" s="27"/>
@@ -2836,7 +3101,7 @@
       <c r="L5" s="33"/>
       <c r="M5" s="29"/>
     </row>
-    <row r="6" spans="1:13" ht="21" customHeight="1">
+    <row r="6" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="25"/>
       <c r="B6" s="43" t="s">
         <v>0</v>
@@ -2844,17 +3109,17 @@
       <c r="C6" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="71" t="s">
+      <c r="D6" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71" t="s">
+      <c r="E6" s="70"/>
+      <c r="F6" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="71"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="70"/>
       <c r="K6" s="43" t="s">
         <v>3</v>
       </c>
@@ -2863,285 +3128,295 @@
       </c>
       <c r="M6" s="29"/>
     </row>
-    <row r="7" spans="1:13" ht="21" customHeight="1">
+    <row r="7" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="25"/>
-      <c r="B7" s="34">
+      <c r="B7" s="79">
         <v>1</v>
       </c>
       <c r="C7" s="35">
         <v>45273</v>
       </c>
-      <c r="D7" s="66" t="s">
+      <c r="D7" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="67"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="67"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="66"/>
       <c r="K7" s="34" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="L7" s="34"/>
       <c r="M7" s="29"/>
     </row>
-    <row r="8" spans="1:13" ht="21" customHeight="1">
+    <row r="8" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="25"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="68"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="67"/>
-      <c r="K8" s="34"/>
+      <c r="B8" s="79">
+        <v>2</v>
+      </c>
+      <c r="C8" s="35">
+        <v>45278</v>
+      </c>
+      <c r="D8" s="80" t="s">
+        <v>157</v>
+      </c>
+      <c r="E8" s="81"/>
+      <c r="F8" s="65" t="s">
+        <v>158</v>
+      </c>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="34" t="s">
+        <v>159</v>
+      </c>
       <c r="L8" s="34"/>
       <c r="M8" s="29"/>
     </row>
-    <row r="9" spans="1:13" ht="21" customHeight="1">
+    <row r="9" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="25"/>
       <c r="B9" s="34"/>
       <c r="C9" s="35"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="68"/>
-      <c r="I9" s="68"/>
-      <c r="J9" s="67"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="66"/>
       <c r="K9" s="34"/>
       <c r="L9" s="34"/>
       <c r="M9" s="29"/>
     </row>
-    <row r="10" spans="1:13" ht="21" customHeight="1">
+    <row r="10" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="25"/>
       <c r="B10" s="34"/>
       <c r="C10" s="35"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="68"/>
-      <c r="H10" s="68"/>
-      <c r="I10" s="68"/>
-      <c r="J10" s="67"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="66"/>
       <c r="K10" s="34"/>
       <c r="L10" s="34"/>
       <c r="M10" s="29"/>
     </row>
-    <row r="11" spans="1:13" ht="21" customHeight="1">
+    <row r="11" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="25"/>
       <c r="B11" s="34"/>
       <c r="C11" s="35"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="68"/>
-      <c r="I11" s="68"/>
-      <c r="J11" s="67"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="66"/>
       <c r="K11" s="34"/>
       <c r="L11" s="34"/>
       <c r="M11" s="29"/>
     </row>
-    <row r="12" spans="1:13" ht="21" customHeight="1">
+    <row r="12" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="25"/>
       <c r="B12" s="36"/>
       <c r="C12" s="37"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="67"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="66"/>
       <c r="K12" s="36"/>
       <c r="L12" s="36"/>
       <c r="M12" s="29"/>
     </row>
-    <row r="13" spans="1:13" ht="21" customHeight="1">
+    <row r="13" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="25"/>
       <c r="B13" s="36"/>
       <c r="C13" s="37"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="68"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="67"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="66"/>
       <c r="K13" s="36"/>
       <c r="L13" s="36"/>
       <c r="M13" s="29"/>
     </row>
-    <row r="14" spans="1:13" ht="21" customHeight="1">
+    <row r="14" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="25"/>
       <c r="B14" s="36"/>
       <c r="C14" s="37"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="68"/>
-      <c r="H14" s="68"/>
-      <c r="I14" s="68"/>
-      <c r="J14" s="67"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="67"/>
+      <c r="J14" s="66"/>
       <c r="K14" s="36"/>
       <c r="L14" s="36"/>
       <c r="M14" s="29"/>
     </row>
-    <row r="15" spans="1:13" ht="21" customHeight="1">
+    <row r="15" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="25"/>
       <c r="B15" s="36"/>
       <c r="C15" s="37"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="68"/>
-      <c r="H15" s="68"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="67"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="66"/>
       <c r="K15" s="36"/>
       <c r="L15" s="36"/>
       <c r="M15" s="29"/>
     </row>
-    <row r="16" spans="1:13" ht="21" customHeight="1">
+    <row r="16" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="25"/>
       <c r="B16" s="36"/>
       <c r="C16" s="37"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="68"/>
-      <c r="H16" s="68"/>
-      <c r="I16" s="68"/>
-      <c r="J16" s="67"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="66"/>
       <c r="K16" s="36"/>
       <c r="L16" s="36"/>
       <c r="M16" s="29"/>
     </row>
-    <row r="17" spans="1:13" ht="21" customHeight="1">
+    <row r="17" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="25"/>
       <c r="B17" s="34"/>
       <c r="C17" s="35"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="68"/>
-      <c r="H17" s="68"/>
-      <c r="I17" s="68"/>
-      <c r="J17" s="67"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="67"/>
+      <c r="J17" s="66"/>
       <c r="K17" s="34"/>
       <c r="L17" s="34"/>
       <c r="M17" s="29"/>
     </row>
-    <row r="18" spans="1:13" ht="21" customHeight="1">
+    <row r="18" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="25"/>
       <c r="B18" s="34"/>
       <c r="C18" s="35"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="68"/>
-      <c r="H18" s="68"/>
-      <c r="I18" s="68"/>
-      <c r="J18" s="67"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="66"/>
       <c r="K18" s="34"/>
       <c r="L18" s="34"/>
       <c r="M18" s="29"/>
     </row>
-    <row r="19" spans="1:13" ht="21" customHeight="1">
+    <row r="19" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="25"/>
       <c r="B19" s="34"/>
       <c r="C19" s="35"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="68"/>
-      <c r="H19" s="68"/>
-      <c r="I19" s="68"/>
-      <c r="J19" s="67"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="66"/>
       <c r="K19" s="34"/>
       <c r="L19" s="34"/>
       <c r="M19" s="29"/>
     </row>
-    <row r="20" spans="1:13" ht="21" customHeight="1">
+    <row r="20" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="25"/>
       <c r="B20" s="34"/>
       <c r="C20" s="35"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="68"/>
-      <c r="H20" s="68"/>
-      <c r="I20" s="68"/>
-      <c r="J20" s="67"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="67"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="66"/>
       <c r="K20" s="34"/>
       <c r="L20" s="34"/>
       <c r="M20" s="29"/>
     </row>
-    <row r="21" spans="1:13" ht="21" customHeight="1">
+    <row r="21" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="25"/>
       <c r="B21" s="34"/>
       <c r="C21" s="35"/>
-      <c r="D21" s="66"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="68"/>
-      <c r="H21" s="68"/>
-      <c r="I21" s="68"/>
-      <c r="J21" s="67"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="67"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="67"/>
+      <c r="J21" s="66"/>
       <c r="K21" s="34"/>
       <c r="L21" s="34"/>
       <c r="M21" s="29"/>
     </row>
-    <row r="22" spans="1:13" ht="21" customHeight="1">
+    <row r="22" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="25"/>
       <c r="B22" s="34"/>
       <c r="C22" s="35"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="68"/>
-      <c r="H22" s="68"/>
-      <c r="I22" s="68"/>
-      <c r="J22" s="67"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="67"/>
+      <c r="I22" s="67"/>
+      <c r="J22" s="66"/>
       <c r="K22" s="34"/>
       <c r="L22" s="34"/>
       <c r="M22" s="29"/>
     </row>
-    <row r="23" spans="1:13" ht="21" customHeight="1">
+    <row r="23" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="25"/>
       <c r="B23" s="34"/>
       <c r="C23" s="35"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="68"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="68"/>
-      <c r="J23" s="67"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="67"/>
+      <c r="J23" s="66"/>
       <c r="K23" s="34"/>
       <c r="L23" s="34"/>
       <c r="M23" s="29"/>
     </row>
-    <row r="24" spans="1:13" ht="21" customHeight="1">
+    <row r="24" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="25"/>
       <c r="B24" s="34"/>
       <c r="C24" s="35"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="68"/>
-      <c r="H24" s="68"/>
-      <c r="I24" s="68"/>
-      <c r="J24" s="67"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="67"/>
+      <c r="J24" s="66"/>
       <c r="K24" s="34"/>
       <c r="L24" s="34"/>
       <c r="M24" s="29"/>
     </row>
-    <row r="25" spans="1:13" ht="21" customHeight="1">
+    <row r="25" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="25"/>
       <c r="B25" s="33"/>
       <c r="C25" s="27"/>
@@ -3156,7 +3431,7 @@
       <c r="L25" s="33"/>
       <c r="M25" s="29"/>
     </row>
-    <row r="26" spans="1:13" ht="21" customHeight="1">
+    <row r="26" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="25"/>
       <c r="B26" s="33"/>
       <c r="C26" s="27"/>
@@ -3171,7 +3446,7 @@
       <c r="L26" s="33"/>
       <c r="M26" s="29"/>
     </row>
-    <row r="27" spans="1:13" ht="21" customHeight="1">
+    <row r="27" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="25"/>
       <c r="B27" s="33"/>
       <c r="C27" s="27"/>
@@ -3186,7 +3461,7 @@
       <c r="L27" s="33"/>
       <c r="M27" s="29"/>
     </row>
-    <row r="28" spans="1:13" ht="21" customHeight="1">
+    <row r="28" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="25"/>
       <c r="B28" s="33"/>
       <c r="C28" s="27"/>
@@ -3201,7 +3476,7 @@
       <c r="L28" s="33"/>
       <c r="M28" s="29"/>
     </row>
-    <row r="29" spans="1:13" ht="21" customHeight="1" thickBot="1">
+    <row r="29" spans="1:13" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A29" s="38"/>
       <c r="B29" s="39"/>
       <c r="C29" s="40"/>
@@ -3271,13 +3546,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A5:R40"/>
+  <dimension ref="A1:R76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J43" sqref="J43"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="20" style="45" customWidth="1"/>
     <col min="2" max="2" width="4.33203125" style="45" customWidth="1"/>
@@ -3288,10 +3563,10 @@
     <col min="7" max="7" width="20" style="45" customWidth="1"/>
     <col min="8" max="8" width="3.6640625" style="45" customWidth="1"/>
     <col min="9" max="9" width="26.6640625" style="45" customWidth="1"/>
-    <col min="10" max="10" width="3.109375" style="45" customWidth="1"/>
+    <col min="10" max="10" width="4.44140625" style="45" customWidth="1"/>
     <col min="11" max="11" width="25.109375" style="45" customWidth="1"/>
-    <col min="12" max="12" width="3.77734375" style="45" customWidth="1"/>
-    <col min="13" max="13" width="8.109375" style="45" customWidth="1"/>
+    <col min="12" max="12" width="4.44140625" style="45" customWidth="1"/>
+    <col min="13" max="13" width="11.109375" style="45" customWidth="1"/>
     <col min="14" max="14" width="4.109375" style="45" customWidth="1"/>
     <col min="15" max="15" width="7.77734375" style="45" customWidth="1"/>
     <col min="16" max="16" width="13.44140625" style="45" bestFit="1" customWidth="1"/>
@@ -3299,896 +3574,1890 @@
     <col min="18" max="16384" width="8.77734375" style="45"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" ht="9" customHeight="1"/>
-    <row r="6" spans="1:17" ht="27">
-      <c r="A6" s="47" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A1" s="57"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A2" s="57"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="57"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A3" s="57"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="57"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A4" s="57"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="57"/>
+    </row>
+    <row r="5" spans="1:17" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="57"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="57"/>
+      <c r="O5" s="57"/>
+      <c r="P5" s="57"/>
+      <c r="Q5" s="57"/>
+    </row>
+    <row r="6" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+      <c r="A6" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="72" t="s">
+      <c r="B6" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72" t="s">
+      <c r="C6" s="71"/>
+      <c r="D6" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72" t="s">
+      <c r="E6" s="71"/>
+      <c r="F6" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72" t="s">
+      <c r="G6" s="71"/>
+      <c r="H6" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72" t="s">
+      <c r="I6" s="71"/>
+      <c r="J6" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="72"/>
-      <c r="L6" s="72" t="s">
+      <c r="K6" s="71"/>
+      <c r="L6" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="M6" s="72"/>
-      <c r="N6" s="72" t="s">
+      <c r="M6" s="71"/>
+      <c r="N6" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="O6" s="72"/>
-      <c r="P6" s="47" t="s">
+      <c r="O6" s="71"/>
+      <c r="P6" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="Q6" s="47" t="s">
+      <c r="Q6" s="54" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="48" t="s">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A7" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="48"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="48"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="51"/>
+      <c r="Q7" s="52"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A8" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="48"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="48">
+        <v>1</v>
+      </c>
+      <c r="E8" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="48"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="75"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="50"/>
+      <c r="P8" s="51"/>
+      <c r="Q8" s="52"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A9" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="48"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="48">
+        <v>1</v>
+      </c>
+      <c r="G9" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" s="55"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="48"/>
+      <c r="O9" s="50"/>
+      <c r="P9" s="51"/>
+      <c r="Q9" s="52"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A10" s="47" t="s">
+        <v>93</v>
+      </c>
+      <c r="B10" s="48"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="55">
+        <v>1</v>
+      </c>
+      <c r="I10" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="J10" s="48"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="48"/>
+      <c r="O10" s="50"/>
+      <c r="P10" s="51"/>
+      <c r="Q10" s="52"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A11" s="47" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" s="48"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="75"/>
+      <c r="J11" s="48">
+        <v>1</v>
+      </c>
+      <c r="K11" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="L11" s="48"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="48"/>
+      <c r="O11" s="50"/>
+      <c r="P11" s="51"/>
+      <c r="Q11" s="52"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A12" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" s="48"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="75"/>
+      <c r="J12" s="48">
+        <v>2</v>
+      </c>
+      <c r="K12" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="L12" s="48"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="48"/>
+      <c r="O12" s="50"/>
+      <c r="P12" s="51"/>
+      <c r="Q12" s="52"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A13" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="B13" s="48"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="75"/>
+      <c r="J13" s="48">
+        <v>3</v>
+      </c>
+      <c r="K13" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="L13" s="48"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="48"/>
+      <c r="O13" s="50"/>
+      <c r="P13" s="51"/>
+      <c r="Q13" s="52"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A14" s="47" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" s="48"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="48">
+        <v>2</v>
+      </c>
+      <c r="G14" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14" s="55"/>
+      <c r="I14" s="75"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="53"/>
+      <c r="N14" s="48"/>
+      <c r="O14" s="50"/>
+      <c r="P14" s="51"/>
+      <c r="Q14" s="52"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A15" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="B15" s="48"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="55">
+        <v>1</v>
+      </c>
+      <c r="I15" s="75" t="s">
+        <v>62</v>
+      </c>
+      <c r="J15" s="48"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="48"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="48"/>
+      <c r="O15" s="50"/>
+      <c r="P15" s="51"/>
+      <c r="Q15" s="52"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A16" s="47" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16" s="48"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="55">
+        <v>2</v>
+      </c>
+      <c r="I16" s="75" t="s">
+        <v>57</v>
+      </c>
+      <c r="J16" s="48"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="48"/>
+      <c r="O16" s="50"/>
+      <c r="P16" s="51"/>
+      <c r="Q16" s="52"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A17" s="47" t="s">
+        <v>100</v>
+      </c>
+      <c r="B17" s="48"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="75"/>
+      <c r="J17" s="48">
+        <v>1</v>
+      </c>
+      <c r="K17" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="L17" s="48"/>
+      <c r="M17" s="53"/>
+      <c r="N17" s="48"/>
+      <c r="O17" s="50"/>
+      <c r="P17" s="51"/>
+      <c r="Q17" s="52"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A18" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="B18" s="48"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="75"/>
+      <c r="J18" s="48">
+        <v>2</v>
+      </c>
+      <c r="K18" s="53" t="s">
+        <v>63</v>
+      </c>
+      <c r="L18" s="48"/>
+      <c r="M18" s="53"/>
+      <c r="N18" s="48"/>
+      <c r="O18" s="50"/>
+      <c r="P18" s="51"/>
+      <c r="Q18" s="52"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A19" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="48"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="48">
+        <v>2</v>
+      </c>
+      <c r="E19" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" s="48"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="75"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="48"/>
+      <c r="M19" s="53"/>
+      <c r="N19" s="48"/>
+      <c r="O19" s="50"/>
+      <c r="P19" s="51"/>
+      <c r="Q19" s="52"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A20" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="B20" s="48"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="48">
+        <v>1</v>
+      </c>
+      <c r="G20" s="50" t="s">
+        <v>65</v>
+      </c>
+      <c r="H20" s="55"/>
+      <c r="I20" s="75"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="48"/>
+      <c r="M20" s="53"/>
+      <c r="N20" s="48"/>
+      <c r="O20" s="50"/>
+      <c r="P20" s="51"/>
+      <c r="Q20" s="52"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A21" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="B21" s="48"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="55">
+        <v>1</v>
+      </c>
+      <c r="I21" s="75" t="s">
+        <v>66</v>
+      </c>
+      <c r="J21" s="48"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="48"/>
+      <c r="M21" s="53"/>
+      <c r="N21" s="48"/>
+      <c r="O21" s="50"/>
+      <c r="P21" s="51"/>
+      <c r="Q21" s="52"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A22" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="B22" s="48"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="75"/>
+      <c r="J22" s="48">
+        <v>1</v>
+      </c>
+      <c r="K22" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="L22" s="48"/>
+      <c r="M22" s="53"/>
+      <c r="N22" s="48"/>
+      <c r="O22" s="50"/>
+      <c r="P22" s="51"/>
+      <c r="Q22" s="52"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A23" s="47" t="s">
+        <v>105</v>
+      </c>
+      <c r="B23" s="48"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="75"/>
+      <c r="J23" s="48">
+        <v>2</v>
+      </c>
+      <c r="K23" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="L23" s="48"/>
+      <c r="M23" s="53"/>
+      <c r="N23" s="48"/>
+      <c r="O23" s="50"/>
+      <c r="P23" s="51"/>
+      <c r="Q23" s="52"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A24" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="B24" s="48"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="48">
+        <v>2</v>
+      </c>
+      <c r="G24" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="H24" s="55"/>
+      <c r="I24" s="75"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="48"/>
+      <c r="M24" s="53"/>
+      <c r="N24" s="48"/>
+      <c r="O24" s="50"/>
+      <c r="P24" s="51"/>
+      <c r="Q24" s="52"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A25" s="47" t="s">
+        <v>106</v>
+      </c>
+      <c r="B25" s="48"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="55">
+        <v>1</v>
+      </c>
+      <c r="I25" s="75" t="s">
+        <v>71</v>
+      </c>
+      <c r="J25" s="48"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="48"/>
+      <c r="M25" s="53"/>
+      <c r="N25" s="48"/>
+      <c r="O25" s="50"/>
+      <c r="P25" s="51"/>
+      <c r="Q25" s="52"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A26" s="47" t="s">
+        <v>108</v>
+      </c>
+      <c r="B26" s="48"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="48">
+        <v>3</v>
+      </c>
+      <c r="E26" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="F26" s="48"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="75"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="48"/>
+      <c r="M26" s="53"/>
+      <c r="N26" s="48"/>
+      <c r="O26" s="50"/>
+      <c r="P26" s="51"/>
+      <c r="Q26" s="52"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A27" s="47" t="s">
+        <v>109</v>
+      </c>
+      <c r="B27" s="48"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="48">
+        <v>1</v>
+      </c>
+      <c r="G27" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="H27" s="55"/>
+      <c r="I27" s="75"/>
+      <c r="J27" s="48"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="48"/>
+      <c r="M27" s="53"/>
+      <c r="N27" s="48"/>
+      <c r="O27" s="50"/>
+      <c r="P27" s="51"/>
+      <c r="Q27" s="52"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A28" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="B28" s="48"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="55">
+        <v>1</v>
+      </c>
+      <c r="I28" s="75" t="s">
+        <v>33</v>
+      </c>
+      <c r="J28" s="48"/>
+      <c r="K28" s="53"/>
+      <c r="L28" s="48"/>
+      <c r="M28" s="53"/>
+      <c r="N28" s="48"/>
+      <c r="O28" s="50"/>
+      <c r="P28" s="51"/>
+      <c r="Q28" s="52"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A29" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="B29" s="48"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="75"/>
+      <c r="J29" s="48">
+        <v>1</v>
+      </c>
+      <c r="K29" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="L29" s="48"/>
+      <c r="M29" s="53"/>
+      <c r="N29" s="48"/>
+      <c r="O29" s="50"/>
+      <c r="P29" s="51"/>
+      <c r="Q29" s="52"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A30" s="58" t="s">
+        <v>112</v>
+      </c>
+      <c r="B30" s="48"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="48">
+        <v>2</v>
+      </c>
+      <c r="G30" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="H30" s="55"/>
+      <c r="I30" s="75"/>
+      <c r="J30" s="48"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="48"/>
+      <c r="M30" s="53"/>
+      <c r="N30" s="48"/>
+      <c r="O30" s="50"/>
+      <c r="P30" s="51"/>
+      <c r="Q30" s="52"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A31" s="58" t="s">
+        <v>113</v>
+      </c>
+      <c r="B31" s="48"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="55">
+        <v>1</v>
+      </c>
+      <c r="I31" s="75" t="s">
+        <v>31</v>
+      </c>
+      <c r="J31" s="48"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="48"/>
+      <c r="M31" s="53"/>
+      <c r="N31" s="48"/>
+      <c r="O31" s="50"/>
+      <c r="P31" s="51"/>
+      <c r="Q31" s="52"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A32" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="B32" s="48"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="55"/>
+      <c r="I32" s="75"/>
+      <c r="J32" s="48">
+        <v>1</v>
+      </c>
+      <c r="K32" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="L32" s="48"/>
+      <c r="M32" s="53"/>
+      <c r="N32" s="48"/>
+      <c r="O32" s="50"/>
+      <c r="P32" s="51"/>
+      <c r="Q32" s="52"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A33" s="58" t="s">
+        <v>115</v>
+      </c>
+      <c r="B33" s="48"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="48">
+        <v>3</v>
+      </c>
+      <c r="G33" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="H33" s="55"/>
+      <c r="I33" s="75"/>
+      <c r="J33" s="48"/>
+      <c r="K33" s="53"/>
+      <c r="L33" s="48"/>
+      <c r="M33" s="53"/>
+      <c r="N33" s="48"/>
+      <c r="O33" s="50"/>
+      <c r="P33" s="51"/>
+      <c r="Q33" s="52"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A34" s="58" t="s">
+        <v>116</v>
+      </c>
+      <c r="B34" s="48"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="50"/>
+      <c r="H34" s="55">
+        <v>1</v>
+      </c>
+      <c r="I34" s="75" t="s">
+        <v>34</v>
+      </c>
+      <c r="J34" s="48"/>
+      <c r="K34" s="53"/>
+      <c r="L34" s="48"/>
+      <c r="M34" s="53"/>
+      <c r="N34" s="48"/>
+      <c r="O34" s="50"/>
+      <c r="P34" s="51"/>
+      <c r="Q34" s="52"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A35" s="58" t="s">
+        <v>117</v>
+      </c>
+      <c r="B35" s="48"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="55"/>
+      <c r="I35" s="75"/>
+      <c r="J35" s="48">
+        <v>1</v>
+      </c>
+      <c r="K35" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="L35" s="48"/>
+      <c r="M35" s="53"/>
+      <c r="N35" s="48"/>
+      <c r="O35" s="50"/>
+      <c r="P35" s="51"/>
+      <c r="Q35" s="52"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A36" s="58" t="s">
+        <v>118</v>
+      </c>
+      <c r="B36" s="48"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="48">
+        <v>4</v>
+      </c>
+      <c r="G36" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="H36" s="55"/>
+      <c r="I36" s="75"/>
+      <c r="J36" s="48"/>
+      <c r="K36" s="53"/>
+      <c r="L36" s="48"/>
+      <c r="M36" s="53"/>
+      <c r="N36" s="48"/>
+      <c r="O36" s="50"/>
+      <c r="P36" s="51"/>
+      <c r="Q36" s="52"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A37" s="58" t="s">
+        <v>119</v>
+      </c>
+      <c r="B37" s="48"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="50"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="50"/>
+      <c r="H37" s="55">
+        <v>1</v>
+      </c>
+      <c r="I37" s="75" t="s">
+        <v>36</v>
+      </c>
+      <c r="J37" s="48"/>
+      <c r="K37" s="53"/>
+      <c r="L37" s="48"/>
+      <c r="M37" s="53"/>
+      <c r="N37" s="48"/>
+      <c r="O37" s="50"/>
+      <c r="P37" s="51"/>
+      <c r="Q37" s="52"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A38" s="58" t="s">
+        <v>120</v>
+      </c>
+      <c r="B38" s="48"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="48"/>
+      <c r="E38" s="50"/>
+      <c r="F38" s="48"/>
+      <c r="G38" s="50"/>
+      <c r="H38" s="55"/>
+      <c r="I38" s="75"/>
+      <c r="J38" s="48">
+        <v>1</v>
+      </c>
+      <c r="K38" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="L38" s="48"/>
+      <c r="M38" s="53"/>
+      <c r="N38" s="48"/>
+      <c r="O38" s="50"/>
+      <c r="P38" s="51"/>
+      <c r="Q38" s="52"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A39" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="B39" s="48"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="50"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="50"/>
+      <c r="H39" s="55"/>
+      <c r="I39" s="75"/>
+      <c r="J39" s="48">
+        <v>2</v>
+      </c>
+      <c r="K39" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="L39" s="48"/>
+      <c r="M39" s="53"/>
+      <c r="N39" s="48"/>
+      <c r="O39" s="50"/>
+      <c r="P39" s="51"/>
+      <c r="Q39" s="52"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A40" s="58" t="s">
+        <v>122</v>
+      </c>
+      <c r="B40" s="48"/>
+      <c r="C40" s="49"/>
+      <c r="D40" s="48"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="48"/>
+      <c r="G40" s="50"/>
+      <c r="H40" s="55">
+        <v>2</v>
+      </c>
+      <c r="I40" s="75" t="s">
+        <v>37</v>
+      </c>
+      <c r="J40" s="48"/>
+      <c r="K40" s="53"/>
+      <c r="L40" s="48"/>
+      <c r="M40" s="53"/>
+      <c r="N40" s="48"/>
+      <c r="O40" s="50"/>
+      <c r="P40" s="51"/>
+      <c r="Q40" s="52"/>
+      <c r="R40" s="72"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A41" s="58" t="s">
+        <v>123</v>
+      </c>
+      <c r="B41" s="48"/>
+      <c r="C41" s="49"/>
+      <c r="D41" s="48"/>
+      <c r="E41" s="50"/>
+      <c r="F41" s="48"/>
+      <c r="G41" s="50"/>
+      <c r="H41" s="55"/>
+      <c r="I41" s="75"/>
+      <c r="J41" s="48">
+        <v>1</v>
+      </c>
+      <c r="K41" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="L41" s="48"/>
+      <c r="M41" s="53"/>
+      <c r="N41" s="48"/>
+      <c r="O41" s="50"/>
+      <c r="P41" s="51"/>
+      <c r="Q41" s="52"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A42" s="58" t="s">
+        <v>124</v>
+      </c>
+      <c r="B42" s="48"/>
+      <c r="C42" s="49"/>
+      <c r="D42" s="48"/>
+      <c r="E42" s="50"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="50"/>
+      <c r="H42" s="55">
+        <v>3</v>
+      </c>
+      <c r="I42" s="75" t="s">
+        <v>54</v>
+      </c>
+      <c r="J42" s="48"/>
+      <c r="K42" s="53"/>
+      <c r="L42" s="48"/>
+      <c r="M42" s="53"/>
+      <c r="N42" s="48"/>
+      <c r="O42" s="50"/>
+      <c r="P42" s="51"/>
+      <c r="Q42" s="52"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A43" s="58" t="s">
+        <v>125</v>
+      </c>
+      <c r="B43" s="48"/>
+      <c r="C43" s="49"/>
+      <c r="D43" s="48"/>
+      <c r="E43" s="50"/>
+      <c r="F43" s="48"/>
+      <c r="G43" s="50"/>
+      <c r="H43" s="55"/>
+      <c r="I43" s="75"/>
+      <c r="J43" s="48">
+        <v>1</v>
+      </c>
+      <c r="K43" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="L43" s="48"/>
+      <c r="M43" s="53"/>
+      <c r="N43" s="48"/>
+      <c r="O43" s="50"/>
+      <c r="P43" s="51"/>
+      <c r="Q43" s="52"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A44" s="58" t="s">
+        <v>126</v>
+      </c>
+      <c r="B44" s="48"/>
+      <c r="C44" s="49"/>
+      <c r="D44" s="48"/>
+      <c r="E44" s="50"/>
+      <c r="F44" s="48">
+        <v>5</v>
+      </c>
+      <c r="G44" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="H44" s="55"/>
+      <c r="I44" s="75"/>
+      <c r="J44" s="48"/>
+      <c r="K44" s="53"/>
+      <c r="L44" s="48"/>
+      <c r="M44" s="53"/>
+      <c r="N44" s="48"/>
+      <c r="O44" s="50"/>
+      <c r="P44" s="51"/>
+      <c r="Q44" s="52"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A45" s="58" t="s">
+        <v>127</v>
+      </c>
+      <c r="B45" s="48"/>
+      <c r="C45" s="49"/>
+      <c r="D45" s="48"/>
+      <c r="E45" s="50"/>
+      <c r="F45" s="56"/>
+      <c r="G45" s="57"/>
+      <c r="H45" s="48">
+        <v>1</v>
+      </c>
+      <c r="I45" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="J45" s="55"/>
+      <c r="K45" s="75"/>
+      <c r="L45" s="48"/>
+      <c r="M45" s="53"/>
+      <c r="N45" s="48"/>
+      <c r="O45" s="50"/>
+      <c r="P45" s="51"/>
+      <c r="Q45" s="52"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A46" s="58" t="s">
+        <v>128</v>
+      </c>
+      <c r="B46" s="48"/>
+      <c r="C46" s="49"/>
+      <c r="D46" s="48"/>
+      <c r="E46" s="50"/>
+      <c r="F46" s="56"/>
+      <c r="G46" s="57"/>
+      <c r="H46" s="48"/>
+      <c r="I46" s="53"/>
+      <c r="J46" s="55">
+        <v>1</v>
+      </c>
+      <c r="K46" s="75" t="s">
+        <v>50</v>
+      </c>
+      <c r="L46" s="48"/>
+      <c r="M46" s="53"/>
+      <c r="N46" s="48"/>
+      <c r="O46" s="50"/>
+      <c r="P46" s="51"/>
+      <c r="Q46" s="52"/>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A47" s="58" t="s">
+        <v>129</v>
+      </c>
+      <c r="B47" s="48"/>
+      <c r="C47" s="49"/>
+      <c r="D47" s="48"/>
+      <c r="E47" s="50"/>
+      <c r="F47" s="48">
+        <v>6</v>
+      </c>
+      <c r="G47" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="H47" s="48"/>
+      <c r="I47" s="53"/>
+      <c r="J47" s="57"/>
+      <c r="K47" s="77"/>
+      <c r="L47" s="48"/>
+      <c r="M47" s="53"/>
+      <c r="N47" s="48"/>
+      <c r="O47" s="50"/>
+      <c r="P47" s="51"/>
+      <c r="Q47" s="52"/>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A48" s="58" t="s">
+        <v>130</v>
+      </c>
+      <c r="B48" s="48"/>
+      <c r="C48" s="49"/>
+      <c r="D48" s="48"/>
+      <c r="E48" s="50"/>
+      <c r="F48" s="48"/>
+      <c r="G48" s="50"/>
+      <c r="H48" s="48">
+        <v>1</v>
+      </c>
+      <c r="I48" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="J48" s="57"/>
+      <c r="K48" s="77"/>
+      <c r="L48" s="48"/>
+      <c r="M48" s="53"/>
+      <c r="N48" s="48"/>
+      <c r="O48" s="50"/>
+      <c r="P48" s="51"/>
+      <c r="Q48" s="52"/>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A49" s="58" t="s">
+        <v>131</v>
+      </c>
+      <c r="B49" s="48"/>
+      <c r="C49" s="49"/>
+      <c r="D49" s="56"/>
+      <c r="E49" s="57"/>
+      <c r="F49" s="48">
+        <v>7</v>
+      </c>
+      <c r="G49" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="H49" s="48"/>
+      <c r="I49" s="53"/>
+      <c r="J49" s="57"/>
+      <c r="K49" s="77"/>
+      <c r="L49" s="48"/>
+      <c r="M49" s="53"/>
+      <c r="N49" s="48"/>
+      <c r="O49" s="50"/>
+      <c r="P49" s="53"/>
+      <c r="Q49" s="50"/>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A50" s="58" t="s">
+        <v>132</v>
+      </c>
+      <c r="B50" s="48"/>
+      <c r="C50" s="49"/>
+      <c r="D50" s="56"/>
+      <c r="E50" s="57"/>
+      <c r="F50" s="48"/>
+      <c r="G50" s="50"/>
+      <c r="H50" s="48">
+        <v>1</v>
+      </c>
+      <c r="I50" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="J50" s="57"/>
+      <c r="K50" s="77"/>
+      <c r="L50" s="48"/>
+      <c r="M50" s="53"/>
+      <c r="N50" s="48"/>
+      <c r="O50" s="50"/>
+      <c r="P50" s="51"/>
+      <c r="Q50" s="52"/>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A51" s="58" t="s">
+        <v>133</v>
+      </c>
+      <c r="B51" s="48"/>
+      <c r="C51" s="49"/>
+      <c r="D51" s="56"/>
+      <c r="E51" s="57"/>
+      <c r="F51" s="48"/>
+      <c r="G51" s="50"/>
+      <c r="H51" s="48">
+        <v>2</v>
+      </c>
+      <c r="I51" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="J51" s="57"/>
+      <c r="K51" s="77"/>
+      <c r="L51" s="48"/>
+      <c r="M51" s="53"/>
+      <c r="N51" s="48"/>
+      <c r="O51" s="50"/>
+      <c r="P51" s="51"/>
+      <c r="Q51" s="52"/>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A52" s="58" t="s">
+        <v>134</v>
+      </c>
+      <c r="B52" s="48"/>
+      <c r="C52" s="49"/>
+      <c r="D52" s="56"/>
+      <c r="E52" s="57"/>
+      <c r="F52" s="48">
+        <v>8</v>
+      </c>
+      <c r="G52" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="H52" s="48"/>
+      <c r="I52" s="76"/>
+      <c r="J52" s="55"/>
+      <c r="K52" s="75"/>
+      <c r="L52" s="48"/>
+      <c r="M52" s="53"/>
+      <c r="N52" s="48"/>
+      <c r="O52" s="50"/>
+      <c r="P52" s="51"/>
+      <c r="Q52" s="52"/>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A53" s="58" t="s">
+        <v>135</v>
+      </c>
+      <c r="B53" s="48"/>
+      <c r="C53" s="49"/>
+      <c r="D53" s="56"/>
+      <c r="E53" s="57"/>
+      <c r="F53" s="48"/>
+      <c r="G53" s="50"/>
+      <c r="H53" s="48">
+        <v>1</v>
+      </c>
+      <c r="I53" s="76" t="s">
+        <v>46</v>
+      </c>
+      <c r="J53" s="55"/>
+      <c r="K53" s="75"/>
+      <c r="L53" s="48"/>
+      <c r="M53" s="53"/>
+      <c r="N53" s="48"/>
+      <c r="O53" s="50"/>
+      <c r="P53" s="51"/>
+      <c r="Q53" s="52"/>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A54" s="58" t="s">
+        <v>136</v>
+      </c>
+      <c r="B54" s="48"/>
+      <c r="C54" s="49"/>
+      <c r="D54" s="56"/>
+      <c r="E54" s="57"/>
+      <c r="F54" s="48"/>
+      <c r="G54" s="50"/>
+      <c r="H54" s="48"/>
+      <c r="I54" s="76"/>
+      <c r="J54" s="55">
+        <v>1</v>
+      </c>
+      <c r="K54" s="75" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="51"/>
-      <c r="N7" s="49"/>
-      <c r="O7" s="51"/>
-      <c r="P7" s="52"/>
-      <c r="Q7" s="53"/>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="48" t="s">
+      <c r="L54" s="48"/>
+      <c r="M54" s="53"/>
+      <c r="N54" s="48"/>
+      <c r="O54" s="50"/>
+      <c r="P54" s="51"/>
+      <c r="Q54" s="52"/>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A55" s="58" t="s">
+        <v>137</v>
+      </c>
+      <c r="B55" s="48"/>
+      <c r="C55" s="49"/>
+      <c r="D55" s="56"/>
+      <c r="E55" s="57"/>
+      <c r="F55" s="48"/>
+      <c r="G55" s="50"/>
+      <c r="H55" s="48">
+        <v>2</v>
+      </c>
+      <c r="I55" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="49"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="49">
+      <c r="J55" s="55"/>
+      <c r="K55" s="75"/>
+      <c r="L55" s="48"/>
+      <c r="M55" s="53"/>
+      <c r="N55" s="48"/>
+      <c r="O55" s="50"/>
+      <c r="P55" s="51"/>
+      <c r="Q55" s="52"/>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A56" s="58" t="s">
+        <v>138</v>
+      </c>
+      <c r="B56" s="48"/>
+      <c r="C56" s="49"/>
+      <c r="D56" s="56"/>
+      <c r="E56" s="57"/>
+      <c r="F56" s="48"/>
+      <c r="G56" s="50"/>
+      <c r="H56" s="48"/>
+      <c r="I56" s="76"/>
+      <c r="J56" s="55">
         <v>1</v>
       </c>
-      <c r="E8" s="51" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="49"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="51"/>
-      <c r="N8" s="49"/>
-      <c r="O8" s="51"/>
-      <c r="P8" s="52"/>
-      <c r="Q8" s="53"/>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="48" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="49"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="49">
+      <c r="K56" s="75" t="s">
+        <v>76</v>
+      </c>
+      <c r="L56" s="48"/>
+      <c r="M56" s="53"/>
+      <c r="N56" s="48"/>
+      <c r="O56" s="50"/>
+      <c r="P56" s="51"/>
+      <c r="Q56" s="52"/>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A57" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="B57" s="48"/>
+      <c r="C57" s="49"/>
+      <c r="D57" s="56">
+        <v>4</v>
+      </c>
+      <c r="E57" s="73" t="s">
+        <v>81</v>
+      </c>
+      <c r="F57" s="48"/>
+      <c r="G57" s="50"/>
+      <c r="H57" s="48"/>
+      <c r="I57" s="76"/>
+      <c r="J57" s="55"/>
+      <c r="K57" s="75"/>
+      <c r="L57" s="48"/>
+      <c r="M57" s="53"/>
+      <c r="N57" s="48"/>
+      <c r="O57" s="50"/>
+      <c r="P57" s="51"/>
+      <c r="Q57" s="52"/>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A58" s="58" t="s">
+        <v>139</v>
+      </c>
+      <c r="B58" s="57"/>
+      <c r="C58" s="57"/>
+      <c r="D58" s="56"/>
+      <c r="E58" s="57"/>
+      <c r="F58" s="48">
         <v>1</v>
       </c>
-      <c r="G9" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" s="59"/>
-      <c r="I9" s="59"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="51"/>
-      <c r="N9" s="49"/>
-      <c r="O9" s="51"/>
-      <c r="P9" s="52"/>
-      <c r="Q9" s="53"/>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="57" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="49"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="59">
+      <c r="G58" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="H58" s="55"/>
+      <c r="I58" s="75"/>
+      <c r="J58" s="48"/>
+      <c r="K58" s="53"/>
+      <c r="L58" s="57"/>
+      <c r="M58" s="77"/>
+      <c r="N58" s="57"/>
+      <c r="O58" s="57"/>
+      <c r="P58" s="57"/>
+      <c r="Q58" s="57"/>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A59" s="58" t="s">
+        <v>140</v>
+      </c>
+      <c r="B59" s="57"/>
+      <c r="C59" s="57"/>
+      <c r="D59" s="56"/>
+      <c r="E59" s="57"/>
+      <c r="F59" s="48"/>
+      <c r="G59" s="50"/>
+      <c r="H59" s="55">
         <v>1</v>
       </c>
-      <c r="I10" s="59" t="s">
-        <v>36</v>
-      </c>
-      <c r="J10" s="49"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="49"/>
-      <c r="M10" s="51"/>
-      <c r="N10" s="49"/>
-      <c r="O10" s="51"/>
-      <c r="P10" s="52"/>
-      <c r="Q10" s="53"/>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="49"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="49">
+      <c r="I59" s="75" t="s">
+        <v>78</v>
+      </c>
+      <c r="J59" s="48"/>
+      <c r="K59" s="53"/>
+      <c r="L59" s="57"/>
+      <c r="M59" s="77"/>
+      <c r="N59" s="57"/>
+      <c r="O59" s="57"/>
+      <c r="P59" s="57"/>
+      <c r="Q59" s="57"/>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A60" s="58" t="s">
+        <v>141</v>
+      </c>
+      <c r="B60" s="57"/>
+      <c r="C60" s="57"/>
+      <c r="D60" s="56"/>
+      <c r="E60" s="57"/>
+      <c r="F60" s="48"/>
+      <c r="G60" s="50"/>
+      <c r="H60" s="55"/>
+      <c r="I60" s="75"/>
+      <c r="J60" s="48">
+        <v>1</v>
+      </c>
+      <c r="K60" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="L60" s="57"/>
+      <c r="M60" s="77"/>
+      <c r="N60" s="57"/>
+      <c r="O60" s="57"/>
+      <c r="P60" s="57"/>
+      <c r="Q60" s="57"/>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A61" s="58" t="s">
+        <v>142</v>
+      </c>
+      <c r="B61" s="57"/>
+      <c r="C61" s="57"/>
+      <c r="D61" s="56"/>
+      <c r="E61" s="57"/>
+      <c r="F61" s="48"/>
+      <c r="G61" s="50"/>
+      <c r="H61" s="55">
         <v>2</v>
       </c>
-      <c r="G11" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" s="59"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="49"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="49"/>
-      <c r="O11" s="51"/>
-      <c r="P11" s="52"/>
-      <c r="Q11" s="53"/>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="54" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="49"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="59">
+      <c r="I61" s="75" t="s">
+        <v>80</v>
+      </c>
+      <c r="J61" s="48"/>
+      <c r="K61" s="53"/>
+      <c r="L61" s="57"/>
+      <c r="M61" s="77"/>
+      <c r="N61" s="57"/>
+      <c r="O61" s="57"/>
+      <c r="P61" s="57"/>
+      <c r="Q61" s="57"/>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A62" s="58" t="s">
+        <v>143</v>
+      </c>
+      <c r="B62" s="57"/>
+      <c r="C62" s="57"/>
+      <c r="D62" s="56"/>
+      <c r="E62" s="57"/>
+      <c r="F62" s="48"/>
+      <c r="G62" s="50"/>
+      <c r="H62" s="55"/>
+      <c r="I62" s="75"/>
+      <c r="J62" s="48">
         <v>1</v>
       </c>
-      <c r="I12" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="J12" s="49"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="49"/>
-      <c r="M12" s="51"/>
-      <c r="N12" s="49"/>
-      <c r="O12" s="51"/>
-      <c r="P12" s="52"/>
-      <c r="Q12" s="53"/>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="54" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="49"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="49">
+      <c r="K62" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="L62" s="57"/>
+      <c r="M62" s="77"/>
+      <c r="N62" s="57"/>
+      <c r="O62" s="57"/>
+      <c r="P62" s="57"/>
+      <c r="Q62" s="57"/>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A63" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="B63" s="57"/>
+      <c r="C63" s="57"/>
+      <c r="D63" s="56">
+        <v>5</v>
+      </c>
+      <c r="E63" s="74" t="s">
+        <v>92</v>
+      </c>
+      <c r="F63" s="48"/>
+      <c r="G63" s="50"/>
+      <c r="H63" s="48"/>
+      <c r="I63" s="76"/>
+      <c r="J63" s="55"/>
+      <c r="K63" s="75"/>
+      <c r="L63" s="57"/>
+      <c r="M63" s="77"/>
+      <c r="N63" s="57"/>
+      <c r="O63" s="57"/>
+      <c r="P63" s="57"/>
+      <c r="Q63" s="57"/>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A64" s="58" t="s">
+        <v>144</v>
+      </c>
+      <c r="B64" s="57"/>
+      <c r="C64" s="57"/>
+      <c r="D64" s="56"/>
+      <c r="E64" s="57"/>
+      <c r="F64" s="48">
         <v>1</v>
       </c>
-      <c r="K13" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="L13" s="49"/>
-      <c r="M13" s="51"/>
-      <c r="N13" s="49"/>
-      <c r="O13" s="51"/>
-      <c r="P13" s="52"/>
-      <c r="Q13" s="53"/>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" s="49"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="49">
+      <c r="G64" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="H64" s="55"/>
+      <c r="I64" s="75"/>
+      <c r="J64" s="48"/>
+      <c r="K64" s="53"/>
+      <c r="L64" s="57"/>
+      <c r="M64" s="77"/>
+      <c r="N64" s="57"/>
+      <c r="O64" s="57"/>
+      <c r="P64" s="57"/>
+      <c r="Q64" s="57"/>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A65" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="B65" s="57"/>
+      <c r="C65" s="57"/>
+      <c r="D65" s="56"/>
+      <c r="E65" s="57"/>
+      <c r="F65" s="48"/>
+      <c r="G65" s="50"/>
+      <c r="H65" s="55">
+        <v>1</v>
+      </c>
+      <c r="I65" s="75" t="s">
+        <v>78</v>
+      </c>
+      <c r="J65" s="48"/>
+      <c r="K65" s="53"/>
+      <c r="L65" s="57"/>
+      <c r="M65" s="77"/>
+      <c r="N65" s="57"/>
+      <c r="O65" s="57"/>
+      <c r="P65" s="57"/>
+      <c r="Q65" s="57"/>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A66" s="58" t="s">
+        <v>147</v>
+      </c>
+      <c r="B66" s="57"/>
+      <c r="C66" s="57"/>
+      <c r="D66" s="56"/>
+      <c r="E66" s="57"/>
+      <c r="F66" s="48"/>
+      <c r="G66" s="50"/>
+      <c r="H66" s="55"/>
+      <c r="I66" s="75"/>
+      <c r="J66" s="48">
+        <v>1</v>
+      </c>
+      <c r="K66" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="L66" s="57"/>
+      <c r="M66" s="77"/>
+      <c r="N66" s="57"/>
+      <c r="O66" s="57"/>
+      <c r="P66" s="57"/>
+      <c r="Q66" s="57"/>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A67" s="58" t="s">
+        <v>148</v>
+      </c>
+      <c r="B67" s="57"/>
+      <c r="C67" s="57"/>
+      <c r="D67" s="56"/>
+      <c r="E67" s="57"/>
+      <c r="F67" s="48"/>
+      <c r="G67" s="50"/>
+      <c r="H67" s="55"/>
+      <c r="I67" s="75"/>
+      <c r="J67" s="48">
+        <v>2</v>
+      </c>
+      <c r="K67" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="L67" s="57"/>
+      <c r="M67" s="77"/>
+      <c r="N67" s="57"/>
+      <c r="O67" s="57"/>
+      <c r="P67" s="57"/>
+      <c r="Q67" s="57"/>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A68" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="B68" s="56"/>
+      <c r="C68" s="56"/>
+      <c r="D68" s="56"/>
+      <c r="E68" s="56"/>
+      <c r="F68" s="48"/>
+      <c r="G68" s="49"/>
+      <c r="H68" s="55">
+        <v>2</v>
+      </c>
+      <c r="I68" s="75" t="s">
+        <v>88</v>
+      </c>
+      <c r="J68" s="48"/>
+      <c r="K68" s="53"/>
+      <c r="L68" s="56"/>
+      <c r="M68" s="77"/>
+      <c r="N68" s="56"/>
+      <c r="O68" s="56"/>
+      <c r="P68" s="56"/>
+      <c r="Q68" s="56"/>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A69" s="58" t="s">
+        <v>149</v>
+      </c>
+      <c r="B69" s="56"/>
+      <c r="C69" s="56"/>
+      <c r="D69" s="56"/>
+      <c r="E69" s="56"/>
+      <c r="F69" s="48"/>
+      <c r="G69" s="49"/>
+      <c r="H69" s="55"/>
+      <c r="I69" s="75"/>
+      <c r="J69" s="48">
+        <v>1</v>
+      </c>
+      <c r="K69" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="L69" s="56"/>
+      <c r="M69" s="77"/>
+      <c r="N69" s="56"/>
+      <c r="O69" s="56"/>
+      <c r="P69" s="56"/>
+      <c r="Q69" s="56"/>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A70" s="58" t="s">
+        <v>150</v>
+      </c>
+      <c r="B70" s="56"/>
+      <c r="C70" s="56"/>
+      <c r="D70" s="56"/>
+      <c r="E70" s="56"/>
+      <c r="F70" s="48"/>
+      <c r="G70" s="49"/>
+      <c r="H70" s="55"/>
+      <c r="I70" s="75"/>
+      <c r="J70" s="48"/>
+      <c r="K70" s="53"/>
+      <c r="L70" s="56">
+        <v>1</v>
+      </c>
+      <c r="M70" s="78" t="s">
+        <v>90</v>
+      </c>
+      <c r="N70" s="56"/>
+      <c r="O70" s="56"/>
+      <c r="P70" s="56"/>
+      <c r="Q70" s="56"/>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A71" s="58" t="s">
+        <v>151</v>
+      </c>
+      <c r="B71" s="56"/>
+      <c r="C71" s="56"/>
+      <c r="D71" s="56"/>
+      <c r="E71" s="56"/>
+      <c r="F71" s="48"/>
+      <c r="G71" s="49"/>
+      <c r="H71" s="55"/>
+      <c r="I71" s="75"/>
+      <c r="J71" s="48"/>
+      <c r="K71" s="53"/>
+      <c r="L71" s="56">
+        <v>2</v>
+      </c>
+      <c r="M71" s="78" t="s">
+        <v>91</v>
+      </c>
+      <c r="N71" s="56"/>
+      <c r="O71" s="56"/>
+      <c r="P71" s="56"/>
+      <c r="Q71" s="56"/>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A72" s="58" t="s">
+        <v>152</v>
+      </c>
+      <c r="B72" s="56"/>
+      <c r="C72" s="56"/>
+      <c r="D72" s="56"/>
+      <c r="E72" s="56"/>
+      <c r="F72" s="48"/>
+      <c r="G72" s="49"/>
+      <c r="H72" s="56"/>
+      <c r="I72" s="77"/>
+      <c r="J72" s="55">
+        <v>2</v>
+      </c>
+      <c r="K72" s="75" t="s">
+        <v>80</v>
+      </c>
+      <c r="L72" s="48"/>
+      <c r="M72" s="53"/>
+      <c r="N72" s="56"/>
+      <c r="O72" s="56"/>
+      <c r="P72" s="56"/>
+      <c r="Q72" s="56"/>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A73" s="58" t="s">
+        <v>153</v>
+      </c>
+      <c r="B73" s="56"/>
+      <c r="C73" s="56"/>
+      <c r="D73" s="56"/>
+      <c r="E73" s="56"/>
+      <c r="F73" s="48"/>
+      <c r="G73" s="49"/>
+      <c r="H73" s="56"/>
+      <c r="I73" s="77"/>
+      <c r="J73" s="55"/>
+      <c r="K73" s="75"/>
+      <c r="L73" s="48">
+        <v>1</v>
+      </c>
+      <c r="M73" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="N73" s="56"/>
+      <c r="O73" s="56"/>
+      <c r="P73" s="56"/>
+      <c r="Q73" s="56"/>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A74" s="58" t="s">
+        <v>154</v>
+      </c>
+      <c r="B74" s="56"/>
+      <c r="C74" s="56"/>
+      <c r="D74" s="56"/>
+      <c r="E74" s="56"/>
+      <c r="F74" s="56"/>
+      <c r="G74" s="56"/>
+      <c r="H74" s="56"/>
+      <c r="I74" s="77"/>
+      <c r="J74" s="56">
         <v>3</v>
       </c>
-      <c r="G14" s="51" t="s">
-        <v>26</v>
-      </c>
-      <c r="H14" s="59"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="49"/>
-      <c r="M14" s="51"/>
-      <c r="N14" s="49"/>
-      <c r="O14" s="51"/>
-      <c r="P14" s="52"/>
-      <c r="Q14" s="53"/>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="A15" s="54" t="s">
-        <v>68</v>
-      </c>
-      <c r="B15" s="49"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="59">
+      <c r="K74" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="L74" s="56"/>
+      <c r="M74" s="77"/>
+      <c r="N74" s="56"/>
+      <c r="O74" s="56"/>
+      <c r="P74" s="56"/>
+      <c r="Q74" s="56"/>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A75" s="58" t="s">
+        <v>155</v>
+      </c>
+      <c r="B75" s="56"/>
+      <c r="C75" s="56"/>
+      <c r="D75" s="56"/>
+      <c r="E75" s="56"/>
+      <c r="F75" s="56"/>
+      <c r="G75" s="56"/>
+      <c r="H75" s="56"/>
+      <c r="I75" s="77"/>
+      <c r="J75" s="56"/>
+      <c r="K75" s="77"/>
+      <c r="L75" s="56">
         <v>1</v>
       </c>
-      <c r="I15" s="59" t="s">
-        <v>37</v>
-      </c>
-      <c r="J15" s="49"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="49"/>
-      <c r="M15" s="51"/>
-      <c r="N15" s="49"/>
-      <c r="O15" s="51"/>
-      <c r="P15" s="52"/>
-      <c r="Q15" s="53"/>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" s="49"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="49">
-        <v>1</v>
-      </c>
-      <c r="K16" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="L16" s="49"/>
-      <c r="M16" s="51"/>
-      <c r="N16" s="49"/>
-      <c r="O16" s="51"/>
-      <c r="P16" s="52"/>
-      <c r="Q16" s="53"/>
-    </row>
-    <row r="17" spans="1:18">
-      <c r="A17" s="54" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17" s="49"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="49">
-        <v>4</v>
-      </c>
-      <c r="G17" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="49"/>
-      <c r="M17" s="51"/>
-      <c r="N17" s="49"/>
-      <c r="O17" s="51"/>
-      <c r="P17" s="52"/>
-      <c r="Q17" s="53"/>
-    </row>
-    <row r="18" spans="1:18">
-      <c r="A18" s="54" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18" s="49"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="59">
-        <v>1</v>
-      </c>
-      <c r="I18" s="59" t="s">
-        <v>39</v>
-      </c>
-      <c r="J18" s="49"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="49"/>
-      <c r="M18" s="51"/>
-      <c r="N18" s="49"/>
-      <c r="O18" s="51"/>
-      <c r="P18" s="52"/>
-      <c r="Q18" s="53"/>
-    </row>
-    <row r="19" spans="1:18">
-      <c r="A19" s="54" t="s">
-        <v>90</v>
-      </c>
-      <c r="B19" s="49"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="49">
-        <v>1</v>
-      </c>
-      <c r="K19" s="51" t="s">
-        <v>41</v>
-      </c>
-      <c r="L19" s="49"/>
-      <c r="M19" s="51"/>
-      <c r="N19" s="49"/>
-      <c r="O19" s="51"/>
-      <c r="P19" s="52"/>
-      <c r="Q19" s="53"/>
-    </row>
-    <row r="20" spans="1:18">
-      <c r="A20" s="54" t="s">
-        <v>91</v>
-      </c>
-      <c r="B20" s="49"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="49">
+      <c r="M75" s="78" t="s">
+        <v>86</v>
+      </c>
+      <c r="N75" s="56"/>
+      <c r="O75" s="56"/>
+      <c r="P75" s="56"/>
+      <c r="Q75" s="56"/>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A76" s="58" t="s">
+        <v>156</v>
+      </c>
+      <c r="B76" s="56"/>
+      <c r="C76" s="56"/>
+      <c r="D76" s="56"/>
+      <c r="E76" s="56"/>
+      <c r="F76" s="56"/>
+      <c r="G76" s="56"/>
+      <c r="H76" s="56"/>
+      <c r="I76" s="77"/>
+      <c r="J76" s="56"/>
+      <c r="K76" s="77"/>
+      <c r="L76" s="56">
         <v>2</v>
       </c>
-      <c r="K20" s="51" t="s">
-        <v>89</v>
-      </c>
-      <c r="L20" s="49"/>
-      <c r="M20" s="51"/>
-      <c r="N20" s="49"/>
-      <c r="O20" s="51"/>
-      <c r="P20" s="52"/>
-      <c r="Q20" s="53"/>
-    </row>
-    <row r="21" spans="1:18">
-      <c r="A21" s="54" t="s">
-        <v>55</v>
-      </c>
-      <c r="B21" s="49"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="59">
-        <v>2</v>
-      </c>
-      <c r="I21" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="J21" s="49"/>
-      <c r="K21" s="51"/>
-      <c r="L21" s="49"/>
-      <c r="M21" s="51"/>
-      <c r="N21" s="49"/>
-      <c r="O21" s="51"/>
-      <c r="P21" s="52"/>
-      <c r="Q21" s="53"/>
-      <c r="R21" s="54"/>
-    </row>
-    <row r="22" spans="1:18">
-      <c r="A22" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="B22" s="49"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="59"/>
-      <c r="I22" s="59"/>
-      <c r="J22" s="49">
-        <v>1</v>
-      </c>
-      <c r="K22" s="51" t="s">
-        <v>42</v>
-      </c>
-      <c r="L22" s="49"/>
-      <c r="M22" s="51"/>
-      <c r="N22" s="49"/>
-      <c r="O22" s="51"/>
-      <c r="P22" s="52"/>
-      <c r="Q22" s="53"/>
-    </row>
-    <row r="23" spans="1:18">
-      <c r="A23" s="54" t="s">
-        <v>57</v>
-      </c>
-      <c r="B23" s="49"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="59"/>
-      <c r="J23" s="49">
-        <v>2</v>
-      </c>
-      <c r="K23" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="L23" s="49"/>
-      <c r="M23" s="51"/>
-      <c r="N23" s="49"/>
-      <c r="O23" s="51"/>
-      <c r="P23" s="52"/>
-      <c r="Q23" s="53"/>
-    </row>
-    <row r="24" spans="1:18">
-      <c r="A24" s="54" t="s">
-        <v>58</v>
-      </c>
-      <c r="B24" s="49"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="49">
-        <v>2</v>
-      </c>
-      <c r="E24" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="F24" s="49"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="59"/>
-      <c r="I24" s="59"/>
-      <c r="J24" s="49"/>
-      <c r="K24" s="51"/>
-      <c r="L24" s="49"/>
-      <c r="M24" s="51"/>
-      <c r="N24" s="49"/>
-      <c r="O24" s="51"/>
-      <c r="P24" s="52"/>
-      <c r="Q24" s="53"/>
-    </row>
-    <row r="25" spans="1:18">
-      <c r="A25" s="54" t="s">
-        <v>59</v>
-      </c>
-      <c r="B25" s="49"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="49">
-        <v>1</v>
-      </c>
-      <c r="G25" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="H25" s="59"/>
-      <c r="I25" s="59"/>
-      <c r="J25" s="49"/>
-      <c r="K25" s="51"/>
-      <c r="L25" s="49"/>
-      <c r="M25" s="51"/>
-      <c r="N25" s="49"/>
-      <c r="O25" s="51"/>
-      <c r="P25" s="52"/>
-      <c r="Q25" s="53"/>
-    </row>
-    <row r="26" spans="1:18">
-      <c r="A26" s="54" t="s">
-        <v>60</v>
-      </c>
-      <c r="B26" s="49"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="49">
-        <v>3</v>
-      </c>
-      <c r="E26" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="F26" s="49"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="59"/>
-      <c r="I26" s="59"/>
-      <c r="J26" s="49"/>
-      <c r="K26" s="51"/>
-      <c r="L26" s="49"/>
-      <c r="M26" s="51"/>
-      <c r="N26" s="49"/>
-      <c r="O26" s="51"/>
-      <c r="P26" s="52"/>
-      <c r="Q26" s="53"/>
-    </row>
-    <row r="27" spans="1:18">
-      <c r="A27" s="54" t="s">
-        <v>86</v>
-      </c>
-      <c r="B27" s="49"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="49">
-        <v>1</v>
-      </c>
-      <c r="G27" s="51" t="s">
-        <v>30</v>
-      </c>
-      <c r="H27" s="59"/>
-      <c r="I27" s="59"/>
-      <c r="J27" s="49"/>
-      <c r="K27" s="51"/>
-      <c r="L27" s="49"/>
-      <c r="M27" s="51"/>
-      <c r="N27" s="49"/>
-      <c r="O27" s="51"/>
-      <c r="P27" s="52"/>
-      <c r="Q27" s="53"/>
-    </row>
-    <row r="28" spans="1:18">
-      <c r="A28" s="54" t="s">
+      <c r="M76" s="78" t="s">
         <v>87</v>
       </c>
-      <c r="B28" s="49"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="59">
-        <v>1</v>
-      </c>
-      <c r="I28" s="59" t="s">
-        <v>85</v>
-      </c>
-      <c r="J28" s="49"/>
-      <c r="K28" s="51"/>
-      <c r="L28" s="49"/>
-      <c r="M28" s="51"/>
-      <c r="N28" s="49"/>
-      <c r="O28" s="51"/>
-      <c r="P28" s="52"/>
-      <c r="Q28" s="53"/>
-    </row>
-    <row r="29" spans="1:18">
-      <c r="A29" s="54" t="s">
-        <v>61</v>
-      </c>
-      <c r="B29" s="49"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="49">
-        <v>4</v>
-      </c>
-      <c r="E29" s="51" t="s">
-        <v>31</v>
-      </c>
-      <c r="F29" s="49"/>
-      <c r="G29" s="51"/>
-      <c r="H29" s="59"/>
-      <c r="I29" s="59"/>
-      <c r="J29" s="49"/>
-      <c r="K29" s="51"/>
-      <c r="L29" s="49"/>
-      <c r="M29" s="51"/>
-      <c r="N29" s="49"/>
-      <c r="O29" s="51"/>
-      <c r="P29" s="56"/>
-      <c r="Q29" s="51"/>
-    </row>
-    <row r="30" spans="1:18">
-      <c r="A30" s="54" t="s">
-        <v>62</v>
-      </c>
-      <c r="B30" s="49"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="51"/>
-      <c r="F30" s="49">
-        <v>1</v>
-      </c>
-      <c r="G30" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="H30" s="59"/>
-      <c r="I30" s="59"/>
-      <c r="J30" s="49"/>
-      <c r="K30" s="51"/>
-      <c r="L30" s="49"/>
-      <c r="M30" s="51"/>
-      <c r="N30" s="49"/>
-      <c r="O30" s="51"/>
-      <c r="P30" s="52"/>
-      <c r="Q30" s="53"/>
-    </row>
-    <row r="31" spans="1:18">
-      <c r="A31" s="58" t="s">
-        <v>63</v>
-      </c>
-      <c r="B31" s="49"/>
-      <c r="C31" s="50"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="49">
-        <v>2</v>
-      </c>
-      <c r="G31" s="51" t="s">
-        <v>33</v>
-      </c>
-      <c r="H31" s="59"/>
-      <c r="I31" s="59"/>
-      <c r="J31" s="49"/>
-      <c r="K31" s="51"/>
-      <c r="L31" s="49"/>
-      <c r="M31" s="51"/>
-      <c r="N31" s="49"/>
-      <c r="O31" s="51"/>
-      <c r="P31" s="52"/>
-      <c r="Q31" s="53"/>
-    </row>
-    <row r="32" spans="1:18">
-      <c r="A32" s="54" t="s">
-        <v>64</v>
-      </c>
-      <c r="B32" s="49"/>
-      <c r="C32" s="50"/>
-      <c r="D32" s="49">
-        <v>5</v>
-      </c>
-      <c r="E32" s="51" t="s">
-        <v>88</v>
-      </c>
-      <c r="F32" s="49"/>
-      <c r="G32" s="55"/>
-      <c r="H32" s="59"/>
-      <c r="I32" s="59"/>
-      <c r="J32" s="49"/>
-      <c r="K32" s="51"/>
-      <c r="L32" s="49"/>
-      <c r="M32" s="51"/>
-      <c r="N32" s="49"/>
-      <c r="O32" s="51"/>
-      <c r="P32" s="52"/>
-      <c r="Q32" s="53"/>
-    </row>
-    <row r="33" spans="1:17">
-      <c r="A33" s="54" t="s">
-        <v>74</v>
-      </c>
-      <c r="B33" s="49"/>
-      <c r="C33" s="50"/>
-      <c r="D33" s="49"/>
-      <c r="E33" s="51"/>
-      <c r="F33" s="49">
-        <v>1</v>
-      </c>
-      <c r="G33" s="55" t="s">
-        <v>67</v>
-      </c>
-      <c r="H33" s="59"/>
-      <c r="I33" s="59"/>
-      <c r="J33" s="49"/>
-      <c r="K33" s="51"/>
-      <c r="L33" s="49"/>
-      <c r="M33" s="51"/>
-      <c r="N33" s="49"/>
-      <c r="O33" s="51"/>
-      <c r="P33" s="52"/>
-      <c r="Q33" s="53"/>
-    </row>
-    <row r="34" spans="1:17">
-      <c r="A34" s="54" t="s">
-        <v>75</v>
-      </c>
-      <c r="B34" s="49"/>
-      <c r="C34" s="50"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="55"/>
-      <c r="H34" s="59">
-        <v>1</v>
-      </c>
-      <c r="I34" s="59" t="s">
-        <v>65</v>
-      </c>
-      <c r="J34" s="49"/>
-      <c r="K34" s="51"/>
-      <c r="L34" s="49"/>
-      <c r="M34" s="51"/>
-      <c r="N34" s="49"/>
-      <c r="O34" s="51"/>
-      <c r="P34" s="52"/>
-      <c r="Q34" s="53"/>
-    </row>
-    <row r="35" spans="1:17">
-      <c r="A35" s="54" t="s">
-        <v>76</v>
-      </c>
-      <c r="B35" s="49"/>
-      <c r="C35" s="50"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="51"/>
-      <c r="F35" s="49">
-        <v>2</v>
-      </c>
-      <c r="G35" s="55" t="s">
-        <v>66</v>
-      </c>
-      <c r="H35" s="59"/>
-      <c r="I35" s="59"/>
-      <c r="J35" s="49"/>
-      <c r="K35" s="51"/>
-      <c r="L35" s="49"/>
-      <c r="M35" s="51"/>
-      <c r="N35" s="49"/>
-      <c r="O35" s="51"/>
-      <c r="P35" s="52"/>
-      <c r="Q35" s="53"/>
-    </row>
-    <row r="36" spans="1:17">
-      <c r="A36" s="54" t="s">
-        <v>77</v>
-      </c>
-      <c r="B36" s="49"/>
-      <c r="C36" s="50"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="49"/>
-      <c r="G36" s="55"/>
-      <c r="H36" s="59">
-        <v>1</v>
-      </c>
-      <c r="I36" s="59" t="s">
-        <v>69</v>
-      </c>
-      <c r="J36" s="49"/>
-      <c r="K36" s="51"/>
-      <c r="L36" s="49"/>
-      <c r="M36" s="51"/>
-      <c r="N36" s="49"/>
-      <c r="O36" s="51"/>
-      <c r="P36" s="52"/>
-      <c r="Q36" s="53"/>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="A37" s="54" t="s">
-        <v>78</v>
-      </c>
-      <c r="B37" s="49"/>
-      <c r="C37" s="50"/>
-      <c r="D37" s="49">
-        <v>6</v>
-      </c>
-      <c r="E37" s="51" t="s">
-        <v>70</v>
-      </c>
-      <c r="F37" s="49"/>
-      <c r="G37" s="55"/>
-      <c r="H37" s="59"/>
-      <c r="I37" s="59"/>
-      <c r="J37" s="49"/>
-      <c r="K37" s="51"/>
-      <c r="L37" s="49"/>
-      <c r="M37" s="51"/>
-      <c r="N37" s="49"/>
-      <c r="O37" s="51"/>
-      <c r="P37" s="52"/>
-      <c r="Q37" s="53"/>
-    </row>
-    <row r="38" spans="1:17">
-      <c r="A38" s="54" t="s">
-        <v>79</v>
-      </c>
-      <c r="B38" s="49"/>
-      <c r="C38" s="50"/>
-      <c r="D38" s="49"/>
-      <c r="E38" s="51"/>
-      <c r="F38" s="49">
-        <v>1</v>
-      </c>
-      <c r="G38" s="55" t="s">
-        <v>71</v>
-      </c>
-      <c r="H38" s="59"/>
-      <c r="I38" s="59"/>
-      <c r="J38" s="49"/>
-      <c r="K38" s="51"/>
-      <c r="L38" s="49"/>
-      <c r="M38" s="51"/>
-      <c r="N38" s="49"/>
-      <c r="O38" s="51"/>
-      <c r="P38" s="52"/>
-      <c r="Q38" s="53"/>
-    </row>
-    <row r="39" spans="1:17">
-      <c r="A39" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="B39" s="49"/>
-      <c r="C39" s="50"/>
-      <c r="D39" s="49"/>
-      <c r="E39" s="51"/>
-      <c r="F39" s="49">
-        <v>2</v>
-      </c>
-      <c r="G39" s="55" t="s">
-        <v>73</v>
-      </c>
-      <c r="H39" s="59"/>
-      <c r="I39" s="59"/>
-      <c r="J39" s="49"/>
-      <c r="K39" s="51"/>
-      <c r="L39" s="49"/>
-      <c r="M39" s="51"/>
-      <c r="N39" s="49"/>
-      <c r="O39" s="51"/>
-      <c r="P39" s="52"/>
-      <c r="Q39" s="53"/>
-    </row>
-    <row r="40" spans="1:17">
-      <c r="A40" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="B40" s="49"/>
-      <c r="C40" s="50"/>
-      <c r="D40" s="49"/>
-      <c r="E40" s="51"/>
-      <c r="F40" s="49">
-        <v>3</v>
-      </c>
-      <c r="G40" s="55" t="s">
-        <v>72</v>
-      </c>
-      <c r="H40" s="59"/>
-      <c r="I40" s="59"/>
-      <c r="J40" s="49"/>
-      <c r="K40" s="51"/>
-      <c r="L40" s="49"/>
-      <c r="M40" s="51"/>
-      <c r="N40" s="49"/>
-      <c r="O40" s="51"/>
-      <c r="P40" s="52"/>
-      <c r="Q40" s="53"/>
+      <c r="N76" s="56"/>
+      <c r="O76" s="56"/>
+      <c r="P76" s="56"/>
+      <c r="Q76" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/_documents/메뉴구조도(KPC-SCC-IA01).xlsx
+++ b/_documents/메뉴구조도(KPC-SCC-IA01).xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\silver-car-community\_documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\silver-car-community\_documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12168" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="표지" sheetId="2" r:id="rId1"/>
@@ -21,12 +21,11 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'사용자 포털'!$1:$4</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="150">
   <si>
     <t>버전</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -184,10 +183,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>글 작성</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>목록 클릭 시 글 내용 보여주기</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -245,18 +240,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>댓글, 대댓글</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>비회원</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>댓글 작성</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>로그인</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -285,10 +272,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>회원가입</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>홈페이지 이동</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -325,14 +308,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>로그인 알람</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인 알람</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>공통</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -433,18 +408,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>SCCUP122000</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP122100</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP122200</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>SCCUP210000</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -525,22 +488,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>SCCUP342000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP342100</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP343000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP343100</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>SCCUP350000</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -674,6 +621,18 @@
   </si>
   <si>
     <t>강다솜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP121100</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP121200</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글, 대댓글 목록</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -889,7 +848,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1047,19 +1006,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1069,7 +1015,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1247,6 +1193,27 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1265,56 +1232,32 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1460,7 +1403,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="0" y="38100"/>
-          <a:ext cx="16839079" cy="786903"/>
+          <a:ext cx="14927356" cy="820521"/>
           <a:chOff x="136071" y="136071"/>
           <a:chExt cx="11112954" cy="530680"/>
         </a:xfrm>
@@ -2532,15 +2475,15 @@
       <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" style="2" customWidth="1"/>
-    <col min="2" max="12" width="11.44140625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="7.33203125" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="8.77734375" style="1"/>
+    <col min="1" max="1" width="6.296875" style="2" customWidth="1"/>
+    <col min="2" max="12" width="11.3984375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="7.296875" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7"/>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -2555,7 +2498,7 @@
       <c r="L1" s="8"/>
       <c r="M1" s="9"/>
     </row>
-    <row r="2" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -2570,7 +2513,7 @@
       <c r="L2" s="11"/>
       <c r="M2" s="12"/>
     </row>
-    <row r="3" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -2583,13 +2526,13 @@
       <c r="J3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="64" t="s">
-        <v>48</v>
-      </c>
-      <c r="L3" s="64"/>
+      <c r="K3" s="71" t="s">
+        <v>47</v>
+      </c>
+      <c r="L3" s="71"/>
       <c r="M3" s="12"/>
     </row>
-    <row r="4" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -2604,7 +2547,7 @@
       <c r="L4" s="11"/>
       <c r="M4" s="12"/>
     </row>
-    <row r="5" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -2619,7 +2562,7 @@
       <c r="L5" s="11"/>
       <c r="M5" s="12"/>
     </row>
-    <row r="6" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -2634,7 +2577,7 @@
       <c r="L6" s="11"/>
       <c r="M6" s="12"/>
     </row>
-    <row r="7" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -2649,7 +2592,7 @@
       <c r="L7" s="11"/>
       <c r="M7" s="12"/>
     </row>
-    <row r="8" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -2664,7 +2607,7 @@
       <c r="L8" s="11"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -2679,7 +2622,7 @@
       <c r="L9" s="11"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -2694,84 +2637,84 @@
       <c r="L10" s="11"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
-      <c r="B11" s="59" t="s">
+      <c r="B11" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="59"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="59"/>
-      <c r="K11" s="59"/>
-      <c r="L11" s="59"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="66"/>
+      <c r="L11" s="66"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
-      <c r="B12" s="60"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="67"/>
       <c r="M12" s="12"/>
     </row>
-    <row r="13" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
-      <c r="B13" s="60"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="60"/>
-      <c r="K13" s="60"/>
-      <c r="L13" s="60"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="67"/>
+      <c r="L13" s="67"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
-      <c r="B14" s="60"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="67"/>
+      <c r="J14" s="67"/>
+      <c r="K14" s="67"/>
+      <c r="L14" s="67"/>
       <c r="M14" s="12"/>
     </row>
-    <row r="15" spans="1:13" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10"/>
-      <c r="B15" s="61"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="61"/>
-      <c r="J15" s="61"/>
-      <c r="K15" s="61"/>
-      <c r="L15" s="61"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="68"/>
+      <c r="K15" s="68"/>
+      <c r="L15" s="68"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="1:13" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
@@ -2786,7 +2729,7 @@
       <c r="L16" s="14"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
@@ -2801,7 +2744,7 @@
       <c r="L17" s="14"/>
       <c r="M17" s="12"/>
     </row>
-    <row r="18" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
@@ -2816,7 +2759,7 @@
       <c r="L18" s="14"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -2831,7 +2774,7 @@
       <c r="L19" s="11"/>
       <c r="M19" s="12"/>
     </row>
-    <row r="20" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -2846,7 +2789,7 @@
       <c r="L20" s="11"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -2861,39 +2804,39 @@
       <c r="L21" s="11"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
-      <c r="F22" s="62">
+      <c r="F22" s="69">
         <v>45273</v>
       </c>
-      <c r="G22" s="63"/>
-      <c r="H22" s="63"/>
+      <c r="G22" s="70"/>
+      <c r="H22" s="70"/>
       <c r="I22" s="11"/>
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
       <c r="L22" s="11"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
-      <c r="F23" s="63"/>
-      <c r="G23" s="63"/>
-      <c r="H23" s="63"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="70"/>
       <c r="I23" s="11"/>
       <c r="J23" s="11"/>
       <c r="K23" s="11"/>
       <c r="L23" s="11"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -2908,7 +2851,7 @@
       <c r="L24" s="11"/>
       <c r="M24" s="12"/>
     </row>
-    <row r="25" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -2923,7 +2866,7 @@
       <c r="L25" s="11"/>
       <c r="M25" s="12"/>
     </row>
-    <row r="26" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -2938,7 +2881,7 @@
       <c r="L26" s="11"/>
       <c r="M26" s="12"/>
     </row>
-    <row r="27" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -2953,7 +2896,7 @@
       <c r="L27" s="11"/>
       <c r="M27" s="12"/>
     </row>
-    <row r="28" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -2968,7 +2911,7 @@
       <c r="L28" s="11"/>
       <c r="M28" s="12"/>
     </row>
-    <row r="29" spans="1:13" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="17"/>
       <c r="B29" s="18"/>
       <c r="C29" s="18"/>
@@ -3008,18 +2951,18 @@
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" style="6" customWidth="1"/>
-    <col min="4" max="10" width="11.44140625" style="4" customWidth="1"/>
-    <col min="11" max="12" width="11.44140625" style="5" customWidth="1"/>
-    <col min="13" max="13" width="7.33203125" style="4" customWidth="1"/>
-    <col min="14" max="16384" width="8.77734375" style="3"/>
+    <col min="1" max="1" width="6.296875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.3984375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="11.3984375" style="6" customWidth="1"/>
+    <col min="4" max="10" width="11.3984375" style="4" customWidth="1"/>
+    <col min="11" max="12" width="11.3984375" style="5" customWidth="1"/>
+    <col min="13" max="13" width="7.296875" style="4" customWidth="1"/>
+    <col min="14" max="16384" width="8.796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="20"/>
       <c r="B1" s="21"/>
       <c r="C1" s="22"/>
@@ -3034,10 +2977,10 @@
       <c r="L1" s="21"/>
       <c r="M1" s="24"/>
     </row>
-    <row r="2" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="25"/>
       <c r="B2" s="26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="27"/>
       <c r="D2" s="28"/>
@@ -3047,14 +2990,14 @@
       <c r="H2" s="28"/>
       <c r="I2" s="28"/>
       <c r="J2" s="28"/>
-      <c r="K2" s="68" t="str">
+      <c r="K2" s="72" t="str">
         <f>표지!B11</f>
         <v>메뉴구조도</v>
       </c>
-      <c r="L2" s="68"/>
+      <c r="L2" s="72"/>
       <c r="M2" s="29"/>
     </row>
-    <row r="3" spans="1:13" ht="31.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="25"/>
       <c r="B3" s="30"/>
       <c r="C3" s="31"/>
@@ -3069,24 +3012,24 @@
       <c r="L3" s="30"/>
       <c r="M3" s="29"/>
     </row>
-    <row r="4" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="25"/>
-      <c r="B4" s="69" t="s">
+      <c r="B4" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
       <c r="M4" s="29"/>
     </row>
-    <row r="5" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="25"/>
       <c r="B5" s="33"/>
       <c r="C5" s="27"/>
@@ -3101,7 +3044,7 @@
       <c r="L5" s="33"/>
       <c r="M5" s="29"/>
     </row>
-    <row r="6" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="25"/>
       <c r="B6" s="43" t="s">
         <v>0</v>
@@ -3109,17 +3052,17 @@
       <c r="C6" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="70" t="s">
+      <c r="D6" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70" t="s">
+      <c r="E6" s="74"/>
+      <c r="F6" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="70"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="74"/>
       <c r="K6" s="43" t="s">
         <v>3</v>
       </c>
@@ -3128,295 +3071,295 @@
       </c>
       <c r="M6" s="29"/>
     </row>
-    <row r="7" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
-      <c r="B7" s="79">
+      <c r="B7" s="65">
         <v>1</v>
       </c>
       <c r="C7" s="35">
         <v>45273</v>
       </c>
-      <c r="D7" s="80" t="s">
+      <c r="D7" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="81"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="67"/>
-      <c r="I7" s="67"/>
-      <c r="J7" s="66"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="78"/>
+      <c r="I7" s="78"/>
+      <c r="J7" s="79"/>
       <c r="K7" s="34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L7" s="34"/>
       <c r="M7" s="29"/>
     </row>
-    <row r="8" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="25"/>
-      <c r="B8" s="79">
+      <c r="B8" s="65">
         <v>2</v>
       </c>
       <c r="C8" s="35">
         <v>45278</v>
       </c>
-      <c r="D8" s="80" t="s">
-        <v>157</v>
-      </c>
-      <c r="E8" s="81"/>
-      <c r="F8" s="65" t="s">
-        <v>158</v>
-      </c>
-      <c r="G8" s="67"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="66"/>
+      <c r="D8" s="75" t="s">
+        <v>144</v>
+      </c>
+      <c r="E8" s="76"/>
+      <c r="F8" s="77" t="s">
+        <v>145</v>
+      </c>
+      <c r="G8" s="78"/>
+      <c r="H8" s="78"/>
+      <c r="I8" s="78"/>
+      <c r="J8" s="79"/>
       <c r="K8" s="34" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="L8" s="34"/>
       <c r="M8" s="29"/>
     </row>
-    <row r="9" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="25"/>
       <c r="B9" s="34"/>
       <c r="C9" s="35"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="67"/>
-      <c r="I9" s="67"/>
-      <c r="J9" s="66"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="78"/>
+      <c r="H9" s="78"/>
+      <c r="I9" s="78"/>
+      <c r="J9" s="79"/>
       <c r="K9" s="34"/>
       <c r="L9" s="34"/>
       <c r="M9" s="29"/>
     </row>
-    <row r="10" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="25"/>
       <c r="B10" s="34"/>
       <c r="C10" s="35"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="66"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="78"/>
+      <c r="I10" s="78"/>
+      <c r="J10" s="79"/>
       <c r="K10" s="34"/>
       <c r="L10" s="34"/>
       <c r="M10" s="29"/>
     </row>
-    <row r="11" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="25"/>
       <c r="B11" s="34"/>
       <c r="C11" s="35"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="66"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="78"/>
+      <c r="H11" s="78"/>
+      <c r="I11" s="78"/>
+      <c r="J11" s="79"/>
       <c r="K11" s="34"/>
       <c r="L11" s="34"/>
       <c r="M11" s="29"/>
     </row>
-    <row r="12" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="25"/>
       <c r="B12" s="36"/>
       <c r="C12" s="37"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="66"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="79"/>
       <c r="K12" s="36"/>
       <c r="L12" s="36"/>
       <c r="M12" s="29"/>
     </row>
-    <row r="13" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="25"/>
       <c r="B13" s="36"/>
       <c r="C13" s="37"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="66"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="78"/>
+      <c r="I13" s="78"/>
+      <c r="J13" s="79"/>
       <c r="K13" s="36"/>
       <c r="L13" s="36"/>
       <c r="M13" s="29"/>
     </row>
-    <row r="14" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="25"/>
       <c r="B14" s="36"/>
       <c r="C14" s="37"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="66"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="78"/>
+      <c r="I14" s="78"/>
+      <c r="J14" s="79"/>
       <c r="K14" s="36"/>
       <c r="L14" s="36"/>
       <c r="M14" s="29"/>
     </row>
-    <row r="15" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="25"/>
       <c r="B15" s="36"/>
       <c r="C15" s="37"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="67"/>
-      <c r="I15" s="67"/>
-      <c r="J15" s="66"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="78"/>
+      <c r="H15" s="78"/>
+      <c r="I15" s="78"/>
+      <c r="J15" s="79"/>
       <c r="K15" s="36"/>
       <c r="L15" s="36"/>
       <c r="M15" s="29"/>
     </row>
-    <row r="16" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="25"/>
       <c r="B16" s="36"/>
       <c r="C16" s="37"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="66"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="78"/>
+      <c r="H16" s="78"/>
+      <c r="I16" s="78"/>
+      <c r="J16" s="79"/>
       <c r="K16" s="36"/>
       <c r="L16" s="36"/>
       <c r="M16" s="29"/>
     </row>
-    <row r="17" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="25"/>
       <c r="B17" s="34"/>
       <c r="C17" s="35"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="67"/>
-      <c r="I17" s="67"/>
-      <c r="J17" s="66"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="78"/>
+      <c r="I17" s="78"/>
+      <c r="J17" s="79"/>
       <c r="K17" s="34"/>
       <c r="L17" s="34"/>
       <c r="M17" s="29"/>
     </row>
-    <row r="18" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="25"/>
       <c r="B18" s="34"/>
       <c r="C18" s="35"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="67"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="66"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="78"/>
+      <c r="I18" s="78"/>
+      <c r="J18" s="79"/>
       <c r="K18" s="34"/>
       <c r="L18" s="34"/>
       <c r="M18" s="29"/>
     </row>
-    <row r="19" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="25"/>
       <c r="B19" s="34"/>
       <c r="C19" s="35"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="67"/>
-      <c r="H19" s="67"/>
-      <c r="I19" s="67"/>
-      <c r="J19" s="66"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="78"/>
+      <c r="H19" s="78"/>
+      <c r="I19" s="78"/>
+      <c r="J19" s="79"/>
       <c r="K19" s="34"/>
       <c r="L19" s="34"/>
       <c r="M19" s="29"/>
     </row>
-    <row r="20" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="25"/>
       <c r="B20" s="34"/>
       <c r="C20" s="35"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="67"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="66"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="78"/>
+      <c r="H20" s="78"/>
+      <c r="I20" s="78"/>
+      <c r="J20" s="79"/>
       <c r="K20" s="34"/>
       <c r="L20" s="34"/>
       <c r="M20" s="29"/>
     </row>
-    <row r="21" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="25"/>
       <c r="B21" s="34"/>
       <c r="C21" s="35"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="66"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="67"/>
-      <c r="I21" s="67"/>
-      <c r="J21" s="66"/>
+      <c r="D21" s="77"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="77"/>
+      <c r="G21" s="78"/>
+      <c r="H21" s="78"/>
+      <c r="I21" s="78"/>
+      <c r="J21" s="79"/>
       <c r="K21" s="34"/>
       <c r="L21" s="34"/>
       <c r="M21" s="29"/>
     </row>
-    <row r="22" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="25"/>
       <c r="B22" s="34"/>
       <c r="C22" s="35"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="66"/>
-      <c r="F22" s="65"/>
-      <c r="G22" s="67"/>
-      <c r="H22" s="67"/>
-      <c r="I22" s="67"/>
-      <c r="J22" s="66"/>
+      <c r="D22" s="77"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="77"/>
+      <c r="G22" s="78"/>
+      <c r="H22" s="78"/>
+      <c r="I22" s="78"/>
+      <c r="J22" s="79"/>
       <c r="K22" s="34"/>
       <c r="L22" s="34"/>
       <c r="M22" s="29"/>
     </row>
-    <row r="23" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="25"/>
       <c r="B23" s="34"/>
       <c r="C23" s="35"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67"/>
-      <c r="I23" s="67"/>
-      <c r="J23" s="66"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="78"/>
+      <c r="H23" s="78"/>
+      <c r="I23" s="78"/>
+      <c r="J23" s="79"/>
       <c r="K23" s="34"/>
       <c r="L23" s="34"/>
       <c r="M23" s="29"/>
     </row>
-    <row r="24" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="25"/>
       <c r="B24" s="34"/>
       <c r="C24" s="35"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="66"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="67"/>
-      <c r="J24" s="66"/>
+      <c r="D24" s="77"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="78"/>
+      <c r="H24" s="78"/>
+      <c r="I24" s="78"/>
+      <c r="J24" s="79"/>
       <c r="K24" s="34"/>
       <c r="L24" s="34"/>
       <c r="M24" s="29"/>
     </row>
-    <row r="25" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="25"/>
       <c r="B25" s="33"/>
       <c r="C25" s="27"/>
@@ -3431,7 +3374,7 @@
       <c r="L25" s="33"/>
       <c r="M25" s="29"/>
     </row>
-    <row r="26" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="25"/>
       <c r="B26" s="33"/>
       <c r="C26" s="27"/>
@@ -3446,7 +3389,7 @@
       <c r="L26" s="33"/>
       <c r="M26" s="29"/>
     </row>
-    <row r="27" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="25"/>
       <c r="B27" s="33"/>
       <c r="C27" s="27"/>
@@ -3461,7 +3404,7 @@
       <c r="L27" s="33"/>
       <c r="M27" s="29"/>
     </row>
-    <row r="28" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="25"/>
       <c r="B28" s="33"/>
       <c r="C28" s="27"/>
@@ -3476,7 +3419,7 @@
       <c r="L28" s="33"/>
       <c r="M28" s="29"/>
     </row>
-    <row r="29" spans="1:13" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="38"/>
       <c r="B29" s="39"/>
       <c r="C29" s="40"/>
@@ -3493,36 +3436,6 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="B4:L4"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:J7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:J8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:J10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:J11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:J14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:J15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:J17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:J18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:J19"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="F23:J23"/>
     <mergeCell ref="D24:E24"/>
@@ -3533,11 +3446,41 @@
     <mergeCell ref="F21:J21"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="F22:J22"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="B4:L4"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:J7"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="78" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="82" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3546,35 +3489,35 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R76"/>
+  <dimension ref="A1:Q71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R45" sqref="R45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" style="45" customWidth="1"/>
-    <col min="2" max="2" width="4.33203125" style="45" customWidth="1"/>
-    <col min="3" max="3" width="11.77734375" style="45" customWidth="1"/>
-    <col min="4" max="4" width="3.44140625" style="46" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" style="45" customWidth="1"/>
-    <col min="6" max="6" width="3.33203125" style="46" customWidth="1"/>
+    <col min="2" max="2" width="4.296875" style="45" customWidth="1"/>
+    <col min="3" max="3" width="11.796875" style="45" customWidth="1"/>
+    <col min="4" max="4" width="3.3984375" style="46" customWidth="1"/>
+    <col min="5" max="5" width="17.296875" style="45" customWidth="1"/>
+    <col min="6" max="6" width="3.296875" style="46" customWidth="1"/>
     <col min="7" max="7" width="20" style="45" customWidth="1"/>
-    <col min="8" max="8" width="3.6640625" style="45" customWidth="1"/>
-    <col min="9" max="9" width="26.6640625" style="45" customWidth="1"/>
-    <col min="10" max="10" width="4.44140625" style="45" customWidth="1"/>
-    <col min="11" max="11" width="25.109375" style="45" customWidth="1"/>
-    <col min="12" max="12" width="4.44140625" style="45" customWidth="1"/>
-    <col min="13" max="13" width="11.109375" style="45" customWidth="1"/>
-    <col min="14" max="14" width="4.109375" style="45" customWidth="1"/>
-    <col min="15" max="15" width="7.77734375" style="45" customWidth="1"/>
-    <col min="16" max="16" width="13.44140625" style="45" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.109375" style="45" customWidth="1"/>
-    <col min="18" max="16384" width="8.77734375" style="45"/>
+    <col min="8" max="8" width="3.69921875" style="45" customWidth="1"/>
+    <col min="9" max="9" width="26.69921875" style="45" customWidth="1"/>
+    <col min="10" max="10" width="4.3984375" style="45" customWidth="1"/>
+    <col min="11" max="11" width="25.09765625" style="45" customWidth="1"/>
+    <col min="12" max="12" width="4.3984375" style="45" customWidth="1"/>
+    <col min="13" max="13" width="11.09765625" style="45" customWidth="1"/>
+    <col min="14" max="14" width="4.09765625" style="45" customWidth="1"/>
+    <col min="15" max="15" width="7.796875" style="45" customWidth="1"/>
+    <col min="16" max="16" width="13.3984375" style="45" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.09765625" style="45" customWidth="1"/>
+    <col min="18" max="16384" width="8.796875" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="57"/>
       <c r="B1" s="57"/>
       <c r="C1" s="57"/>
@@ -3593,7 +3536,7 @@
       <c r="P1" s="57"/>
       <c r="Q1" s="57"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="57"/>
       <c r="B2" s="57"/>
       <c r="C2" s="57"/>
@@ -3612,7 +3555,7 @@
       <c r="P2" s="57"/>
       <c r="Q2" s="57"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="57"/>
       <c r="B3" s="57"/>
       <c r="C3" s="57"/>
@@ -3631,7 +3574,7 @@
       <c r="P3" s="57"/>
       <c r="Q3" s="57"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="57"/>
       <c r="B4" s="57"/>
       <c r="C4" s="57"/>
@@ -3650,7 +3593,7 @@
       <c r="P4" s="57"/>
       <c r="Q4" s="57"/>
     </row>
-    <row r="5" spans="1:17" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:17" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="57"/>
       <c r="B5" s="57"/>
       <c r="C5" s="57"/>
@@ -3669,38 +3612,38 @@
       <c r="P5" s="57"/>
       <c r="Q5" s="57"/>
     </row>
-    <row r="6" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:17" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A6" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="71" t="s">
+      <c r="B6" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="71"/>
-      <c r="D6" s="71" t="s">
+      <c r="C6" s="80"/>
+      <c r="D6" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71" t="s">
+      <c r="E6" s="80"/>
+      <c r="F6" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="71"/>
-      <c r="H6" s="71" t="s">
+      <c r="G6" s="80"/>
+      <c r="H6" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71" t="s">
+      <c r="I6" s="80"/>
+      <c r="J6" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="71"/>
-      <c r="L6" s="71" t="s">
+      <c r="K6" s="80"/>
+      <c r="L6" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="M6" s="71"/>
-      <c r="N6" s="71" t="s">
+      <c r="M6" s="80"/>
+      <c r="N6" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="O6" s="71"/>
+      <c r="O6" s="80"/>
       <c r="P6" s="54" t="s">
         <v>17</v>
       </c>
@@ -3708,9 +3651,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="47" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B7" s="48" t="s">
         <v>19</v>
@@ -3733,9 +3676,9 @@
       <c r="P7" s="51"/>
       <c r="Q7" s="52"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="47" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" s="48"/>
       <c r="C8" s="49"/>
@@ -3743,12 +3686,12 @@
         <v>1</v>
       </c>
       <c r="E8" s="50" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F8" s="48"/>
       <c r="G8" s="50"/>
       <c r="H8" s="55"/>
-      <c r="I8" s="75"/>
+      <c r="I8" s="61"/>
       <c r="J8" s="48"/>
       <c r="K8" s="53"/>
       <c r="L8" s="48"/>
@@ -3758,9 +3701,9 @@
       <c r="P8" s="51"/>
       <c r="Q8" s="52"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="47" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B9" s="48"/>
       <c r="C9" s="49"/>
@@ -3770,10 +3713,10 @@
         <v>1</v>
       </c>
       <c r="G9" s="50" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H9" s="55"/>
-      <c r="I9" s="75"/>
+      <c r="I9" s="61"/>
       <c r="J9" s="48"/>
       <c r="K9" s="53"/>
       <c r="L9" s="48"/>
@@ -3783,9 +3726,9 @@
       <c r="P9" s="51"/>
       <c r="Q9" s="52"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B10" s="48"/>
       <c r="C10" s="49"/>
@@ -3796,8 +3739,8 @@
       <c r="H10" s="55">
         <v>1</v>
       </c>
-      <c r="I10" s="75" t="s">
-        <v>67</v>
+      <c r="I10" s="61" t="s">
+        <v>63</v>
       </c>
       <c r="J10" s="48"/>
       <c r="K10" s="53"/>
@@ -3808,9 +3751,9 @@
       <c r="P10" s="51"/>
       <c r="Q10" s="52"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="47" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B11" s="48"/>
       <c r="C11" s="49"/>
@@ -3819,12 +3762,12 @@
       <c r="F11" s="48"/>
       <c r="G11" s="50"/>
       <c r="H11" s="55"/>
-      <c r="I11" s="75"/>
+      <c r="I11" s="61"/>
       <c r="J11" s="48">
         <v>1</v>
       </c>
       <c r="K11" s="53" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="L11" s="48"/>
       <c r="M11" s="53"/>
@@ -3833,9 +3776,9 @@
       <c r="P11" s="51"/>
       <c r="Q11" s="52"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="47" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B12" s="48"/>
       <c r="C12" s="49"/>
@@ -3844,12 +3787,12 @@
       <c r="F12" s="48"/>
       <c r="G12" s="50"/>
       <c r="H12" s="55"/>
-      <c r="I12" s="75"/>
+      <c r="I12" s="61"/>
       <c r="J12" s="48">
         <v>2</v>
       </c>
       <c r="K12" s="53" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L12" s="48"/>
       <c r="M12" s="53"/>
@@ -3858,9 +3801,9 @@
       <c r="P12" s="51"/>
       <c r="Q12" s="52"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="47" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B13" s="48"/>
       <c r="C13" s="49"/>
@@ -3869,12 +3812,12 @@
       <c r="F13" s="48"/>
       <c r="G13" s="50"/>
       <c r="H13" s="55"/>
-      <c r="I13" s="75"/>
+      <c r="I13" s="61"/>
       <c r="J13" s="48">
         <v>3</v>
       </c>
       <c r="K13" s="53" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="L13" s="48"/>
       <c r="M13" s="53"/>
@@ -3883,9 +3826,9 @@
       <c r="P13" s="51"/>
       <c r="Q13" s="52"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="47" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B14" s="48"/>
       <c r="C14" s="49"/>
@@ -3895,10 +3838,10 @@
         <v>2</v>
       </c>
       <c r="G14" s="50" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H14" s="55"/>
-      <c r="I14" s="75"/>
+      <c r="I14" s="61"/>
       <c r="J14" s="48"/>
       <c r="K14" s="53"/>
       <c r="L14" s="48"/>
@@ -3908,9 +3851,9 @@
       <c r="P14" s="51"/>
       <c r="Q14" s="52"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="47" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B15" s="48"/>
       <c r="C15" s="49"/>
@@ -3921,8 +3864,8 @@
       <c r="H15" s="55">
         <v>1</v>
       </c>
-      <c r="I15" s="75" t="s">
-        <v>62</v>
+      <c r="I15" s="61" t="s">
+        <v>53</v>
       </c>
       <c r="J15" s="48"/>
       <c r="K15" s="53"/>
@@ -3933,9 +3876,9 @@
       <c r="P15" s="51"/>
       <c r="Q15" s="52"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="47" t="s">
-        <v>99</v>
+        <v>147</v>
       </c>
       <c r="B16" s="48"/>
       <c r="C16" s="49"/>
@@ -3943,14 +3886,14 @@
       <c r="E16" s="50"/>
       <c r="F16" s="48"/>
       <c r="G16" s="50"/>
-      <c r="H16" s="55">
-        <v>2</v>
-      </c>
-      <c r="I16" s="75" t="s">
-        <v>57</v>
-      </c>
-      <c r="J16" s="48"/>
-      <c r="K16" s="53"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="48">
+        <v>1</v>
+      </c>
+      <c r="K16" s="53" t="s">
+        <v>56</v>
+      </c>
       <c r="L16" s="48"/>
       <c r="M16" s="53"/>
       <c r="N16" s="48"/>
@@ -3958,9 +3901,9 @@
       <c r="P16" s="51"/>
       <c r="Q16" s="52"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="47" t="s">
-        <v>100</v>
+        <v>148</v>
       </c>
       <c r="B17" s="48"/>
       <c r="C17" s="49"/>
@@ -3969,9 +3912,9 @@
       <c r="F17" s="48"/>
       <c r="G17" s="50"/>
       <c r="H17" s="55"/>
-      <c r="I17" s="75"/>
+      <c r="I17" s="61"/>
       <c r="J17" s="48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K17" s="53" t="s">
         <v>59</v>
@@ -3983,24 +3926,24 @@
       <c r="P17" s="51"/>
       <c r="Q17" s="52"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="47" t="s">
-        <v>101</v>
+        <v>40</v>
       </c>
       <c r="B18" s="48"/>
       <c r="C18" s="49"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="50"/>
+      <c r="D18" s="48">
+        <v>2</v>
+      </c>
+      <c r="E18" s="50" t="s">
+        <v>60</v>
+      </c>
       <c r="F18" s="48"/>
       <c r="G18" s="50"/>
       <c r="H18" s="55"/>
-      <c r="I18" s="75"/>
-      <c r="J18" s="48">
-        <v>2</v>
-      </c>
-      <c r="K18" s="53" t="s">
-        <v>63</v>
-      </c>
+      <c r="I18" s="61"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="53"/>
       <c r="L18" s="48"/>
       <c r="M18" s="53"/>
       <c r="N18" s="48"/>
@@ -4008,22 +3951,22 @@
       <c r="P18" s="51"/>
       <c r="Q18" s="52"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="47" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="B19" s="48"/>
       <c r="C19" s="49"/>
-      <c r="D19" s="48">
-        <v>2</v>
-      </c>
-      <c r="E19" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="F19" s="48"/>
-      <c r="G19" s="50"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="48">
+        <v>1</v>
+      </c>
+      <c r="G19" s="50" t="s">
+        <v>61</v>
+      </c>
       <c r="H19" s="55"/>
-      <c r="I19" s="75"/>
+      <c r="I19" s="61"/>
       <c r="J19" s="48"/>
       <c r="K19" s="53"/>
       <c r="L19" s="48"/>
@@ -4033,22 +3976,22 @@
       <c r="P19" s="51"/>
       <c r="Q19" s="52"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="47" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B20" s="48"/>
       <c r="C20" s="49"/>
       <c r="D20" s="48"/>
       <c r="E20" s="50"/>
-      <c r="F20" s="48">
+      <c r="F20" s="48"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="55">
         <v>1</v>
       </c>
-      <c r="G20" s="50" t="s">
-        <v>65</v>
-      </c>
-      <c r="H20" s="55"/>
-      <c r="I20" s="75"/>
+      <c r="I20" s="61" t="s">
+        <v>62</v>
+      </c>
       <c r="J20" s="48"/>
       <c r="K20" s="53"/>
       <c r="L20" s="48"/>
@@ -4058,9 +4001,9 @@
       <c r="P20" s="51"/>
       <c r="Q20" s="52"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="47" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B21" s="48"/>
       <c r="C21" s="49"/>
@@ -4068,14 +4011,14 @@
       <c r="E21" s="50"/>
       <c r="F21" s="48"/>
       <c r="G21" s="50"/>
-      <c r="H21" s="55">
+      <c r="H21" s="55"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="48">
         <v>1</v>
       </c>
-      <c r="I21" s="75" t="s">
-        <v>66</v>
-      </c>
-      <c r="J21" s="48"/>
-      <c r="K21" s="53"/>
+      <c r="K21" s="53" t="s">
+        <v>61</v>
+      </c>
       <c r="L21" s="48"/>
       <c r="M21" s="53"/>
       <c r="N21" s="48"/>
@@ -4083,9 +4026,9 @@
       <c r="P21" s="51"/>
       <c r="Q21" s="52"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="47" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B22" s="48"/>
       <c r="C22" s="49"/>
@@ -4094,12 +4037,12 @@
       <c r="F22" s="48"/>
       <c r="G22" s="50"/>
       <c r="H22" s="55"/>
-      <c r="I22" s="75"/>
+      <c r="I22" s="61"/>
       <c r="J22" s="48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K22" s="53" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L22" s="48"/>
       <c r="M22" s="53"/>
@@ -4108,24 +4051,24 @@
       <c r="P22" s="51"/>
       <c r="Q22" s="52"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="47" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B23" s="48"/>
       <c r="C23" s="49"/>
       <c r="D23" s="48"/>
       <c r="E23" s="50"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="50"/>
+      <c r="F23" s="48">
+        <v>2</v>
+      </c>
+      <c r="G23" s="50" t="s">
+        <v>65</v>
+      </c>
       <c r="H23" s="55"/>
-      <c r="I23" s="75"/>
-      <c r="J23" s="48">
-        <v>2</v>
-      </c>
-      <c r="K23" s="53" t="s">
-        <v>68</v>
-      </c>
+      <c r="I23" s="61"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="53"/>
       <c r="L23" s="48"/>
       <c r="M23" s="53"/>
       <c r="N23" s="48"/>
@@ -4133,22 +4076,22 @@
       <c r="P23" s="51"/>
       <c r="Q23" s="52"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="47" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B24" s="48"/>
       <c r="C24" s="49"/>
       <c r="D24" s="48"/>
       <c r="E24" s="50"/>
-      <c r="F24" s="48">
-        <v>2</v>
-      </c>
-      <c r="G24" s="50" t="s">
-        <v>69</v>
-      </c>
-      <c r="H24" s="55"/>
-      <c r="I24" s="75"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="55">
+        <v>1</v>
+      </c>
+      <c r="I24" s="61" t="s">
+        <v>67</v>
+      </c>
       <c r="J24" s="48"/>
       <c r="K24" s="53"/>
       <c r="L24" s="48"/>
@@ -4158,22 +4101,22 @@
       <c r="P24" s="51"/>
       <c r="Q24" s="52"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="47" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B25" s="48"/>
       <c r="C25" s="49"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="50"/>
+      <c r="D25" s="48">
+        <v>3</v>
+      </c>
+      <c r="E25" s="50" t="s">
+        <v>68</v>
+      </c>
       <c r="F25" s="48"/>
       <c r="G25" s="50"/>
-      <c r="H25" s="55">
-        <v>1</v>
-      </c>
-      <c r="I25" s="75" t="s">
-        <v>71</v>
-      </c>
+      <c r="H25" s="55"/>
+      <c r="I25" s="61"/>
       <c r="J25" s="48"/>
       <c r="K25" s="53"/>
       <c r="L25" s="48"/>
@@ -4183,22 +4126,22 @@
       <c r="P25" s="51"/>
       <c r="Q25" s="52"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="47" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B26" s="48"/>
       <c r="C26" s="49"/>
-      <c r="D26" s="48">
-        <v>3</v>
-      </c>
-      <c r="E26" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="F26" s="48"/>
-      <c r="G26" s="50"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="48">
+        <v>1</v>
+      </c>
+      <c r="G26" s="50" t="s">
+        <v>57</v>
+      </c>
       <c r="H26" s="55"/>
-      <c r="I26" s="75"/>
+      <c r="I26" s="61"/>
       <c r="J26" s="48"/>
       <c r="K26" s="53"/>
       <c r="L26" s="48"/>
@@ -4208,22 +4151,22 @@
       <c r="P26" s="51"/>
       <c r="Q26" s="52"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="47" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B27" s="48"/>
       <c r="C27" s="49"/>
       <c r="D27" s="48"/>
       <c r="E27" s="50"/>
-      <c r="F27" s="48">
+      <c r="F27" s="48"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="55">
         <v>1</v>
       </c>
-      <c r="G27" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="H27" s="55"/>
-      <c r="I27" s="75"/>
+      <c r="I27" s="61" t="s">
+        <v>33</v>
+      </c>
       <c r="J27" s="48"/>
       <c r="K27" s="53"/>
       <c r="L27" s="48"/>
@@ -4233,9 +4176,9 @@
       <c r="P27" s="51"/>
       <c r="Q27" s="52"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="47" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B28" s="48"/>
       <c r="C28" s="49"/>
@@ -4243,14 +4186,14 @@
       <c r="E28" s="50"/>
       <c r="F28" s="48"/>
       <c r="G28" s="50"/>
-      <c r="H28" s="55">
+      <c r="H28" s="55"/>
+      <c r="I28" s="61"/>
+      <c r="J28" s="48">
         <v>1</v>
       </c>
-      <c r="I28" s="75" t="s">
-        <v>33</v>
-      </c>
-      <c r="J28" s="48"/>
-      <c r="K28" s="53"/>
+      <c r="K28" s="53" t="s">
+        <v>58</v>
+      </c>
       <c r="L28" s="48"/>
       <c r="M28" s="53"/>
       <c r="N28" s="48"/>
@@ -4258,24 +4201,24 @@
       <c r="P28" s="51"/>
       <c r="Q28" s="52"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A29" s="47" t="s">
-        <v>111</v>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="58" t="s">
+        <v>103</v>
       </c>
       <c r="B29" s="48"/>
       <c r="C29" s="49"/>
       <c r="D29" s="48"/>
       <c r="E29" s="50"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="50"/>
+      <c r="F29" s="48">
+        <v>2</v>
+      </c>
+      <c r="G29" s="50" t="s">
+        <v>23</v>
+      </c>
       <c r="H29" s="55"/>
-      <c r="I29" s="75"/>
-      <c r="J29" s="48">
-        <v>1</v>
-      </c>
-      <c r="K29" s="53" t="s">
-        <v>61</v>
-      </c>
+      <c r="I29" s="61"/>
+      <c r="J29" s="48"/>
+      <c r="K29" s="53"/>
       <c r="L29" s="48"/>
       <c r="M29" s="53"/>
       <c r="N29" s="48"/>
@@ -4283,22 +4226,22 @@
       <c r="P29" s="51"/>
       <c r="Q29" s="52"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="58" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B30" s="48"/>
       <c r="C30" s="49"/>
       <c r="D30" s="48"/>
       <c r="E30" s="50"/>
-      <c r="F30" s="48">
-        <v>2</v>
-      </c>
-      <c r="G30" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="H30" s="55"/>
-      <c r="I30" s="75"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="55">
+        <v>1</v>
+      </c>
+      <c r="I30" s="61" t="s">
+        <v>31</v>
+      </c>
       <c r="J30" s="48"/>
       <c r="K30" s="53"/>
       <c r="L30" s="48"/>
@@ -4308,9 +4251,9 @@
       <c r="P30" s="51"/>
       <c r="Q30" s="52"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="58" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B31" s="48"/>
       <c r="C31" s="49"/>
@@ -4318,14 +4261,14 @@
       <c r="E31" s="50"/>
       <c r="F31" s="48"/>
       <c r="G31" s="50"/>
-      <c r="H31" s="55">
+      <c r="H31" s="55"/>
+      <c r="I31" s="61"/>
+      <c r="J31" s="48">
         <v>1</v>
       </c>
-      <c r="I31" s="75" t="s">
-        <v>31</v>
-      </c>
-      <c r="J31" s="48"/>
-      <c r="K31" s="53"/>
+      <c r="K31" s="53" t="s">
+        <v>32</v>
+      </c>
       <c r="L31" s="48"/>
       <c r="M31" s="53"/>
       <c r="N31" s="48"/>
@@ -4333,24 +4276,24 @@
       <c r="P31" s="51"/>
       <c r="Q31" s="52"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="58" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B32" s="48"/>
       <c r="C32" s="49"/>
       <c r="D32" s="48"/>
       <c r="E32" s="50"/>
-      <c r="F32" s="48"/>
-      <c r="G32" s="50"/>
+      <c r="F32" s="48">
+        <v>3</v>
+      </c>
+      <c r="G32" s="50" t="s">
+        <v>24</v>
+      </c>
       <c r="H32" s="55"/>
-      <c r="I32" s="75"/>
-      <c r="J32" s="48">
-        <v>1</v>
-      </c>
-      <c r="K32" s="53" t="s">
-        <v>32</v>
-      </c>
+      <c r="I32" s="61"/>
+      <c r="J32" s="48"/>
+      <c r="K32" s="53"/>
       <c r="L32" s="48"/>
       <c r="M32" s="53"/>
       <c r="N32" s="48"/>
@@ -4358,22 +4301,22 @@
       <c r="P32" s="51"/>
       <c r="Q32" s="52"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="58" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B33" s="48"/>
       <c r="C33" s="49"/>
       <c r="D33" s="48"/>
       <c r="E33" s="50"/>
-      <c r="F33" s="48">
-        <v>3</v>
-      </c>
-      <c r="G33" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="H33" s="55"/>
-      <c r="I33" s="75"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="50"/>
+      <c r="H33" s="55">
+        <v>1</v>
+      </c>
+      <c r="I33" s="61" t="s">
+        <v>34</v>
+      </c>
       <c r="J33" s="48"/>
       <c r="K33" s="53"/>
       <c r="L33" s="48"/>
@@ -4383,9 +4326,9 @@
       <c r="P33" s="51"/>
       <c r="Q33" s="52"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="58" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B34" s="48"/>
       <c r="C34" s="49"/>
@@ -4393,14 +4336,14 @@
       <c r="E34" s="50"/>
       <c r="F34" s="48"/>
       <c r="G34" s="50"/>
-      <c r="H34" s="55">
+      <c r="H34" s="55"/>
+      <c r="I34" s="61"/>
+      <c r="J34" s="48">
         <v>1</v>
       </c>
-      <c r="I34" s="75" t="s">
-        <v>34</v>
-      </c>
-      <c r="J34" s="48"/>
-      <c r="K34" s="53"/>
+      <c r="K34" s="53" t="s">
+        <v>35</v>
+      </c>
       <c r="L34" s="48"/>
       <c r="M34" s="53"/>
       <c r="N34" s="48"/>
@@ -4408,24 +4351,24 @@
       <c r="P34" s="51"/>
       <c r="Q34" s="52"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="58" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B35" s="48"/>
       <c r="C35" s="49"/>
       <c r="D35" s="48"/>
       <c r="E35" s="50"/>
-      <c r="F35" s="48"/>
-      <c r="G35" s="50"/>
+      <c r="F35" s="48">
+        <v>4</v>
+      </c>
+      <c r="G35" s="50" t="s">
+        <v>25</v>
+      </c>
       <c r="H35" s="55"/>
-      <c r="I35" s="75"/>
-      <c r="J35" s="48">
-        <v>1</v>
-      </c>
-      <c r="K35" s="53" t="s">
-        <v>35</v>
-      </c>
+      <c r="I35" s="61"/>
+      <c r="J35" s="48"/>
+      <c r="K35" s="53"/>
       <c r="L35" s="48"/>
       <c r="M35" s="53"/>
       <c r="N35" s="48"/>
@@ -4433,22 +4376,22 @@
       <c r="P35" s="51"/>
       <c r="Q35" s="52"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="58" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B36" s="48"/>
       <c r="C36" s="49"/>
       <c r="D36" s="48"/>
       <c r="E36" s="50"/>
-      <c r="F36" s="48">
-        <v>4</v>
-      </c>
-      <c r="G36" s="50" t="s">
-        <v>25</v>
-      </c>
-      <c r="H36" s="55"/>
-      <c r="I36" s="75"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="50"/>
+      <c r="H36" s="55">
+        <v>1</v>
+      </c>
+      <c r="I36" s="61" t="s">
+        <v>36</v>
+      </c>
       <c r="J36" s="48"/>
       <c r="K36" s="53"/>
       <c r="L36" s="48"/>
@@ -4458,9 +4401,9 @@
       <c r="P36" s="51"/>
       <c r="Q36" s="52"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="58" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B37" s="48"/>
       <c r="C37" s="49"/>
@@ -4468,14 +4411,14 @@
       <c r="E37" s="50"/>
       <c r="F37" s="48"/>
       <c r="G37" s="50"/>
-      <c r="H37" s="55">
+      <c r="H37" s="55"/>
+      <c r="I37" s="61"/>
+      <c r="J37" s="48">
         <v>1</v>
       </c>
-      <c r="I37" s="75" t="s">
-        <v>36</v>
-      </c>
-      <c r="J37" s="48"/>
-      <c r="K37" s="53"/>
+      <c r="K37" s="53" t="s">
+        <v>37</v>
+      </c>
       <c r="L37" s="48"/>
       <c r="M37" s="53"/>
       <c r="N37" s="48"/>
@@ -4483,9 +4426,9 @@
       <c r="P37" s="51"/>
       <c r="Q37" s="52"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="58" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B38" s="48"/>
       <c r="C38" s="49"/>
@@ -4494,12 +4437,12 @@
       <c r="F38" s="48"/>
       <c r="G38" s="50"/>
       <c r="H38" s="55"/>
-      <c r="I38" s="75"/>
+      <c r="I38" s="61"/>
       <c r="J38" s="48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K38" s="53" t="s">
-        <v>38</v>
+        <v>149</v>
       </c>
       <c r="L38" s="48"/>
       <c r="M38" s="53"/>
@@ -4508,24 +4451,24 @@
       <c r="P38" s="51"/>
       <c r="Q38" s="52"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="58" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B39" s="48"/>
       <c r="C39" s="49"/>
       <c r="D39" s="48"/>
       <c r="E39" s="50"/>
-      <c r="F39" s="48"/>
-      <c r="G39" s="50"/>
+      <c r="F39" s="48">
+        <v>5</v>
+      </c>
+      <c r="G39" s="50" t="s">
+        <v>69</v>
+      </c>
       <c r="H39" s="55"/>
-      <c r="I39" s="75"/>
-      <c r="J39" s="48">
-        <v>2</v>
-      </c>
-      <c r="K39" s="53" t="s">
-        <v>52</v>
-      </c>
+      <c r="I39" s="61"/>
+      <c r="J39" s="48"/>
+      <c r="K39" s="53"/>
       <c r="L39" s="48"/>
       <c r="M39" s="53"/>
       <c r="N39" s="48"/>
@@ -4533,49 +4476,48 @@
       <c r="P39" s="51"/>
       <c r="Q39" s="52"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="58" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B40" s="48"/>
       <c r="C40" s="49"/>
       <c r="D40" s="48"/>
       <c r="E40" s="50"/>
-      <c r="F40" s="48"/>
-      <c r="G40" s="50"/>
-      <c r="H40" s="55">
-        <v>2</v>
-      </c>
-      <c r="I40" s="75" t="s">
-        <v>37</v>
-      </c>
-      <c r="J40" s="48"/>
-      <c r="K40" s="53"/>
+      <c r="F40" s="56"/>
+      <c r="G40" s="57"/>
+      <c r="H40" s="48">
+        <v>1</v>
+      </c>
+      <c r="I40" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="J40" s="55"/>
+      <c r="K40" s="61"/>
       <c r="L40" s="48"/>
       <c r="M40" s="53"/>
       <c r="N40" s="48"/>
       <c r="O40" s="50"/>
       <c r="P40" s="51"/>
       <c r="Q40" s="52"/>
-      <c r="R40" s="72"/>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="58" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B41" s="48"/>
       <c r="C41" s="49"/>
       <c r="D41" s="48"/>
       <c r="E41" s="50"/>
-      <c r="F41" s="48"/>
-      <c r="G41" s="50"/>
-      <c r="H41" s="55"/>
-      <c r="I41" s="75"/>
-      <c r="J41" s="48">
+      <c r="F41" s="56"/>
+      <c r="G41" s="57"/>
+      <c r="H41" s="48"/>
+      <c r="I41" s="53"/>
+      <c r="J41" s="55">
         <v>1</v>
       </c>
-      <c r="K41" s="53" t="s">
-        <v>72</v>
+      <c r="K41" s="61" t="s">
+        <v>49</v>
       </c>
       <c r="L41" s="48"/>
       <c r="M41" s="53"/>
@@ -4584,24 +4526,24 @@
       <c r="P41" s="51"/>
       <c r="Q41" s="52"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="58" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B42" s="48"/>
       <c r="C42" s="49"/>
       <c r="D42" s="48"/>
       <c r="E42" s="50"/>
-      <c r="F42" s="48"/>
-      <c r="G42" s="50"/>
-      <c r="H42" s="55">
-        <v>3</v>
-      </c>
-      <c r="I42" s="75" t="s">
-        <v>54</v>
-      </c>
-      <c r="J42" s="48"/>
-      <c r="K42" s="53"/>
+      <c r="F42" s="48">
+        <v>6</v>
+      </c>
+      <c r="G42" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="H42" s="48"/>
+      <c r="I42" s="53"/>
+      <c r="J42" s="57"/>
+      <c r="K42" s="63"/>
       <c r="L42" s="48"/>
       <c r="M42" s="53"/>
       <c r="N42" s="48"/>
@@ -4609,9 +4551,9 @@
       <c r="P42" s="51"/>
       <c r="Q42" s="52"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="58" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B43" s="48"/>
       <c r="C43" s="49"/>
@@ -4619,14 +4561,14 @@
       <c r="E43" s="50"/>
       <c r="F43" s="48"/>
       <c r="G43" s="50"/>
-      <c r="H43" s="55"/>
-      <c r="I43" s="75"/>
-      <c r="J43" s="48">
+      <c r="H43" s="48">
         <v>1</v>
       </c>
-      <c r="K43" s="53" t="s">
-        <v>73</v>
-      </c>
+      <c r="I43" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="J43" s="57"/>
+      <c r="K43" s="63"/>
       <c r="L43" s="48"/>
       <c r="M43" s="53"/>
       <c r="N43" s="48"/>
@@ -4634,49 +4576,49 @@
       <c r="P43" s="51"/>
       <c r="Q43" s="52"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="58" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B44" s="48"/>
       <c r="C44" s="49"/>
-      <c r="D44" s="48"/>
-      <c r="E44" s="50"/>
+      <c r="D44" s="56"/>
+      <c r="E44" s="57"/>
       <c r="F44" s="48">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G44" s="50" t="s">
-        <v>75</v>
-      </c>
-      <c r="H44" s="55"/>
-      <c r="I44" s="75"/>
-      <c r="J44" s="48"/>
-      <c r="K44" s="53"/>
+        <v>28</v>
+      </c>
+      <c r="H44" s="48"/>
+      <c r="I44" s="53"/>
+      <c r="J44" s="57"/>
+      <c r="K44" s="63"/>
       <c r="L44" s="48"/>
       <c r="M44" s="53"/>
       <c r="N44" s="48"/>
       <c r="O44" s="50"/>
-      <c r="P44" s="51"/>
-      <c r="Q44" s="52"/>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="P44" s="53"/>
+      <c r="Q44" s="50"/>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="58" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B45" s="48"/>
       <c r="C45" s="49"/>
-      <c r="D45" s="48"/>
-      <c r="E45" s="50"/>
-      <c r="F45" s="56"/>
-      <c r="G45" s="57"/>
+      <c r="D45" s="56"/>
+      <c r="E45" s="57"/>
+      <c r="F45" s="48"/>
+      <c r="G45" s="50"/>
       <c r="H45" s="48">
         <v>1</v>
       </c>
       <c r="I45" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="J45" s="55"/>
-      <c r="K45" s="75"/>
+        <v>29</v>
+      </c>
+      <c r="J45" s="57"/>
+      <c r="K45" s="63"/>
       <c r="L45" s="48"/>
       <c r="M45" s="53"/>
       <c r="N45" s="48"/>
@@ -4684,24 +4626,24 @@
       <c r="P45" s="51"/>
       <c r="Q45" s="52"/>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="58" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B46" s="48"/>
       <c r="C46" s="49"/>
-      <c r="D46" s="48"/>
-      <c r="E46" s="50"/>
-      <c r="F46" s="56"/>
-      <c r="G46" s="57"/>
-      <c r="H46" s="48"/>
-      <c r="I46" s="53"/>
-      <c r="J46" s="55">
-        <v>1</v>
-      </c>
-      <c r="K46" s="75" t="s">
-        <v>50</v>
-      </c>
+      <c r="D46" s="56"/>
+      <c r="E46" s="57"/>
+      <c r="F46" s="48"/>
+      <c r="G46" s="50"/>
+      <c r="H46" s="48">
+        <v>2</v>
+      </c>
+      <c r="I46" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="J46" s="57"/>
+      <c r="K46" s="63"/>
       <c r="L46" s="48"/>
       <c r="M46" s="53"/>
       <c r="N46" s="48"/>
@@ -4709,24 +4651,24 @@
       <c r="P46" s="51"/>
       <c r="Q46" s="52"/>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="58" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B47" s="48"/>
       <c r="C47" s="49"/>
-      <c r="D47" s="48"/>
-      <c r="E47" s="50"/>
+      <c r="D47" s="56"/>
+      <c r="E47" s="57"/>
       <c r="F47" s="48">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G47" s="50" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="H47" s="48"/>
-      <c r="I47" s="53"/>
-      <c r="J47" s="57"/>
-      <c r="K47" s="77"/>
+      <c r="I47" s="62"/>
+      <c r="J47" s="55"/>
+      <c r="K47" s="61"/>
       <c r="L47" s="48"/>
       <c r="M47" s="53"/>
       <c r="N47" s="48"/>
@@ -4734,24 +4676,24 @@
       <c r="P47" s="51"/>
       <c r="Q47" s="52"/>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="58" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B48" s="48"/>
       <c r="C48" s="49"/>
-      <c r="D48" s="48"/>
-      <c r="E48" s="50"/>
+      <c r="D48" s="56"/>
+      <c r="E48" s="57"/>
       <c r="F48" s="48"/>
       <c r="G48" s="50"/>
       <c r="H48" s="48">
         <v>1</v>
       </c>
-      <c r="I48" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="J48" s="57"/>
-      <c r="K48" s="77"/>
+      <c r="I48" s="62" t="s">
+        <v>45</v>
+      </c>
+      <c r="J48" s="55"/>
+      <c r="K48" s="61"/>
       <c r="L48" s="48"/>
       <c r="M48" s="53"/>
       <c r="N48" s="48"/>
@@ -4759,34 +4701,34 @@
       <c r="P48" s="51"/>
       <c r="Q48" s="52"/>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="58" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B49" s="48"/>
       <c r="C49" s="49"/>
       <c r="D49" s="56"/>
       <c r="E49" s="57"/>
-      <c r="F49" s="48">
-        <v>7</v>
-      </c>
-      <c r="G49" s="50" t="s">
-        <v>28</v>
-      </c>
+      <c r="F49" s="48"/>
+      <c r="G49" s="50"/>
       <c r="H49" s="48"/>
-      <c r="I49" s="53"/>
-      <c r="J49" s="57"/>
-      <c r="K49" s="77"/>
+      <c r="I49" s="62"/>
+      <c r="J49" s="55">
+        <v>1</v>
+      </c>
+      <c r="K49" s="61" t="s">
+        <v>43</v>
+      </c>
       <c r="L49" s="48"/>
       <c r="M49" s="53"/>
       <c r="N49" s="48"/>
       <c r="O49" s="50"/>
-      <c r="P49" s="53"/>
-      <c r="Q49" s="50"/>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="P49" s="51"/>
+      <c r="Q49" s="52"/>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="58" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B50" s="48"/>
       <c r="C50" s="49"/>
@@ -4795,13 +4737,13 @@
       <c r="F50" s="48"/>
       <c r="G50" s="50"/>
       <c r="H50" s="48">
-        <v>1</v>
-      </c>
-      <c r="I50" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="J50" s="57"/>
-      <c r="K50" s="77"/>
+        <v>2</v>
+      </c>
+      <c r="I50" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="J50" s="55"/>
+      <c r="K50" s="61"/>
       <c r="L50" s="48"/>
       <c r="M50" s="53"/>
       <c r="N50" s="48"/>
@@ -4809,9 +4751,9 @@
       <c r="P50" s="51"/>
       <c r="Q50" s="52"/>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="58" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B51" s="48"/>
       <c r="C51" s="49"/>
@@ -4819,14 +4761,14 @@
       <c r="E51" s="57"/>
       <c r="F51" s="48"/>
       <c r="G51" s="50"/>
-      <c r="H51" s="48">
-        <v>2</v>
-      </c>
-      <c r="I51" s="53" t="s">
-        <v>30</v>
-      </c>
-      <c r="J51" s="57"/>
-      <c r="K51" s="77"/>
+      <c r="H51" s="48"/>
+      <c r="I51" s="62"/>
+      <c r="J51" s="55">
+        <v>1</v>
+      </c>
+      <c r="K51" s="61" t="s">
+        <v>70</v>
+      </c>
       <c r="L51" s="48"/>
       <c r="M51" s="53"/>
       <c r="N51" s="48"/>
@@ -4834,24 +4776,24 @@
       <c r="P51" s="51"/>
       <c r="Q51" s="52"/>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="58" t="s">
-        <v>134</v>
+        <v>41</v>
       </c>
       <c r="B52" s="48"/>
       <c r="C52" s="49"/>
-      <c r="D52" s="56"/>
-      <c r="E52" s="57"/>
-      <c r="F52" s="48">
-        <v>8</v>
-      </c>
-      <c r="G52" s="50" t="s">
-        <v>51</v>
-      </c>
+      <c r="D52" s="56">
+        <v>4</v>
+      </c>
+      <c r="E52" s="59" t="s">
+        <v>75</v>
+      </c>
+      <c r="F52" s="48"/>
+      <c r="G52" s="50"/>
       <c r="H52" s="48"/>
-      <c r="I52" s="76"/>
+      <c r="I52" s="62"/>
       <c r="J52" s="55"/>
-      <c r="K52" s="75"/>
+      <c r="K52" s="61"/>
       <c r="L52" s="48"/>
       <c r="M52" s="53"/>
       <c r="N52" s="48"/>
@@ -4859,184 +4801,184 @@
       <c r="P52" s="51"/>
       <c r="Q52" s="52"/>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="58" t="s">
-        <v>135</v>
-      </c>
-      <c r="B53" s="48"/>
-      <c r="C53" s="49"/>
+        <v>126</v>
+      </c>
+      <c r="B53" s="57"/>
+      <c r="C53" s="57"/>
       <c r="D53" s="56"/>
       <c r="E53" s="57"/>
-      <c r="F53" s="48"/>
-      <c r="G53" s="50"/>
-      <c r="H53" s="48">
+      <c r="F53" s="48">
         <v>1</v>
       </c>
-      <c r="I53" s="76" t="s">
-        <v>46</v>
-      </c>
-      <c r="J53" s="55"/>
-      <c r="K53" s="75"/>
-      <c r="L53" s="48"/>
-      <c r="M53" s="53"/>
-      <c r="N53" s="48"/>
-      <c r="O53" s="50"/>
-      <c r="P53" s="51"/>
-      <c r="Q53" s="52"/>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="G53" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="H53" s="55"/>
+      <c r="I53" s="61"/>
+      <c r="J53" s="48"/>
+      <c r="K53" s="53"/>
+      <c r="L53" s="57"/>
+      <c r="M53" s="63"/>
+      <c r="N53" s="57"/>
+      <c r="O53" s="57"/>
+      <c r="P53" s="57"/>
+      <c r="Q53" s="57"/>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="58" t="s">
-        <v>136</v>
-      </c>
-      <c r="B54" s="48"/>
-      <c r="C54" s="49"/>
+        <v>127</v>
+      </c>
+      <c r="B54" s="57"/>
+      <c r="C54" s="57"/>
       <c r="D54" s="56"/>
       <c r="E54" s="57"/>
       <c r="F54" s="48"/>
       <c r="G54" s="50"/>
-      <c r="H54" s="48"/>
-      <c r="I54" s="76"/>
-      <c r="J54" s="55">
+      <c r="H54" s="55">
         <v>1</v>
       </c>
-      <c r="K54" s="75" t="s">
-        <v>44</v>
-      </c>
-      <c r="L54" s="48"/>
-      <c r="M54" s="53"/>
-      <c r="N54" s="48"/>
-      <c r="O54" s="50"/>
-      <c r="P54" s="51"/>
-      <c r="Q54" s="52"/>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="I54" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="J54" s="48"/>
+      <c r="K54" s="53"/>
+      <c r="L54" s="57"/>
+      <c r="M54" s="63"/>
+      <c r="N54" s="57"/>
+      <c r="O54" s="57"/>
+      <c r="P54" s="57"/>
+      <c r="Q54" s="57"/>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="58" t="s">
-        <v>137</v>
-      </c>
-      <c r="B55" s="48"/>
-      <c r="C55" s="49"/>
+        <v>128</v>
+      </c>
+      <c r="B55" s="57"/>
+      <c r="C55" s="57"/>
       <c r="D55" s="56"/>
       <c r="E55" s="57"/>
       <c r="F55" s="48"/>
       <c r="G55" s="50"/>
-      <c r="H55" s="48">
-        <v>2</v>
-      </c>
-      <c r="I55" s="76" t="s">
-        <v>45</v>
-      </c>
-      <c r="J55" s="55"/>
-      <c r="K55" s="75"/>
-      <c r="L55" s="48"/>
-      <c r="M55" s="53"/>
-      <c r="N55" s="48"/>
-      <c r="O55" s="50"/>
-      <c r="P55" s="51"/>
-      <c r="Q55" s="52"/>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="H55" s="55"/>
+      <c r="I55" s="61"/>
+      <c r="J55" s="48">
+        <v>1</v>
+      </c>
+      <c r="K55" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="L55" s="57"/>
+      <c r="M55" s="63"/>
+      <c r="N55" s="57"/>
+      <c r="O55" s="57"/>
+      <c r="P55" s="57"/>
+      <c r="Q55" s="57"/>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="58" t="s">
-        <v>138</v>
-      </c>
-      <c r="B56" s="48"/>
-      <c r="C56" s="49"/>
+        <v>129</v>
+      </c>
+      <c r="B56" s="57"/>
+      <c r="C56" s="57"/>
       <c r="D56" s="56"/>
       <c r="E56" s="57"/>
       <c r="F56" s="48"/>
       <c r="G56" s="50"/>
-      <c r="H56" s="48"/>
-      <c r="I56" s="76"/>
-      <c r="J56" s="55">
-        <v>1</v>
-      </c>
-      <c r="K56" s="75" t="s">
-        <v>76</v>
-      </c>
-      <c r="L56" s="48"/>
-      <c r="M56" s="53"/>
-      <c r="N56" s="48"/>
-      <c r="O56" s="50"/>
-      <c r="P56" s="51"/>
-      <c r="Q56" s="52"/>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="H56" s="55">
+        <v>2</v>
+      </c>
+      <c r="I56" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="J56" s="48"/>
+      <c r="K56" s="53"/>
+      <c r="L56" s="57"/>
+      <c r="M56" s="63"/>
+      <c r="N56" s="57"/>
+      <c r="O56" s="57"/>
+      <c r="P56" s="57"/>
+      <c r="Q56" s="57"/>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="58" t="s">
-        <v>42</v>
-      </c>
-      <c r="B57" s="48"/>
-      <c r="C57" s="49"/>
-      <c r="D57" s="56">
-        <v>4</v>
-      </c>
-      <c r="E57" s="73" t="s">
-        <v>81</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="B57" s="57"/>
+      <c r="C57" s="57"/>
+      <c r="D57" s="56"/>
+      <c r="E57" s="57"/>
       <c r="F57" s="48"/>
       <c r="G57" s="50"/>
-      <c r="H57" s="48"/>
-      <c r="I57" s="76"/>
-      <c r="J57" s="55"/>
-      <c r="K57" s="75"/>
-      <c r="L57" s="48"/>
-      <c r="M57" s="53"/>
-      <c r="N57" s="48"/>
-      <c r="O57" s="50"/>
-      <c r="P57" s="51"/>
-      <c r="Q57" s="52"/>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="H57" s="55"/>
+      <c r="I57" s="61"/>
+      <c r="J57" s="48">
+        <v>1</v>
+      </c>
+      <c r="K57" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="L57" s="57"/>
+      <c r="M57" s="63"/>
+      <c r="N57" s="57"/>
+      <c r="O57" s="57"/>
+      <c r="P57" s="57"/>
+      <c r="Q57" s="57"/>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="58" t="s">
-        <v>139</v>
+        <v>42</v>
       </c>
       <c r="B58" s="57"/>
       <c r="C58" s="57"/>
-      <c r="D58" s="56"/>
-      <c r="E58" s="57"/>
-      <c r="F58" s="48">
-        <v>1</v>
-      </c>
-      <c r="G58" s="50" t="s">
-        <v>77</v>
-      </c>
-      <c r="H58" s="55"/>
-      <c r="I58" s="75"/>
-      <c r="J58" s="48"/>
-      <c r="K58" s="53"/>
+      <c r="D58" s="56">
+        <v>5</v>
+      </c>
+      <c r="E58" s="60" t="s">
+        <v>86</v>
+      </c>
+      <c r="F58" s="48"/>
+      <c r="G58" s="50"/>
+      <c r="H58" s="48"/>
+      <c r="I58" s="62"/>
+      <c r="J58" s="55"/>
+      <c r="K58" s="61"/>
       <c r="L58" s="57"/>
-      <c r="M58" s="77"/>
+      <c r="M58" s="63"/>
       <c r="N58" s="57"/>
       <c r="O58" s="57"/>
       <c r="P58" s="57"/>
       <c r="Q58" s="57"/>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="58" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="B59" s="57"/>
       <c r="C59" s="57"/>
       <c r="D59" s="56"/>
       <c r="E59" s="57"/>
-      <c r="F59" s="48"/>
-      <c r="G59" s="50"/>
-      <c r="H59" s="55">
+      <c r="F59" s="48">
         <v>1</v>
       </c>
-      <c r="I59" s="75" t="s">
-        <v>78</v>
-      </c>
+      <c r="G59" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="H59" s="55"/>
+      <c r="I59" s="61"/>
       <c r="J59" s="48"/>
       <c r="K59" s="53"/>
       <c r="L59" s="57"/>
-      <c r="M59" s="77"/>
+      <c r="M59" s="63"/>
       <c r="N59" s="57"/>
       <c r="O59" s="57"/>
       <c r="P59" s="57"/>
       <c r="Q59" s="57"/>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="58" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="B60" s="57"/>
       <c r="C60" s="57"/>
@@ -5044,24 +4986,24 @@
       <c r="E60" s="57"/>
       <c r="F60" s="48"/>
       <c r="G60" s="50"/>
-      <c r="H60" s="55"/>
-      <c r="I60" s="75"/>
-      <c r="J60" s="48">
+      <c r="H60" s="55">
         <v>1</v>
       </c>
-      <c r="K60" s="53" t="s">
-        <v>79</v>
-      </c>
+      <c r="I60" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="J60" s="48"/>
+      <c r="K60" s="53"/>
       <c r="L60" s="57"/>
-      <c r="M60" s="77"/>
+      <c r="M60" s="63"/>
       <c r="N60" s="57"/>
       <c r="O60" s="57"/>
       <c r="P60" s="57"/>
       <c r="Q60" s="57"/>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="58" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B61" s="57"/>
       <c r="C61" s="57"/>
@@ -5069,24 +5011,24 @@
       <c r="E61" s="57"/>
       <c r="F61" s="48"/>
       <c r="G61" s="50"/>
-      <c r="H61" s="55">
-        <v>2</v>
-      </c>
-      <c r="I61" s="75" t="s">
-        <v>80</v>
-      </c>
-      <c r="J61" s="48"/>
-      <c r="K61" s="53"/>
+      <c r="H61" s="55"/>
+      <c r="I61" s="61"/>
+      <c r="J61" s="48">
+        <v>1</v>
+      </c>
+      <c r="K61" s="53" t="s">
+        <v>76</v>
+      </c>
       <c r="L61" s="57"/>
-      <c r="M61" s="77"/>
+      <c r="M61" s="63"/>
       <c r="N61" s="57"/>
       <c r="O61" s="57"/>
       <c r="P61" s="57"/>
       <c r="Q61" s="57"/>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="58" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B62" s="57"/>
       <c r="C62" s="57"/>
@@ -5095,148 +5037,148 @@
       <c r="F62" s="48"/>
       <c r="G62" s="50"/>
       <c r="H62" s="55"/>
-      <c r="I62" s="75"/>
+      <c r="I62" s="61"/>
       <c r="J62" s="48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K62" s="53" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L62" s="57"/>
-      <c r="M62" s="77"/>
+      <c r="M62" s="63"/>
       <c r="N62" s="57"/>
       <c r="O62" s="57"/>
       <c r="P62" s="57"/>
       <c r="Q62" s="57"/>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="58" t="s">
-        <v>43</v>
-      </c>
-      <c r="B63" s="57"/>
-      <c r="C63" s="57"/>
-      <c r="D63" s="56">
-        <v>5</v>
-      </c>
-      <c r="E63" s="74" t="s">
-        <v>92</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="B63" s="56"/>
+      <c r="C63" s="56"/>
+      <c r="D63" s="56"/>
+      <c r="E63" s="56"/>
       <c r="F63" s="48"/>
-      <c r="G63" s="50"/>
-      <c r="H63" s="48"/>
-      <c r="I63" s="76"/>
-      <c r="J63" s="55"/>
-      <c r="K63" s="75"/>
-      <c r="L63" s="57"/>
-      <c r="M63" s="77"/>
-      <c r="N63" s="57"/>
-      <c r="O63" s="57"/>
-      <c r="P63" s="57"/>
-      <c r="Q63" s="57"/>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="G63" s="49"/>
+      <c r="H63" s="55">
+        <v>2</v>
+      </c>
+      <c r="I63" s="61" t="s">
+        <v>82</v>
+      </c>
+      <c r="J63" s="48"/>
+      <c r="K63" s="53"/>
+      <c r="L63" s="56"/>
+      <c r="M63" s="63"/>
+      <c r="N63" s="56"/>
+      <c r="O63" s="56"/>
+      <c r="P63" s="56"/>
+      <c r="Q63" s="56"/>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="58" t="s">
-        <v>144</v>
-      </c>
-      <c r="B64" s="57"/>
-      <c r="C64" s="57"/>
+        <v>136</v>
+      </c>
+      <c r="B64" s="56"/>
+      <c r="C64" s="56"/>
       <c r="D64" s="56"/>
-      <c r="E64" s="57"/>
-      <c r="F64" s="48">
+      <c r="E64" s="56"/>
+      <c r="F64" s="48"/>
+      <c r="G64" s="49"/>
+      <c r="H64" s="55"/>
+      <c r="I64" s="61"/>
+      <c r="J64" s="48">
         <v>1</v>
       </c>
-      <c r="G64" s="50" t="s">
-        <v>77</v>
-      </c>
-      <c r="H64" s="55"/>
-      <c r="I64" s="75"/>
-      <c r="J64" s="48"/>
-      <c r="K64" s="53"/>
-      <c r="L64" s="57"/>
-      <c r="M64" s="77"/>
-      <c r="N64" s="57"/>
-      <c r="O64" s="57"/>
-      <c r="P64" s="57"/>
-      <c r="Q64" s="57"/>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="K64" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="L64" s="56"/>
+      <c r="M64" s="63"/>
+      <c r="N64" s="56"/>
+      <c r="O64" s="56"/>
+      <c r="P64" s="56"/>
+      <c r="Q64" s="56"/>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="58" t="s">
-        <v>145</v>
-      </c>
-      <c r="B65" s="57"/>
-      <c r="C65" s="57"/>
+        <v>137</v>
+      </c>
+      <c r="B65" s="56"/>
+      <c r="C65" s="56"/>
       <c r="D65" s="56"/>
-      <c r="E65" s="57"/>
+      <c r="E65" s="56"/>
       <c r="F65" s="48"/>
-      <c r="G65" s="50"/>
-      <c r="H65" s="55">
-        <v>1</v>
-      </c>
-      <c r="I65" s="75" t="s">
-        <v>78</v>
-      </c>
+      <c r="G65" s="49"/>
+      <c r="H65" s="55"/>
+      <c r="I65" s="61"/>
       <c r="J65" s="48"/>
       <c r="K65" s="53"/>
-      <c r="L65" s="57"/>
-      <c r="M65" s="77"/>
-      <c r="N65" s="57"/>
-      <c r="O65" s="57"/>
-      <c r="P65" s="57"/>
-      <c r="Q65" s="57"/>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="L65" s="56">
+        <v>1</v>
+      </c>
+      <c r="M65" s="64" t="s">
+        <v>84</v>
+      </c>
+      <c r="N65" s="56"/>
+      <c r="O65" s="56"/>
+      <c r="P65" s="56"/>
+      <c r="Q65" s="56"/>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="58" t="s">
-        <v>147</v>
-      </c>
-      <c r="B66" s="57"/>
-      <c r="C66" s="57"/>
+        <v>138</v>
+      </c>
+      <c r="B66" s="56"/>
+      <c r="C66" s="56"/>
       <c r="D66" s="56"/>
-      <c r="E66" s="57"/>
+      <c r="E66" s="56"/>
       <c r="F66" s="48"/>
-      <c r="G66" s="50"/>
+      <c r="G66" s="49"/>
       <c r="H66" s="55"/>
-      <c r="I66" s="75"/>
-      <c r="J66" s="48">
-        <v>1</v>
-      </c>
-      <c r="K66" s="53" t="s">
-        <v>82</v>
-      </c>
-      <c r="L66" s="57"/>
-      <c r="M66" s="77"/>
-      <c r="N66" s="57"/>
-      <c r="O66" s="57"/>
-      <c r="P66" s="57"/>
-      <c r="Q66" s="57"/>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="I66" s="61"/>
+      <c r="J66" s="48"/>
+      <c r="K66" s="53"/>
+      <c r="L66" s="56">
+        <v>2</v>
+      </c>
+      <c r="M66" s="64" t="s">
+        <v>85</v>
+      </c>
+      <c r="N66" s="56"/>
+      <c r="O66" s="56"/>
+      <c r="P66" s="56"/>
+      <c r="Q66" s="56"/>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="58" t="s">
-        <v>148</v>
-      </c>
-      <c r="B67" s="57"/>
-      <c r="C67" s="57"/>
+        <v>139</v>
+      </c>
+      <c r="B67" s="56"/>
+      <c r="C67" s="56"/>
       <c r="D67" s="56"/>
-      <c r="E67" s="57"/>
+      <c r="E67" s="56"/>
       <c r="F67" s="48"/>
-      <c r="G67" s="50"/>
-      <c r="H67" s="55"/>
-      <c r="I67" s="75"/>
-      <c r="J67" s="48">
+      <c r="G67" s="49"/>
+      <c r="H67" s="56"/>
+      <c r="I67" s="63"/>
+      <c r="J67" s="55">
         <v>2</v>
       </c>
-      <c r="K67" s="53" t="s">
-        <v>83</v>
-      </c>
-      <c r="L67" s="57"/>
-      <c r="M67" s="77"/>
-      <c r="N67" s="57"/>
-      <c r="O67" s="57"/>
-      <c r="P67" s="57"/>
-      <c r="Q67" s="57"/>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="K67" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="L67" s="48"/>
+      <c r="M67" s="53"/>
+      <c r="N67" s="56"/>
+      <c r="O67" s="56"/>
+      <c r="P67" s="56"/>
+      <c r="Q67" s="56"/>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="58" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B68" s="56"/>
       <c r="C68" s="56"/>
@@ -5244,220 +5186,95 @@
       <c r="E68" s="56"/>
       <c r="F68" s="48"/>
       <c r="G68" s="49"/>
-      <c r="H68" s="55">
-        <v>2</v>
-      </c>
-      <c r="I68" s="75" t="s">
-        <v>88</v>
-      </c>
-      <c r="J68" s="48"/>
-      <c r="K68" s="53"/>
-      <c r="L68" s="56"/>
-      <c r="M68" s="77"/>
+      <c r="H68" s="56"/>
+      <c r="I68" s="63"/>
+      <c r="J68" s="55"/>
+      <c r="K68" s="61"/>
+      <c r="L68" s="48">
+        <v>1</v>
+      </c>
+      <c r="M68" s="53" t="s">
+        <v>78</v>
+      </c>
       <c r="N68" s="56"/>
       <c r="O68" s="56"/>
       <c r="P68" s="56"/>
       <c r="Q68" s="56"/>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="58" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B69" s="56"/>
       <c r="C69" s="56"/>
       <c r="D69" s="56"/>
       <c r="E69" s="56"/>
-      <c r="F69" s="48"/>
-      <c r="G69" s="49"/>
-      <c r="H69" s="55"/>
-      <c r="I69" s="75"/>
-      <c r="J69" s="48">
-        <v>1</v>
-      </c>
-      <c r="K69" s="53" t="s">
-        <v>89</v>
+      <c r="F69" s="56"/>
+      <c r="G69" s="56"/>
+      <c r="H69" s="56"/>
+      <c r="I69" s="63"/>
+      <c r="J69" s="56">
+        <v>3</v>
+      </c>
+      <c r="K69" s="64" t="s">
+        <v>79</v>
       </c>
       <c r="L69" s="56"/>
-      <c r="M69" s="77"/>
+      <c r="M69" s="63"/>
       <c r="N69" s="56"/>
       <c r="O69" s="56"/>
       <c r="P69" s="56"/>
       <c r="Q69" s="56"/>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="58" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="B70" s="56"/>
       <c r="C70" s="56"/>
       <c r="D70" s="56"/>
       <c r="E70" s="56"/>
-      <c r="F70" s="48"/>
-      <c r="G70" s="49"/>
-      <c r="H70" s="55"/>
-      <c r="I70" s="75"/>
-      <c r="J70" s="48"/>
-      <c r="K70" s="53"/>
+      <c r="F70" s="56"/>
+      <c r="G70" s="56"/>
+      <c r="H70" s="56"/>
+      <c r="I70" s="63"/>
+      <c r="J70" s="56"/>
+      <c r="K70" s="63"/>
       <c r="L70" s="56">
         <v>1</v>
       </c>
-      <c r="M70" s="78" t="s">
-        <v>90</v>
+      <c r="M70" s="64" t="s">
+        <v>80</v>
       </c>
       <c r="N70" s="56"/>
       <c r="O70" s="56"/>
       <c r="P70" s="56"/>
       <c r="Q70" s="56"/>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="58" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B71" s="56"/>
       <c r="C71" s="56"/>
       <c r="D71" s="56"/>
       <c r="E71" s="56"/>
-      <c r="F71" s="48"/>
-      <c r="G71" s="49"/>
-      <c r="H71" s="55"/>
-      <c r="I71" s="75"/>
-      <c r="J71" s="48"/>
-      <c r="K71" s="53"/>
+      <c r="F71" s="56"/>
+      <c r="G71" s="56"/>
+      <c r="H71" s="56"/>
+      <c r="I71" s="63"/>
+      <c r="J71" s="56"/>
+      <c r="K71" s="63"/>
       <c r="L71" s="56">
         <v>2</v>
       </c>
-      <c r="M71" s="78" t="s">
-        <v>91</v>
+      <c r="M71" s="64" t="s">
+        <v>81</v>
       </c>
       <c r="N71" s="56"/>
       <c r="O71" s="56"/>
       <c r="P71" s="56"/>
       <c r="Q71" s="56"/>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A72" s="58" t="s">
-        <v>152</v>
-      </c>
-      <c r="B72" s="56"/>
-      <c r="C72" s="56"/>
-      <c r="D72" s="56"/>
-      <c r="E72" s="56"/>
-      <c r="F72" s="48"/>
-      <c r="G72" s="49"/>
-      <c r="H72" s="56"/>
-      <c r="I72" s="77"/>
-      <c r="J72" s="55">
-        <v>2</v>
-      </c>
-      <c r="K72" s="75" t="s">
-        <v>80</v>
-      </c>
-      <c r="L72" s="48"/>
-      <c r="M72" s="53"/>
-      <c r="N72" s="56"/>
-      <c r="O72" s="56"/>
-      <c r="P72" s="56"/>
-      <c r="Q72" s="56"/>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A73" s="58" t="s">
-        <v>153</v>
-      </c>
-      <c r="B73" s="56"/>
-      <c r="C73" s="56"/>
-      <c r="D73" s="56"/>
-      <c r="E73" s="56"/>
-      <c r="F73" s="48"/>
-      <c r="G73" s="49"/>
-      <c r="H73" s="56"/>
-      <c r="I73" s="77"/>
-      <c r="J73" s="55"/>
-      <c r="K73" s="75"/>
-      <c r="L73" s="48">
-        <v>1</v>
-      </c>
-      <c r="M73" s="53" t="s">
-        <v>84</v>
-      </c>
-      <c r="N73" s="56"/>
-      <c r="O73" s="56"/>
-      <c r="P73" s="56"/>
-      <c r="Q73" s="56"/>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A74" s="58" t="s">
-        <v>154</v>
-      </c>
-      <c r="B74" s="56"/>
-      <c r="C74" s="56"/>
-      <c r="D74" s="56"/>
-      <c r="E74" s="56"/>
-      <c r="F74" s="56"/>
-      <c r="G74" s="56"/>
-      <c r="H74" s="56"/>
-      <c r="I74" s="77"/>
-      <c r="J74" s="56">
-        <v>3</v>
-      </c>
-      <c r="K74" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="L74" s="56"/>
-      <c r="M74" s="77"/>
-      <c r="N74" s="56"/>
-      <c r="O74" s="56"/>
-      <c r="P74" s="56"/>
-      <c r="Q74" s="56"/>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A75" s="58" t="s">
-        <v>155</v>
-      </c>
-      <c r="B75" s="56"/>
-      <c r="C75" s="56"/>
-      <c r="D75" s="56"/>
-      <c r="E75" s="56"/>
-      <c r="F75" s="56"/>
-      <c r="G75" s="56"/>
-      <c r="H75" s="56"/>
-      <c r="I75" s="77"/>
-      <c r="J75" s="56"/>
-      <c r="K75" s="77"/>
-      <c r="L75" s="56">
-        <v>1</v>
-      </c>
-      <c r="M75" s="78" t="s">
-        <v>86</v>
-      </c>
-      <c r="N75" s="56"/>
-      <c r="O75" s="56"/>
-      <c r="P75" s="56"/>
-      <c r="Q75" s="56"/>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A76" s="58" t="s">
-        <v>156</v>
-      </c>
-      <c r="B76" s="56"/>
-      <c r="C76" s="56"/>
-      <c r="D76" s="56"/>
-      <c r="E76" s="56"/>
-      <c r="F76" s="56"/>
-      <c r="G76" s="56"/>
-      <c r="H76" s="56"/>
-      <c r="I76" s="77"/>
-      <c r="J76" s="56"/>
-      <c r="K76" s="77"/>
-      <c r="L76" s="56">
-        <v>2</v>
-      </c>
-      <c r="M76" s="78" t="s">
-        <v>87</v>
-      </c>
-      <c r="N76" s="56"/>
-      <c r="O76" s="56"/>
-      <c r="P76" s="56"/>
-      <c r="Q76" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/_documents/메뉴구조도(KPC-SCC-IA01).xlsx
+++ b/_documents/메뉴구조도(KPC-SCC-IA01).xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="154">
   <si>
     <t>버전</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -416,11 +416,227 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>SCCUP211100</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP211200</t>
+    <t>SCCUP300000</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP310000</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP311000</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP311100</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP320000</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP321000</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP321100</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP330000</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP331000</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP331100</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP340000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP341000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP341100</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP341200</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP350000</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP351000</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP351100</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP360000</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP361000</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP370000</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP371000</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP372000</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP380000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP381000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP381100</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP382000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP382100</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP410000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP411000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP411100</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP412000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP412100</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP510000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP511000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP512000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP511100</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP511200</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP512100</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP512110</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP512120</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP512200</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP512210</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP512300</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP512310</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP512320</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용 수정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>전반적</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>강다솜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP121100</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP121200</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글, 대댓글 목록</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그아웃</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>홈페이지로 이동</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP230000</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP231000</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP220000</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -428,212 +644,12 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>SCCUP220000</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP300000</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP310000</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP311000</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP311100</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP320000</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP321000</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP321100</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP330000</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP331000</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP331100</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP340000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP341000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP341100</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP341200</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP350000</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP351000</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP351100</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP360000</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP361000</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP370000</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP371000</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP372000</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP380000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP381000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP381100</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP382000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP382100</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP410000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP411000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP411100</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP412000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP412100</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP510000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP511000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP512000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP511100</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP511200</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP512100</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP512110</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP512120</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP512200</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP512210</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP512300</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP512310</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP512320</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>내용 수정</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>전반적</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>강다솜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP121100</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP121200</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>댓글, 대댓글 목록</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>SCCUP221100</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP221200</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1232,6 +1248,21 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1240,21 +1271,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2990,11 +3006,11 @@
       <c r="H2" s="28"/>
       <c r="I2" s="28"/>
       <c r="J2" s="28"/>
-      <c r="K2" s="72" t="str">
+      <c r="K2" s="77" t="str">
         <f>표지!B11</f>
         <v>메뉴구조도</v>
       </c>
-      <c r="L2" s="72"/>
+      <c r="L2" s="77"/>
       <c r="M2" s="29"/>
     </row>
     <row r="3" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -3014,19 +3030,19 @@
     </row>
     <row r="4" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="25"/>
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="78"/>
+      <c r="L4" s="78"/>
       <c r="M4" s="29"/>
     </row>
     <row r="5" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -3052,17 +3068,17 @@
       <c r="C6" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="74" t="s">
+      <c r="D6" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74" t="s">
+      <c r="E6" s="79"/>
+      <c r="F6" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="74"/>
-      <c r="H6" s="74"/>
-      <c r="I6" s="74"/>
-      <c r="J6" s="74"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
       <c r="K6" s="43" t="s">
         <v>3</v>
       </c>
@@ -3083,11 +3099,11 @@
         <v>21</v>
       </c>
       <c r="E7" s="76"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="78"/>
-      <c r="H7" s="78"/>
-      <c r="I7" s="78"/>
-      <c r="J7" s="79"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="73"/>
       <c r="K7" s="34" t="s">
         <v>46</v>
       </c>
@@ -3103,18 +3119,18 @@
         <v>45278</v>
       </c>
       <c r="D8" s="75" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E8" s="76"/>
-      <c r="F8" s="77" t="s">
-        <v>145</v>
-      </c>
-      <c r="G8" s="78"/>
-      <c r="H8" s="78"/>
-      <c r="I8" s="78"/>
-      <c r="J8" s="79"/>
+      <c r="F8" s="72" t="s">
+        <v>141</v>
+      </c>
+      <c r="G8" s="74"/>
+      <c r="H8" s="74"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="73"/>
       <c r="K8" s="34" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="L8" s="34"/>
       <c r="M8" s="29"/>
@@ -3123,13 +3139,13 @@
       <c r="A9" s="25"/>
       <c r="B9" s="34"/>
       <c r="C9" s="35"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="77"/>
-      <c r="G9" s="78"/>
-      <c r="H9" s="78"/>
-      <c r="I9" s="78"/>
-      <c r="J9" s="79"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="73"/>
       <c r="K9" s="34"/>
       <c r="L9" s="34"/>
       <c r="M9" s="29"/>
@@ -3138,13 +3154,13 @@
       <c r="A10" s="25"/>
       <c r="B10" s="34"/>
       <c r="C10" s="35"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="77"/>
-      <c r="G10" s="78"/>
-      <c r="H10" s="78"/>
-      <c r="I10" s="78"/>
-      <c r="J10" s="79"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="73"/>
       <c r="K10" s="34"/>
       <c r="L10" s="34"/>
       <c r="M10" s="29"/>
@@ -3153,13 +3169,13 @@
       <c r="A11" s="25"/>
       <c r="B11" s="34"/>
       <c r="C11" s="35"/>
-      <c r="D11" s="77"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="77"/>
-      <c r="G11" s="78"/>
-      <c r="H11" s="78"/>
-      <c r="I11" s="78"/>
-      <c r="J11" s="79"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="74"/>
+      <c r="I11" s="74"/>
+      <c r="J11" s="73"/>
       <c r="K11" s="34"/>
       <c r="L11" s="34"/>
       <c r="M11" s="29"/>
@@ -3168,13 +3184,13 @@
       <c r="A12" s="25"/>
       <c r="B12" s="36"/>
       <c r="C12" s="37"/>
-      <c r="D12" s="77"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="77"/>
-      <c r="G12" s="78"/>
-      <c r="H12" s="78"/>
-      <c r="I12" s="78"/>
-      <c r="J12" s="79"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="74"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="73"/>
       <c r="K12" s="36"/>
       <c r="L12" s="36"/>
       <c r="M12" s="29"/>
@@ -3183,13 +3199,13 @@
       <c r="A13" s="25"/>
       <c r="B13" s="36"/>
       <c r="C13" s="37"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="78"/>
-      <c r="H13" s="78"/>
-      <c r="I13" s="78"/>
-      <c r="J13" s="79"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="74"/>
+      <c r="J13" s="73"/>
       <c r="K13" s="36"/>
       <c r="L13" s="36"/>
       <c r="M13" s="29"/>
@@ -3198,13 +3214,13 @@
       <c r="A14" s="25"/>
       <c r="B14" s="36"/>
       <c r="C14" s="37"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="77"/>
-      <c r="G14" s="78"/>
-      <c r="H14" s="78"/>
-      <c r="I14" s="78"/>
-      <c r="J14" s="79"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="74"/>
+      <c r="I14" s="74"/>
+      <c r="J14" s="73"/>
       <c r="K14" s="36"/>
       <c r="L14" s="36"/>
       <c r="M14" s="29"/>
@@ -3213,13 +3229,13 @@
       <c r="A15" s="25"/>
       <c r="B15" s="36"/>
       <c r="C15" s="37"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="78"/>
-      <c r="H15" s="78"/>
-      <c r="I15" s="78"/>
-      <c r="J15" s="79"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="74"/>
+      <c r="I15" s="74"/>
+      <c r="J15" s="73"/>
       <c r="K15" s="36"/>
       <c r="L15" s="36"/>
       <c r="M15" s="29"/>
@@ -3228,13 +3244,13 @@
       <c r="A16" s="25"/>
       <c r="B16" s="36"/>
       <c r="C16" s="37"/>
-      <c r="D16" s="77"/>
-      <c r="E16" s="79"/>
-      <c r="F16" s="77"/>
-      <c r="G16" s="78"/>
-      <c r="H16" s="78"/>
-      <c r="I16" s="78"/>
-      <c r="J16" s="79"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="74"/>
+      <c r="I16" s="74"/>
+      <c r="J16" s="73"/>
       <c r="K16" s="36"/>
       <c r="L16" s="36"/>
       <c r="M16" s="29"/>
@@ -3243,13 +3259,13 @@
       <c r="A17" s="25"/>
       <c r="B17" s="34"/>
       <c r="C17" s="35"/>
-      <c r="D17" s="77"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="77"/>
-      <c r="G17" s="78"/>
-      <c r="H17" s="78"/>
-      <c r="I17" s="78"/>
-      <c r="J17" s="79"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="74"/>
+      <c r="I17" s="74"/>
+      <c r="J17" s="73"/>
       <c r="K17" s="34"/>
       <c r="L17" s="34"/>
       <c r="M17" s="29"/>
@@ -3258,13 +3274,13 @@
       <c r="A18" s="25"/>
       <c r="B18" s="34"/>
       <c r="C18" s="35"/>
-      <c r="D18" s="77"/>
-      <c r="E18" s="79"/>
-      <c r="F18" s="77"/>
-      <c r="G18" s="78"/>
-      <c r="H18" s="78"/>
-      <c r="I18" s="78"/>
-      <c r="J18" s="79"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="74"/>
+      <c r="I18" s="74"/>
+      <c r="J18" s="73"/>
       <c r="K18" s="34"/>
       <c r="L18" s="34"/>
       <c r="M18" s="29"/>
@@ -3273,13 +3289,13 @@
       <c r="A19" s="25"/>
       <c r="B19" s="34"/>
       <c r="C19" s="35"/>
-      <c r="D19" s="77"/>
-      <c r="E19" s="79"/>
-      <c r="F19" s="77"/>
-      <c r="G19" s="78"/>
-      <c r="H19" s="78"/>
-      <c r="I19" s="78"/>
-      <c r="J19" s="79"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="74"/>
+      <c r="H19" s="74"/>
+      <c r="I19" s="74"/>
+      <c r="J19" s="73"/>
       <c r="K19" s="34"/>
       <c r="L19" s="34"/>
       <c r="M19" s="29"/>
@@ -3288,13 +3304,13 @@
       <c r="A20" s="25"/>
       <c r="B20" s="34"/>
       <c r="C20" s="35"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="77"/>
-      <c r="G20" s="78"/>
-      <c r="H20" s="78"/>
-      <c r="I20" s="78"/>
-      <c r="J20" s="79"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="74"/>
+      <c r="I20" s="74"/>
+      <c r="J20" s="73"/>
       <c r="K20" s="34"/>
       <c r="L20" s="34"/>
       <c r="M20" s="29"/>
@@ -3303,13 +3319,13 @@
       <c r="A21" s="25"/>
       <c r="B21" s="34"/>
       <c r="C21" s="35"/>
-      <c r="D21" s="77"/>
-      <c r="E21" s="79"/>
-      <c r="F21" s="77"/>
-      <c r="G21" s="78"/>
-      <c r="H21" s="78"/>
-      <c r="I21" s="78"/>
-      <c r="J21" s="79"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="74"/>
+      <c r="H21" s="74"/>
+      <c r="I21" s="74"/>
+      <c r="J21" s="73"/>
       <c r="K21" s="34"/>
       <c r="L21" s="34"/>
       <c r="M21" s="29"/>
@@ -3318,13 +3334,13 @@
       <c r="A22" s="25"/>
       <c r="B22" s="34"/>
       <c r="C22" s="35"/>
-      <c r="D22" s="77"/>
-      <c r="E22" s="79"/>
-      <c r="F22" s="77"/>
-      <c r="G22" s="78"/>
-      <c r="H22" s="78"/>
-      <c r="I22" s="78"/>
-      <c r="J22" s="79"/>
+      <c r="D22" s="72"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="74"/>
+      <c r="I22" s="74"/>
+      <c r="J22" s="73"/>
       <c r="K22" s="34"/>
       <c r="L22" s="34"/>
       <c r="M22" s="29"/>
@@ -3333,13 +3349,13 @@
       <c r="A23" s="25"/>
       <c r="B23" s="34"/>
       <c r="C23" s="35"/>
-      <c r="D23" s="77"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="77"/>
-      <c r="G23" s="78"/>
-      <c r="H23" s="78"/>
-      <c r="I23" s="78"/>
-      <c r="J23" s="79"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="74"/>
+      <c r="I23" s="74"/>
+      <c r="J23" s="73"/>
       <c r="K23" s="34"/>
       <c r="L23" s="34"/>
       <c r="M23" s="29"/>
@@ -3348,13 +3364,13 @@
       <c r="A24" s="25"/>
       <c r="B24" s="34"/>
       <c r="C24" s="35"/>
-      <c r="D24" s="77"/>
-      <c r="E24" s="79"/>
-      <c r="F24" s="77"/>
-      <c r="G24" s="78"/>
-      <c r="H24" s="78"/>
-      <c r="I24" s="78"/>
-      <c r="J24" s="79"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="74"/>
+      <c r="I24" s="74"/>
+      <c r="J24" s="73"/>
       <c r="K24" s="34"/>
       <c r="L24" s="34"/>
       <c r="M24" s="29"/>
@@ -3436,6 +3452,36 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="B4:L4"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:J7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:J19"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="F23:J23"/>
     <mergeCell ref="D24:E24"/>
@@ -3446,36 +3492,6 @@
     <mergeCell ref="F21:J21"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="F22:J22"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:J17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:J18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:J19"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:J14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:J15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:J11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:J8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:J10"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="B4:L4"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:J7"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -3489,10 +3505,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q71"/>
+  <dimension ref="A1:Q73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R45" sqref="R45"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -3878,7 +3894,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="47" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B16" s="48"/>
       <c r="C16" s="49"/>
@@ -3903,7 +3919,7 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="47" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B17" s="48"/>
       <c r="C17" s="49"/>
@@ -3963,7 +3979,7 @@
         <v>1</v>
       </c>
       <c r="G19" s="50" t="s">
-        <v>61</v>
+        <v>146</v>
       </c>
       <c r="H19" s="55"/>
       <c r="I19" s="61"/>
@@ -3990,7 +4006,7 @@
         <v>1</v>
       </c>
       <c r="I20" s="61" t="s">
-        <v>62</v>
+        <v>147</v>
       </c>
       <c r="J20" s="48"/>
       <c r="K20" s="53"/>
@@ -4003,22 +4019,22 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="47" t="s">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="B21" s="48"/>
       <c r="C21" s="49"/>
       <c r="D21" s="48"/>
       <c r="E21" s="50"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="50"/>
+      <c r="F21" s="48">
+        <v>2</v>
+      </c>
+      <c r="G21" s="50" t="s">
+        <v>61</v>
+      </c>
       <c r="H21" s="55"/>
       <c r="I21" s="61"/>
-      <c r="J21" s="48">
-        <v>1</v>
-      </c>
-      <c r="K21" s="53" t="s">
-        <v>61</v>
-      </c>
+      <c r="J21" s="48"/>
+      <c r="K21" s="53"/>
       <c r="L21" s="48"/>
       <c r="M21" s="53"/>
       <c r="N21" s="48"/>
@@ -4028,7 +4044,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="47" t="s">
-        <v>96</v>
+        <v>151</v>
       </c>
       <c r="B22" s="48"/>
       <c r="C22" s="49"/>
@@ -4036,14 +4052,14 @@
       <c r="E22" s="50"/>
       <c r="F22" s="48"/>
       <c r="G22" s="50"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="61"/>
-      <c r="J22" s="48">
-        <v>2</v>
-      </c>
-      <c r="K22" s="53" t="s">
-        <v>64</v>
-      </c>
+      <c r="H22" s="55">
+        <v>1</v>
+      </c>
+      <c r="I22" s="61" t="s">
+        <v>62</v>
+      </c>
+      <c r="J22" s="48"/>
+      <c r="K22" s="53"/>
       <c r="L22" s="48"/>
       <c r="M22" s="53"/>
       <c r="N22" s="48"/>
@@ -4053,22 +4069,22 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="47" t="s">
-        <v>98</v>
+        <v>152</v>
       </c>
       <c r="B23" s="48"/>
       <c r="C23" s="49"/>
       <c r="D23" s="48"/>
       <c r="E23" s="50"/>
-      <c r="F23" s="48">
-        <v>2</v>
-      </c>
-      <c r="G23" s="50" t="s">
-        <v>65</v>
-      </c>
+      <c r="F23" s="48"/>
+      <c r="G23" s="50"/>
       <c r="H23" s="55"/>
       <c r="I23" s="61"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="53"/>
+      <c r="J23" s="48">
+        <v>1</v>
+      </c>
+      <c r="K23" s="53" t="s">
+        <v>61</v>
+      </c>
       <c r="L23" s="48"/>
       <c r="M23" s="53"/>
       <c r="N23" s="48"/>
@@ -4078,7 +4094,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="47" t="s">
-        <v>97</v>
+        <v>153</v>
       </c>
       <c r="B24" s="48"/>
       <c r="C24" s="49"/>
@@ -4086,14 +4102,14 @@
       <c r="E24" s="50"/>
       <c r="F24" s="48"/>
       <c r="G24" s="50"/>
-      <c r="H24" s="55">
-        <v>1</v>
-      </c>
-      <c r="I24" s="61" t="s">
-        <v>67</v>
-      </c>
-      <c r="J24" s="48"/>
-      <c r="K24" s="53"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="61"/>
+      <c r="J24" s="48">
+        <v>2</v>
+      </c>
+      <c r="K24" s="53" t="s">
+        <v>64</v>
+      </c>
       <c r="L24" s="48"/>
       <c r="M24" s="53"/>
       <c r="N24" s="48"/>
@@ -4103,18 +4119,18 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="47" t="s">
-        <v>99</v>
+        <v>148</v>
       </c>
       <c r="B25" s="48"/>
       <c r="C25" s="49"/>
-      <c r="D25" s="48">
+      <c r="D25" s="48"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="48">
         <v>3</v>
       </c>
-      <c r="E25" s="50" t="s">
-        <v>68</v>
-      </c>
-      <c r="F25" s="48"/>
-      <c r="G25" s="50"/>
+      <c r="G25" s="50" t="s">
+        <v>65</v>
+      </c>
       <c r="H25" s="55"/>
       <c r="I25" s="61"/>
       <c r="J25" s="48"/>
@@ -4128,20 +4144,20 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="47" t="s">
-        <v>100</v>
+        <v>149</v>
       </c>
       <c r="B26" s="48"/>
       <c r="C26" s="49"/>
       <c r="D26" s="48"/>
       <c r="E26" s="50"/>
-      <c r="F26" s="48">
+      <c r="F26" s="48"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="55">
         <v>1</v>
       </c>
-      <c r="G26" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="H26" s="55"/>
-      <c r="I26" s="61"/>
+      <c r="I26" s="61" t="s">
+        <v>67</v>
+      </c>
       <c r="J26" s="48"/>
       <c r="K26" s="53"/>
       <c r="L26" s="48"/>
@@ -4153,20 +4169,20 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="47" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B27" s="48"/>
       <c r="C27" s="49"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="50"/>
+      <c r="D27" s="48">
+        <v>3</v>
+      </c>
+      <c r="E27" s="50" t="s">
+        <v>68</v>
+      </c>
       <c r="F27" s="48"/>
       <c r="G27" s="50"/>
-      <c r="H27" s="55">
-        <v>1</v>
-      </c>
-      <c r="I27" s="61" t="s">
-        <v>33</v>
-      </c>
+      <c r="H27" s="55"/>
+      <c r="I27" s="61"/>
       <c r="J27" s="48"/>
       <c r="K27" s="53"/>
       <c r="L27" s="48"/>
@@ -4178,22 +4194,22 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="47" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B28" s="48"/>
       <c r="C28" s="49"/>
       <c r="D28" s="48"/>
       <c r="E28" s="50"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="50"/>
+      <c r="F28" s="48">
+        <v>1</v>
+      </c>
+      <c r="G28" s="50" t="s">
+        <v>57</v>
+      </c>
       <c r="H28" s="55"/>
       <c r="I28" s="61"/>
-      <c r="J28" s="48">
-        <v>1</v>
-      </c>
-      <c r="K28" s="53" t="s">
-        <v>58</v>
-      </c>
+      <c r="J28" s="48"/>
+      <c r="K28" s="53"/>
       <c r="L28" s="48"/>
       <c r="M28" s="53"/>
       <c r="N28" s="48"/>
@@ -4202,21 +4218,21 @@
       <c r="Q28" s="52"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="58" t="s">
-        <v>103</v>
+      <c r="A29" s="47" t="s">
+        <v>97</v>
       </c>
       <c r="B29" s="48"/>
       <c r="C29" s="49"/>
       <c r="D29" s="48"/>
       <c r="E29" s="50"/>
-      <c r="F29" s="48">
-        <v>2</v>
-      </c>
-      <c r="G29" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="H29" s="55"/>
-      <c r="I29" s="61"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="55">
+        <v>1</v>
+      </c>
+      <c r="I29" s="61" t="s">
+        <v>33</v>
+      </c>
       <c r="J29" s="48"/>
       <c r="K29" s="53"/>
       <c r="L29" s="48"/>
@@ -4227,8 +4243,8 @@
       <c r="Q29" s="52"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="58" t="s">
-        <v>104</v>
+      <c r="A30" s="47" t="s">
+        <v>98</v>
       </c>
       <c r="B30" s="48"/>
       <c r="C30" s="49"/>
@@ -4236,14 +4252,14 @@
       <c r="E30" s="50"/>
       <c r="F30" s="48"/>
       <c r="G30" s="50"/>
-      <c r="H30" s="55">
+      <c r="H30" s="55"/>
+      <c r="I30" s="61"/>
+      <c r="J30" s="48">
         <v>1</v>
       </c>
-      <c r="I30" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="J30" s="48"/>
-      <c r="K30" s="53"/>
+      <c r="K30" s="53" t="s">
+        <v>58</v>
+      </c>
       <c r="L30" s="48"/>
       <c r="M30" s="53"/>
       <c r="N30" s="48"/>
@@ -4253,22 +4269,22 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="58" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B31" s="48"/>
       <c r="C31" s="49"/>
       <c r="D31" s="48"/>
       <c r="E31" s="50"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="50"/>
+      <c r="F31" s="48">
+        <v>2</v>
+      </c>
+      <c r="G31" s="50" t="s">
+        <v>23</v>
+      </c>
       <c r="H31" s="55"/>
       <c r="I31" s="61"/>
-      <c r="J31" s="48">
-        <v>1</v>
-      </c>
-      <c r="K31" s="53" t="s">
-        <v>32</v>
-      </c>
+      <c r="J31" s="48"/>
+      <c r="K31" s="53"/>
       <c r="L31" s="48"/>
       <c r="M31" s="53"/>
       <c r="N31" s="48"/>
@@ -4278,20 +4294,20 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="58" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B32" s="48"/>
       <c r="C32" s="49"/>
       <c r="D32" s="48"/>
       <c r="E32" s="50"/>
-      <c r="F32" s="48">
-        <v>3</v>
-      </c>
-      <c r="G32" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="H32" s="55"/>
-      <c r="I32" s="61"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="55">
+        <v>1</v>
+      </c>
+      <c r="I32" s="61" t="s">
+        <v>31</v>
+      </c>
       <c r="J32" s="48"/>
       <c r="K32" s="53"/>
       <c r="L32" s="48"/>
@@ -4303,7 +4319,7 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="58" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B33" s="48"/>
       <c r="C33" s="49"/>
@@ -4311,14 +4327,14 @@
       <c r="E33" s="50"/>
       <c r="F33" s="48"/>
       <c r="G33" s="50"/>
-      <c r="H33" s="55">
+      <c r="H33" s="55"/>
+      <c r="I33" s="61"/>
+      <c r="J33" s="48">
         <v>1</v>
       </c>
-      <c r="I33" s="61" t="s">
-        <v>34</v>
-      </c>
-      <c r="J33" s="48"/>
-      <c r="K33" s="53"/>
+      <c r="K33" s="53" t="s">
+        <v>32</v>
+      </c>
       <c r="L33" s="48"/>
       <c r="M33" s="53"/>
       <c r="N33" s="48"/>
@@ -4328,22 +4344,22 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="58" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B34" s="48"/>
       <c r="C34" s="49"/>
       <c r="D34" s="48"/>
       <c r="E34" s="50"/>
-      <c r="F34" s="48"/>
-      <c r="G34" s="50"/>
+      <c r="F34" s="48">
+        <v>3</v>
+      </c>
+      <c r="G34" s="50" t="s">
+        <v>24</v>
+      </c>
       <c r="H34" s="55"/>
       <c r="I34" s="61"/>
-      <c r="J34" s="48">
-        <v>1</v>
-      </c>
-      <c r="K34" s="53" t="s">
-        <v>35</v>
-      </c>
+      <c r="J34" s="48"/>
+      <c r="K34" s="53"/>
       <c r="L34" s="48"/>
       <c r="M34" s="53"/>
       <c r="N34" s="48"/>
@@ -4353,20 +4369,20 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="58" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B35" s="48"/>
       <c r="C35" s="49"/>
       <c r="D35" s="48"/>
       <c r="E35" s="50"/>
-      <c r="F35" s="48">
-        <v>4</v>
-      </c>
-      <c r="G35" s="50" t="s">
-        <v>25</v>
-      </c>
-      <c r="H35" s="55"/>
-      <c r="I35" s="61"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="55">
+        <v>1</v>
+      </c>
+      <c r="I35" s="61" t="s">
+        <v>34</v>
+      </c>
       <c r="J35" s="48"/>
       <c r="K35" s="53"/>
       <c r="L35" s="48"/>
@@ -4378,7 +4394,7 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="58" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B36" s="48"/>
       <c r="C36" s="49"/>
@@ -4386,14 +4402,14 @@
       <c r="E36" s="50"/>
       <c r="F36" s="48"/>
       <c r="G36" s="50"/>
-      <c r="H36" s="55">
+      <c r="H36" s="55"/>
+      <c r="I36" s="61"/>
+      <c r="J36" s="48">
         <v>1</v>
       </c>
-      <c r="I36" s="61" t="s">
-        <v>36</v>
-      </c>
-      <c r="J36" s="48"/>
-      <c r="K36" s="53"/>
+      <c r="K36" s="53" t="s">
+        <v>35</v>
+      </c>
       <c r="L36" s="48"/>
       <c r="M36" s="53"/>
       <c r="N36" s="48"/>
@@ -4403,22 +4419,22 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="58" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B37" s="48"/>
       <c r="C37" s="49"/>
       <c r="D37" s="48"/>
       <c r="E37" s="50"/>
-      <c r="F37" s="48"/>
-      <c r="G37" s="50"/>
+      <c r="F37" s="48">
+        <v>4</v>
+      </c>
+      <c r="G37" s="50" t="s">
+        <v>25</v>
+      </c>
       <c r="H37" s="55"/>
       <c r="I37" s="61"/>
-      <c r="J37" s="48">
-        <v>1</v>
-      </c>
-      <c r="K37" s="53" t="s">
-        <v>37</v>
-      </c>
+      <c r="J37" s="48"/>
+      <c r="K37" s="53"/>
       <c r="L37" s="48"/>
       <c r="M37" s="53"/>
       <c r="N37" s="48"/>
@@ -4428,7 +4444,7 @@
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="58" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B38" s="48"/>
       <c r="C38" s="49"/>
@@ -4436,14 +4452,14 @@
       <c r="E38" s="50"/>
       <c r="F38" s="48"/>
       <c r="G38" s="50"/>
-      <c r="H38" s="55"/>
-      <c r="I38" s="61"/>
-      <c r="J38" s="48">
-        <v>2</v>
-      </c>
-      <c r="K38" s="53" t="s">
-        <v>149</v>
-      </c>
+      <c r="H38" s="55">
+        <v>1</v>
+      </c>
+      <c r="I38" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="J38" s="48"/>
+      <c r="K38" s="53"/>
       <c r="L38" s="48"/>
       <c r="M38" s="53"/>
       <c r="N38" s="48"/>
@@ -4453,22 +4469,22 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="58" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B39" s="48"/>
       <c r="C39" s="49"/>
       <c r="D39" s="48"/>
       <c r="E39" s="50"/>
-      <c r="F39" s="48">
-        <v>5</v>
-      </c>
-      <c r="G39" s="50" t="s">
-        <v>69</v>
-      </c>
+      <c r="F39" s="48"/>
+      <c r="G39" s="50"/>
       <c r="H39" s="55"/>
       <c r="I39" s="61"/>
-      <c r="J39" s="48"/>
-      <c r="K39" s="53"/>
+      <c r="J39" s="48">
+        <v>1</v>
+      </c>
+      <c r="K39" s="53" t="s">
+        <v>37</v>
+      </c>
       <c r="L39" s="48"/>
       <c r="M39" s="53"/>
       <c r="N39" s="48"/>
@@ -4478,22 +4494,22 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="58" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B40" s="48"/>
       <c r="C40" s="49"/>
       <c r="D40" s="48"/>
       <c r="E40" s="50"/>
-      <c r="F40" s="56"/>
-      <c r="G40" s="57"/>
-      <c r="H40" s="48">
-        <v>1</v>
-      </c>
-      <c r="I40" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="J40" s="55"/>
-      <c r="K40" s="61"/>
+      <c r="F40" s="48"/>
+      <c r="G40" s="50"/>
+      <c r="H40" s="55"/>
+      <c r="I40" s="61"/>
+      <c r="J40" s="48">
+        <v>2</v>
+      </c>
+      <c r="K40" s="53" t="s">
+        <v>145</v>
+      </c>
       <c r="L40" s="48"/>
       <c r="M40" s="53"/>
       <c r="N40" s="48"/>
@@ -4503,22 +4519,22 @@
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="58" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B41" s="48"/>
       <c r="C41" s="49"/>
       <c r="D41" s="48"/>
       <c r="E41" s="50"/>
-      <c r="F41" s="56"/>
-      <c r="G41" s="57"/>
-      <c r="H41" s="48"/>
-      <c r="I41" s="53"/>
-      <c r="J41" s="55">
-        <v>1</v>
-      </c>
-      <c r="K41" s="61" t="s">
-        <v>49</v>
-      </c>
+      <c r="F41" s="48">
+        <v>5</v>
+      </c>
+      <c r="G41" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="H41" s="55"/>
+      <c r="I41" s="61"/>
+      <c r="J41" s="48"/>
+      <c r="K41" s="53"/>
       <c r="L41" s="48"/>
       <c r="M41" s="53"/>
       <c r="N41" s="48"/>
@@ -4528,22 +4544,22 @@
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="58" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B42" s="48"/>
       <c r="C42" s="49"/>
       <c r="D42" s="48"/>
       <c r="E42" s="50"/>
-      <c r="F42" s="48">
-        <v>6</v>
-      </c>
-      <c r="G42" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="H42" s="48"/>
-      <c r="I42" s="53"/>
-      <c r="J42" s="57"/>
-      <c r="K42" s="63"/>
+      <c r="F42" s="56"/>
+      <c r="G42" s="57"/>
+      <c r="H42" s="48">
+        <v>1</v>
+      </c>
+      <c r="I42" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="J42" s="55"/>
+      <c r="K42" s="61"/>
       <c r="L42" s="48"/>
       <c r="M42" s="53"/>
       <c r="N42" s="48"/>
@@ -4553,22 +4569,22 @@
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="58" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B43" s="48"/>
       <c r="C43" s="49"/>
       <c r="D43" s="48"/>
       <c r="E43" s="50"/>
-      <c r="F43" s="48"/>
-      <c r="G43" s="50"/>
-      <c r="H43" s="48">
+      <c r="F43" s="56"/>
+      <c r="G43" s="57"/>
+      <c r="H43" s="48"/>
+      <c r="I43" s="53"/>
+      <c r="J43" s="55">
         <v>1</v>
       </c>
-      <c r="I43" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="J43" s="57"/>
-      <c r="K43" s="63"/>
+      <c r="K43" s="61" t="s">
+        <v>49</v>
+      </c>
       <c r="L43" s="48"/>
       <c r="M43" s="53"/>
       <c r="N43" s="48"/>
@@ -4578,17 +4594,17 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="58" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B44" s="48"/>
       <c r="C44" s="49"/>
-      <c r="D44" s="56"/>
-      <c r="E44" s="57"/>
+      <c r="D44" s="48"/>
+      <c r="E44" s="50"/>
       <c r="F44" s="48">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G44" s="50" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H44" s="48"/>
       <c r="I44" s="53"/>
@@ -4598,24 +4614,24 @@
       <c r="M44" s="53"/>
       <c r="N44" s="48"/>
       <c r="O44" s="50"/>
-      <c r="P44" s="53"/>
-      <c r="Q44" s="50"/>
+      <c r="P44" s="51"/>
+      <c r="Q44" s="52"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="58" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B45" s="48"/>
       <c r="C45" s="49"/>
-      <c r="D45" s="56"/>
-      <c r="E45" s="57"/>
+      <c r="D45" s="48"/>
+      <c r="E45" s="50"/>
       <c r="F45" s="48"/>
       <c r="G45" s="50"/>
       <c r="H45" s="48">
         <v>1</v>
       </c>
       <c r="I45" s="53" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J45" s="57"/>
       <c r="K45" s="63"/>
@@ -4628,47 +4644,47 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="58" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B46" s="48"/>
       <c r="C46" s="49"/>
       <c r="D46" s="56"/>
       <c r="E46" s="57"/>
-      <c r="F46" s="48"/>
-      <c r="G46" s="50"/>
-      <c r="H46" s="48">
-        <v>2</v>
-      </c>
-      <c r="I46" s="53" t="s">
-        <v>30</v>
-      </c>
+      <c r="F46" s="48">
+        <v>7</v>
+      </c>
+      <c r="G46" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="H46" s="48"/>
+      <c r="I46" s="53"/>
       <c r="J46" s="57"/>
       <c r="K46" s="63"/>
       <c r="L46" s="48"/>
       <c r="M46" s="53"/>
       <c r="N46" s="48"/>
       <c r="O46" s="50"/>
-      <c r="P46" s="51"/>
-      <c r="Q46" s="52"/>
+      <c r="P46" s="53"/>
+      <c r="Q46" s="50"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="58" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B47" s="48"/>
       <c r="C47" s="49"/>
       <c r="D47" s="56"/>
       <c r="E47" s="57"/>
-      <c r="F47" s="48">
-        <v>8</v>
-      </c>
-      <c r="G47" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="H47" s="48"/>
-      <c r="I47" s="62"/>
-      <c r="J47" s="55"/>
-      <c r="K47" s="61"/>
+      <c r="F47" s="48"/>
+      <c r="G47" s="50"/>
+      <c r="H47" s="48">
+        <v>1</v>
+      </c>
+      <c r="I47" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="J47" s="57"/>
+      <c r="K47" s="63"/>
       <c r="L47" s="48"/>
       <c r="M47" s="53"/>
       <c r="N47" s="48"/>
@@ -4678,7 +4694,7 @@
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="58" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B48" s="48"/>
       <c r="C48" s="49"/>
@@ -4687,13 +4703,13 @@
       <c r="F48" s="48"/>
       <c r="G48" s="50"/>
       <c r="H48" s="48">
-        <v>1</v>
-      </c>
-      <c r="I48" s="62" t="s">
-        <v>45</v>
-      </c>
-      <c r="J48" s="55"/>
-      <c r="K48" s="61"/>
+        <v>2</v>
+      </c>
+      <c r="I48" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="J48" s="57"/>
+      <c r="K48" s="63"/>
       <c r="L48" s="48"/>
       <c r="M48" s="53"/>
       <c r="N48" s="48"/>
@@ -4703,22 +4719,22 @@
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="58" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B49" s="48"/>
       <c r="C49" s="49"/>
       <c r="D49" s="56"/>
       <c r="E49" s="57"/>
-      <c r="F49" s="48"/>
-      <c r="G49" s="50"/>
+      <c r="F49" s="48">
+        <v>8</v>
+      </c>
+      <c r="G49" s="50" t="s">
+        <v>50</v>
+      </c>
       <c r="H49" s="48"/>
       <c r="I49" s="62"/>
-      <c r="J49" s="55">
-        <v>1</v>
-      </c>
-      <c r="K49" s="61" t="s">
-        <v>43</v>
-      </c>
+      <c r="J49" s="55"/>
+      <c r="K49" s="61"/>
       <c r="L49" s="48"/>
       <c r="M49" s="53"/>
       <c r="N49" s="48"/>
@@ -4728,7 +4744,7 @@
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="58" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B50" s="48"/>
       <c r="C50" s="49"/>
@@ -4737,10 +4753,10 @@
       <c r="F50" s="48"/>
       <c r="G50" s="50"/>
       <c r="H50" s="48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I50" s="62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J50" s="55"/>
       <c r="K50" s="61"/>
@@ -4753,7 +4769,7 @@
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="58" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B51" s="48"/>
       <c r="C51" s="49"/>
@@ -4767,7 +4783,7 @@
         <v>1</v>
       </c>
       <c r="K51" s="61" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="L51" s="48"/>
       <c r="M51" s="53"/>
@@ -4778,20 +4794,20 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="58" t="s">
-        <v>41</v>
+        <v>120</v>
       </c>
       <c r="B52" s="48"/>
       <c r="C52" s="49"/>
-      <c r="D52" s="56">
-        <v>4</v>
-      </c>
-      <c r="E52" s="59" t="s">
-        <v>75</v>
-      </c>
+      <c r="D52" s="56"/>
+      <c r="E52" s="57"/>
       <c r="F52" s="48"/>
       <c r="G52" s="50"/>
-      <c r="H52" s="48"/>
-      <c r="I52" s="62"/>
+      <c r="H52" s="48">
+        <v>2</v>
+      </c>
+      <c r="I52" s="62" t="s">
+        <v>44</v>
+      </c>
       <c r="J52" s="55"/>
       <c r="K52" s="61"/>
       <c r="L52" s="48"/>
@@ -4803,72 +4819,72 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="58" t="s">
-        <v>126</v>
-      </c>
-      <c r="B53" s="57"/>
-      <c r="C53" s="57"/>
+        <v>121</v>
+      </c>
+      <c r="B53" s="48"/>
+      <c r="C53" s="49"/>
       <c r="D53" s="56"/>
       <c r="E53" s="57"/>
-      <c r="F53" s="48">
+      <c r="F53" s="48"/>
+      <c r="G53" s="50"/>
+      <c r="H53" s="48"/>
+      <c r="I53" s="62"/>
+      <c r="J53" s="55">
         <v>1</v>
       </c>
-      <c r="G53" s="50" t="s">
-        <v>71</v>
-      </c>
-      <c r="H53" s="55"/>
-      <c r="I53" s="61"/>
-      <c r="J53" s="48"/>
-      <c r="K53" s="53"/>
-      <c r="L53" s="57"/>
-      <c r="M53" s="63"/>
-      <c r="N53" s="57"/>
-      <c r="O53" s="57"/>
-      <c r="P53" s="57"/>
-      <c r="Q53" s="57"/>
+      <c r="K53" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="L53" s="48"/>
+      <c r="M53" s="53"/>
+      <c r="N53" s="48"/>
+      <c r="O53" s="50"/>
+      <c r="P53" s="51"/>
+      <c r="Q53" s="52"/>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="58" t="s">
-        <v>127</v>
-      </c>
-      <c r="B54" s="57"/>
-      <c r="C54" s="57"/>
-      <c r="D54" s="56"/>
-      <c r="E54" s="57"/>
+        <v>41</v>
+      </c>
+      <c r="B54" s="48"/>
+      <c r="C54" s="49"/>
+      <c r="D54" s="56">
+        <v>4</v>
+      </c>
+      <c r="E54" s="59" t="s">
+        <v>75</v>
+      </c>
       <c r="F54" s="48"/>
       <c r="G54" s="50"/>
-      <c r="H54" s="55">
-        <v>1</v>
-      </c>
-      <c r="I54" s="61" t="s">
-        <v>72</v>
-      </c>
-      <c r="J54" s="48"/>
-      <c r="K54" s="53"/>
-      <c r="L54" s="57"/>
-      <c r="M54" s="63"/>
-      <c r="N54" s="57"/>
-      <c r="O54" s="57"/>
-      <c r="P54" s="57"/>
-      <c r="Q54" s="57"/>
+      <c r="H54" s="48"/>
+      <c r="I54" s="62"/>
+      <c r="J54" s="55"/>
+      <c r="K54" s="61"/>
+      <c r="L54" s="48"/>
+      <c r="M54" s="53"/>
+      <c r="N54" s="48"/>
+      <c r="O54" s="50"/>
+      <c r="P54" s="51"/>
+      <c r="Q54" s="52"/>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="58" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B55" s="57"/>
       <c r="C55" s="57"/>
       <c r="D55" s="56"/>
       <c r="E55" s="57"/>
-      <c r="F55" s="48"/>
-      <c r="G55" s="50"/>
+      <c r="F55" s="48">
+        <v>1</v>
+      </c>
+      <c r="G55" s="50" t="s">
+        <v>71</v>
+      </c>
       <c r="H55" s="55"/>
       <c r="I55" s="61"/>
-      <c r="J55" s="48">
-        <v>1</v>
-      </c>
-      <c r="K55" s="53" t="s">
-        <v>73</v>
-      </c>
+      <c r="J55" s="48"/>
+      <c r="K55" s="53"/>
       <c r="L55" s="57"/>
       <c r="M55" s="63"/>
       <c r="N55" s="57"/>
@@ -4878,7 +4894,7 @@
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="58" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B56" s="57"/>
       <c r="C56" s="57"/>
@@ -4887,10 +4903,10 @@
       <c r="F56" s="48"/>
       <c r="G56" s="50"/>
       <c r="H56" s="55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I56" s="61" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J56" s="48"/>
       <c r="K56" s="53"/>
@@ -4903,7 +4919,7 @@
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="58" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B57" s="57"/>
       <c r="C57" s="57"/>
@@ -4928,22 +4944,22 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="58" t="s">
-        <v>42</v>
+        <v>125</v>
       </c>
       <c r="B58" s="57"/>
       <c r="C58" s="57"/>
-      <c r="D58" s="56">
-        <v>5</v>
-      </c>
-      <c r="E58" s="60" t="s">
-        <v>86</v>
-      </c>
+      <c r="D58" s="56"/>
+      <c r="E58" s="57"/>
       <c r="F58" s="48"/>
       <c r="G58" s="50"/>
-      <c r="H58" s="48"/>
-      <c r="I58" s="62"/>
-      <c r="J58" s="55"/>
-      <c r="K58" s="61"/>
+      <c r="H58" s="55">
+        <v>2</v>
+      </c>
+      <c r="I58" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="J58" s="48"/>
+      <c r="K58" s="53"/>
       <c r="L58" s="57"/>
       <c r="M58" s="63"/>
       <c r="N58" s="57"/>
@@ -4953,22 +4969,22 @@
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="58" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B59" s="57"/>
       <c r="C59" s="57"/>
       <c r="D59" s="56"/>
       <c r="E59" s="57"/>
-      <c r="F59" s="48">
-        <v>1</v>
-      </c>
-      <c r="G59" s="50" t="s">
-        <v>71</v>
-      </c>
+      <c r="F59" s="48"/>
+      <c r="G59" s="50"/>
       <c r="H59" s="55"/>
       <c r="I59" s="61"/>
-      <c r="J59" s="48"/>
-      <c r="K59" s="53"/>
+      <c r="J59" s="48">
+        <v>1</v>
+      </c>
+      <c r="K59" s="53" t="s">
+        <v>73</v>
+      </c>
       <c r="L59" s="57"/>
       <c r="M59" s="63"/>
       <c r="N59" s="57"/>
@@ -4978,22 +4994,22 @@
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="58" t="s">
-        <v>132</v>
+        <v>42</v>
       </c>
       <c r="B60" s="57"/>
       <c r="C60" s="57"/>
-      <c r="D60" s="56"/>
-      <c r="E60" s="57"/>
+      <c r="D60" s="56">
+        <v>5</v>
+      </c>
+      <c r="E60" s="60" t="s">
+        <v>86</v>
+      </c>
       <c r="F60" s="48"/>
       <c r="G60" s="50"/>
-      <c r="H60" s="55">
-        <v>1</v>
-      </c>
-      <c r="I60" s="61" t="s">
-        <v>72</v>
-      </c>
-      <c r="J60" s="48"/>
-      <c r="K60" s="53"/>
+      <c r="H60" s="48"/>
+      <c r="I60" s="62"/>
+      <c r="J60" s="55"/>
+      <c r="K60" s="61"/>
       <c r="L60" s="57"/>
       <c r="M60" s="63"/>
       <c r="N60" s="57"/>
@@ -5003,22 +5019,22 @@
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="58" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B61" s="57"/>
       <c r="C61" s="57"/>
       <c r="D61" s="56"/>
       <c r="E61" s="57"/>
-      <c r="F61" s="48"/>
-      <c r="G61" s="50"/>
+      <c r="F61" s="48">
+        <v>1</v>
+      </c>
+      <c r="G61" s="50" t="s">
+        <v>71</v>
+      </c>
       <c r="H61" s="55"/>
       <c r="I61" s="61"/>
-      <c r="J61" s="48">
-        <v>1</v>
-      </c>
-      <c r="K61" s="53" t="s">
-        <v>76</v>
-      </c>
+      <c r="J61" s="48"/>
+      <c r="K61" s="53"/>
       <c r="L61" s="57"/>
       <c r="M61" s="63"/>
       <c r="N61" s="57"/>
@@ -5028,7 +5044,7 @@
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="58" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B62" s="57"/>
       <c r="C62" s="57"/>
@@ -5036,14 +5052,14 @@
       <c r="E62" s="57"/>
       <c r="F62" s="48"/>
       <c r="G62" s="50"/>
-      <c r="H62" s="55"/>
-      <c r="I62" s="61"/>
-      <c r="J62" s="48">
-        <v>2</v>
-      </c>
-      <c r="K62" s="53" t="s">
-        <v>77</v>
-      </c>
+      <c r="H62" s="55">
+        <v>1</v>
+      </c>
+      <c r="I62" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="J62" s="48"/>
+      <c r="K62" s="53"/>
       <c r="L62" s="57"/>
       <c r="M62" s="63"/>
       <c r="N62" s="57"/>
@@ -5053,57 +5069,57 @@
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="58" t="s">
-        <v>133</v>
-      </c>
-      <c r="B63" s="56"/>
-      <c r="C63" s="56"/>
+        <v>130</v>
+      </c>
+      <c r="B63" s="57"/>
+      <c r="C63" s="57"/>
       <c r="D63" s="56"/>
-      <c r="E63" s="56"/>
+      <c r="E63" s="57"/>
       <c r="F63" s="48"/>
-      <c r="G63" s="49"/>
-      <c r="H63" s="55">
-        <v>2</v>
-      </c>
-      <c r="I63" s="61" t="s">
-        <v>82</v>
-      </c>
-      <c r="J63" s="48"/>
-      <c r="K63" s="53"/>
-      <c r="L63" s="56"/>
+      <c r="G63" s="50"/>
+      <c r="H63" s="55"/>
+      <c r="I63" s="61"/>
+      <c r="J63" s="48">
+        <v>1</v>
+      </c>
+      <c r="K63" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="L63" s="57"/>
       <c r="M63" s="63"/>
-      <c r="N63" s="56"/>
-      <c r="O63" s="56"/>
-      <c r="P63" s="56"/>
-      <c r="Q63" s="56"/>
+      <c r="N63" s="57"/>
+      <c r="O63" s="57"/>
+      <c r="P63" s="57"/>
+      <c r="Q63" s="57"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="58" t="s">
-        <v>136</v>
-      </c>
-      <c r="B64" s="56"/>
-      <c r="C64" s="56"/>
+        <v>131</v>
+      </c>
+      <c r="B64" s="57"/>
+      <c r="C64" s="57"/>
       <c r="D64" s="56"/>
-      <c r="E64" s="56"/>
+      <c r="E64" s="57"/>
       <c r="F64" s="48"/>
-      <c r="G64" s="49"/>
+      <c r="G64" s="50"/>
       <c r="H64" s="55"/>
       <c r="I64" s="61"/>
       <c r="J64" s="48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K64" s="53" t="s">
-        <v>83</v>
-      </c>
-      <c r="L64" s="56"/>
+        <v>77</v>
+      </c>
+      <c r="L64" s="57"/>
       <c r="M64" s="63"/>
-      <c r="N64" s="56"/>
-      <c r="O64" s="56"/>
-      <c r="P64" s="56"/>
-      <c r="Q64" s="56"/>
+      <c r="N64" s="57"/>
+      <c r="O64" s="57"/>
+      <c r="P64" s="57"/>
+      <c r="Q64" s="57"/>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="58" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B65" s="56"/>
       <c r="C65" s="56"/>
@@ -5111,16 +5127,16 @@
       <c r="E65" s="56"/>
       <c r="F65" s="48"/>
       <c r="G65" s="49"/>
-      <c r="H65" s="55"/>
-      <c r="I65" s="61"/>
+      <c r="H65" s="55">
+        <v>2</v>
+      </c>
+      <c r="I65" s="61" t="s">
+        <v>82</v>
+      </c>
       <c r="J65" s="48"/>
       <c r="K65" s="53"/>
-      <c r="L65" s="56">
-        <v>1</v>
-      </c>
-      <c r="M65" s="64" t="s">
-        <v>84</v>
-      </c>
+      <c r="L65" s="56"/>
+      <c r="M65" s="63"/>
       <c r="N65" s="56"/>
       <c r="O65" s="56"/>
       <c r="P65" s="56"/>
@@ -5128,7 +5144,7 @@
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="58" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B66" s="56"/>
       <c r="C66" s="56"/>
@@ -5138,14 +5154,14 @@
       <c r="G66" s="49"/>
       <c r="H66" s="55"/>
       <c r="I66" s="61"/>
-      <c r="J66" s="48"/>
-      <c r="K66" s="53"/>
-      <c r="L66" s="56">
-        <v>2</v>
-      </c>
-      <c r="M66" s="64" t="s">
-        <v>85</v>
-      </c>
+      <c r="J66" s="48">
+        <v>1</v>
+      </c>
+      <c r="K66" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="L66" s="56"/>
+      <c r="M66" s="63"/>
       <c r="N66" s="56"/>
       <c r="O66" s="56"/>
       <c r="P66" s="56"/>
@@ -5153,7 +5169,7 @@
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="58" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B67" s="56"/>
       <c r="C67" s="56"/>
@@ -5161,16 +5177,16 @@
       <c r="E67" s="56"/>
       <c r="F67" s="48"/>
       <c r="G67" s="49"/>
-      <c r="H67" s="56"/>
-      <c r="I67" s="63"/>
-      <c r="J67" s="55">
-        <v>2</v>
-      </c>
-      <c r="K67" s="61" t="s">
-        <v>74</v>
-      </c>
-      <c r="L67" s="48"/>
-      <c r="M67" s="53"/>
+      <c r="H67" s="55"/>
+      <c r="I67" s="61"/>
+      <c r="J67" s="48"/>
+      <c r="K67" s="53"/>
+      <c r="L67" s="56">
+        <v>1</v>
+      </c>
+      <c r="M67" s="64" t="s">
+        <v>84</v>
+      </c>
       <c r="N67" s="56"/>
       <c r="O67" s="56"/>
       <c r="P67" s="56"/>
@@ -5178,7 +5194,7 @@
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="58" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B68" s="56"/>
       <c r="C68" s="56"/>
@@ -5186,15 +5202,15 @@
       <c r="E68" s="56"/>
       <c r="F68" s="48"/>
       <c r="G68" s="49"/>
-      <c r="H68" s="56"/>
-      <c r="I68" s="63"/>
-      <c r="J68" s="55"/>
-      <c r="K68" s="61"/>
-      <c r="L68" s="48">
-        <v>1</v>
-      </c>
-      <c r="M68" s="53" t="s">
-        <v>78</v>
+      <c r="H68" s="55"/>
+      <c r="I68" s="61"/>
+      <c r="J68" s="48"/>
+      <c r="K68" s="53"/>
+      <c r="L68" s="56">
+        <v>2</v>
+      </c>
+      <c r="M68" s="64" t="s">
+        <v>85</v>
       </c>
       <c r="N68" s="56"/>
       <c r="O68" s="56"/>
@@ -5203,24 +5219,24 @@
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="58" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B69" s="56"/>
       <c r="C69" s="56"/>
       <c r="D69" s="56"/>
       <c r="E69" s="56"/>
-      <c r="F69" s="56"/>
-      <c r="G69" s="56"/>
+      <c r="F69" s="48"/>
+      <c r="G69" s="49"/>
       <c r="H69" s="56"/>
       <c r="I69" s="63"/>
-      <c r="J69" s="56">
-        <v>3</v>
-      </c>
-      <c r="K69" s="64" t="s">
-        <v>79</v>
-      </c>
-      <c r="L69" s="56"/>
-      <c r="M69" s="63"/>
+      <c r="J69" s="55">
+        <v>2</v>
+      </c>
+      <c r="K69" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="L69" s="48"/>
+      <c r="M69" s="53"/>
       <c r="N69" s="56"/>
       <c r="O69" s="56"/>
       <c r="P69" s="56"/>
@@ -5228,23 +5244,23 @@
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="58" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B70" s="56"/>
       <c r="C70" s="56"/>
       <c r="D70" s="56"/>
       <c r="E70" s="56"/>
-      <c r="F70" s="56"/>
-      <c r="G70" s="56"/>
+      <c r="F70" s="48"/>
+      <c r="G70" s="49"/>
       <c r="H70" s="56"/>
       <c r="I70" s="63"/>
-      <c r="J70" s="56"/>
-      <c r="K70" s="63"/>
-      <c r="L70" s="56">
+      <c r="J70" s="55"/>
+      <c r="K70" s="61"/>
+      <c r="L70" s="48">
         <v>1</v>
       </c>
-      <c r="M70" s="64" t="s">
-        <v>80</v>
+      <c r="M70" s="53" t="s">
+        <v>78</v>
       </c>
       <c r="N70" s="56"/>
       <c r="O70" s="56"/>
@@ -5253,7 +5269,7 @@
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="58" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B71" s="56"/>
       <c r="C71" s="56"/>
@@ -5263,18 +5279,68 @@
       <c r="G71" s="56"/>
       <c r="H71" s="56"/>
       <c r="I71" s="63"/>
-      <c r="J71" s="56"/>
-      <c r="K71" s="63"/>
-      <c r="L71" s="56">
-        <v>2</v>
-      </c>
-      <c r="M71" s="64" t="s">
-        <v>81</v>
-      </c>
+      <c r="J71" s="56">
+        <v>3</v>
+      </c>
+      <c r="K71" s="64" t="s">
+        <v>79</v>
+      </c>
+      <c r="L71" s="56"/>
+      <c r="M71" s="63"/>
       <c r="N71" s="56"/>
       <c r="O71" s="56"/>
       <c r="P71" s="56"/>
       <c r="Q71" s="56"/>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A72" s="58" t="s">
+        <v>138</v>
+      </c>
+      <c r="B72" s="56"/>
+      <c r="C72" s="56"/>
+      <c r="D72" s="56"/>
+      <c r="E72" s="56"/>
+      <c r="F72" s="56"/>
+      <c r="G72" s="56"/>
+      <c r="H72" s="56"/>
+      <c r="I72" s="63"/>
+      <c r="J72" s="56"/>
+      <c r="K72" s="63"/>
+      <c r="L72" s="56">
+        <v>1</v>
+      </c>
+      <c r="M72" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="N72" s="56"/>
+      <c r="O72" s="56"/>
+      <c r="P72" s="56"/>
+      <c r="Q72" s="56"/>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A73" s="58" t="s">
+        <v>139</v>
+      </c>
+      <c r="B73" s="56"/>
+      <c r="C73" s="56"/>
+      <c r="D73" s="56"/>
+      <c r="E73" s="56"/>
+      <c r="F73" s="56"/>
+      <c r="G73" s="56"/>
+      <c r="H73" s="56"/>
+      <c r="I73" s="63"/>
+      <c r="J73" s="56"/>
+      <c r="K73" s="63"/>
+      <c r="L73" s="56">
+        <v>2</v>
+      </c>
+      <c r="M73" s="64" t="s">
+        <v>81</v>
+      </c>
+      <c r="N73" s="56"/>
+      <c r="O73" s="56"/>
+      <c r="P73" s="56"/>
+      <c r="Q73" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/_documents/메뉴구조도(KPC-SCC-IA01).xlsx
+++ b/_documents/메뉴구조도(KPC-SCC-IA01).xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\silver-car-community\_documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\silver-car-community\_documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12168" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="표지" sheetId="2" r:id="rId1"/>
@@ -1232,6 +1232,21 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1240,21 +1255,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1403,7 +1403,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="0" y="38100"/>
-          <a:ext cx="14927356" cy="820521"/>
+          <a:ext cx="16841028" cy="769364"/>
           <a:chOff x="136071" y="136071"/>
           <a:chExt cx="11112954" cy="530680"/>
         </a:xfrm>
@@ -2475,15 +2475,15 @@
       <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.296875" style="2" customWidth="1"/>
-    <col min="2" max="12" width="11.3984375" style="2" customWidth="1"/>
-    <col min="13" max="13" width="7.296875" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="8.796875" style="1"/>
+    <col min="1" max="1" width="6.33203125" style="2" customWidth="1"/>
+    <col min="2" max="12" width="11.44140625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="7.33203125" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="7"/>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -2498,7 +2498,7 @@
       <c r="L1" s="8"/>
       <c r="M1" s="9"/>
     </row>
-    <row r="2" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="10"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -2513,7 +2513,7 @@
       <c r="L2" s="11"/>
       <c r="M2" s="12"/>
     </row>
-    <row r="3" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="10"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -2532,7 +2532,7 @@
       <c r="L3" s="71"/>
       <c r="M3" s="12"/>
     </row>
-    <row r="4" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="10"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -2547,7 +2547,7 @@
       <c r="L4" s="11"/>
       <c r="M4" s="12"/>
     </row>
-    <row r="5" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="10"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -2562,7 +2562,7 @@
       <c r="L5" s="11"/>
       <c r="M5" s="12"/>
     </row>
-    <row r="6" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="10"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -2577,7 +2577,7 @@
       <c r="L6" s="11"/>
       <c r="M6" s="12"/>
     </row>
-    <row r="7" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="10"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -2592,7 +2592,7 @@
       <c r="L7" s="11"/>
       <c r="M7" s="12"/>
     </row>
-    <row r="8" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="10"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -2607,7 +2607,7 @@
       <c r="L8" s="11"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="10"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -2622,7 +2622,7 @@
       <c r="L9" s="11"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="10"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -2637,7 +2637,7 @@
       <c r="L10" s="11"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="10"/>
       <c r="B11" s="66" t="s">
         <v>8</v>
@@ -2654,7 +2654,7 @@
       <c r="L11" s="66"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="10"/>
       <c r="B12" s="67"/>
       <c r="C12" s="67"/>
@@ -2669,7 +2669,7 @@
       <c r="L12" s="67"/>
       <c r="M12" s="12"/>
     </row>
-    <row r="13" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="10"/>
       <c r="B13" s="67"/>
       <c r="C13" s="67"/>
@@ -2684,7 +2684,7 @@
       <c r="L13" s="67"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="10"/>
       <c r="B14" s="67"/>
       <c r="C14" s="67"/>
@@ -2699,7 +2699,7 @@
       <c r="L14" s="67"/>
       <c r="M14" s="12"/>
     </row>
-    <row r="15" spans="1:13" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="10"/>
       <c r="B15" s="68"/>
       <c r="C15" s="68"/>
@@ -2714,7 +2714,7 @@
       <c r="L15" s="68"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="1:13" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A16" s="10"/>
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
@@ -2729,7 +2729,7 @@
       <c r="L16" s="14"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="10"/>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
@@ -2744,7 +2744,7 @@
       <c r="L17" s="14"/>
       <c r="M17" s="12"/>
     </row>
-    <row r="18" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="10"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
@@ -2759,7 +2759,7 @@
       <c r="L18" s="14"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="10"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -2774,7 +2774,7 @@
       <c r="L19" s="11"/>
       <c r="M19" s="12"/>
     </row>
-    <row r="20" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="10"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -2789,7 +2789,7 @@
       <c r="L20" s="11"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="10"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -2804,7 +2804,7 @@
       <c r="L21" s="11"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="10"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -2821,7 +2821,7 @@
       <c r="L22" s="11"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="10"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -2836,7 +2836,7 @@
       <c r="L23" s="11"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -2851,7 +2851,7 @@
       <c r="L24" s="11"/>
       <c r="M24" s="12"/>
     </row>
-    <row r="25" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -2866,7 +2866,7 @@
       <c r="L25" s="11"/>
       <c r="M25" s="12"/>
     </row>
-    <row r="26" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -2881,7 +2881,7 @@
       <c r="L26" s="11"/>
       <c r="M26" s="12"/>
     </row>
-    <row r="27" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="10"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -2896,7 +2896,7 @@
       <c r="L27" s="11"/>
       <c r="M27" s="12"/>
     </row>
-    <row r="28" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -2911,7 +2911,7 @@
       <c r="L28" s="11"/>
       <c r="M28" s="12"/>
     </row>
-    <row r="29" spans="1:13" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A29" s="17"/>
       <c r="B29" s="18"/>
       <c r="C29" s="18"/>
@@ -2951,18 +2951,18 @@
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.296875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="11.3984375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="11.3984375" style="6" customWidth="1"/>
-    <col min="4" max="10" width="11.3984375" style="4" customWidth="1"/>
-    <col min="11" max="12" width="11.3984375" style="5" customWidth="1"/>
-    <col min="13" max="13" width="7.296875" style="4" customWidth="1"/>
-    <col min="14" max="16384" width="8.796875" style="3"/>
+    <col min="1" max="1" width="6.33203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" style="6" customWidth="1"/>
+    <col min="4" max="10" width="11.44140625" style="4" customWidth="1"/>
+    <col min="11" max="12" width="11.44140625" style="5" customWidth="1"/>
+    <col min="13" max="13" width="7.33203125" style="4" customWidth="1"/>
+    <col min="14" max="16384" width="8.77734375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="20"/>
       <c r="B1" s="21"/>
       <c r="C1" s="22"/>
@@ -2977,7 +2977,7 @@
       <c r="L1" s="21"/>
       <c r="M1" s="24"/>
     </row>
-    <row r="2" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="25"/>
       <c r="B2" s="26" t="s">
         <v>48</v>
@@ -2990,14 +2990,14 @@
       <c r="H2" s="28"/>
       <c r="I2" s="28"/>
       <c r="J2" s="28"/>
-      <c r="K2" s="72" t="str">
+      <c r="K2" s="77" t="str">
         <f>표지!B11</f>
         <v>메뉴구조도</v>
       </c>
-      <c r="L2" s="72"/>
+      <c r="L2" s="77"/>
       <c r="M2" s="29"/>
     </row>
-    <row r="3" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A3" s="25"/>
       <c r="B3" s="30"/>
       <c r="C3" s="31"/>
@@ -3012,24 +3012,24 @@
       <c r="L3" s="30"/>
       <c r="M3" s="29"/>
     </row>
-    <row r="4" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="25"/>
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="78"/>
+      <c r="L4" s="78"/>
       <c r="M4" s="29"/>
     </row>
-    <row r="5" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="25"/>
       <c r="B5" s="33"/>
       <c r="C5" s="27"/>
@@ -3044,7 +3044,7 @@
       <c r="L5" s="33"/>
       <c r="M5" s="29"/>
     </row>
-    <row r="6" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="25"/>
       <c r="B6" s="43" t="s">
         <v>0</v>
@@ -3052,17 +3052,17 @@
       <c r="C6" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="74" t="s">
+      <c r="D6" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74" t="s">
+      <c r="E6" s="79"/>
+      <c r="F6" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="74"/>
-      <c r="H6" s="74"/>
-      <c r="I6" s="74"/>
-      <c r="J6" s="74"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
       <c r="K6" s="43" t="s">
         <v>3</v>
       </c>
@@ -3071,7 +3071,7 @@
       </c>
       <c r="M6" s="29"/>
     </row>
-    <row r="7" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="25"/>
       <c r="B7" s="65">
         <v>1</v>
@@ -3083,18 +3083,18 @@
         <v>21</v>
       </c>
       <c r="E7" s="76"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="78"/>
-      <c r="H7" s="78"/>
-      <c r="I7" s="78"/>
-      <c r="J7" s="79"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="73"/>
       <c r="K7" s="34" t="s">
         <v>46</v>
       </c>
       <c r="L7" s="34"/>
       <c r="M7" s="29"/>
     </row>
-    <row r="8" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="25"/>
       <c r="B8" s="65">
         <v>2</v>
@@ -3106,260 +3106,260 @@
         <v>144</v>
       </c>
       <c r="E8" s="76"/>
-      <c r="F8" s="77" t="s">
+      <c r="F8" s="72" t="s">
         <v>145</v>
       </c>
-      <c r="G8" s="78"/>
-      <c r="H8" s="78"/>
-      <c r="I8" s="78"/>
-      <c r="J8" s="79"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="74"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="73"/>
       <c r="K8" s="34" t="s">
         <v>146</v>
       </c>
       <c r="L8" s="34"/>
       <c r="M8" s="29"/>
     </row>
-    <row r="9" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="25"/>
       <c r="B9" s="34"/>
       <c r="C9" s="35"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="77"/>
-      <c r="G9" s="78"/>
-      <c r="H9" s="78"/>
-      <c r="I9" s="78"/>
-      <c r="J9" s="79"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="73"/>
       <c r="K9" s="34"/>
       <c r="L9" s="34"/>
       <c r="M9" s="29"/>
     </row>
-    <row r="10" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="25"/>
       <c r="B10" s="34"/>
       <c r="C10" s="35"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="77"/>
-      <c r="G10" s="78"/>
-      <c r="H10" s="78"/>
-      <c r="I10" s="78"/>
-      <c r="J10" s="79"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="73"/>
       <c r="K10" s="34"/>
       <c r="L10" s="34"/>
       <c r="M10" s="29"/>
     </row>
-    <row r="11" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="25"/>
       <c r="B11" s="34"/>
       <c r="C11" s="35"/>
-      <c r="D11" s="77"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="77"/>
-      <c r="G11" s="78"/>
-      <c r="H11" s="78"/>
-      <c r="I11" s="78"/>
-      <c r="J11" s="79"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="74"/>
+      <c r="I11" s="74"/>
+      <c r="J11" s="73"/>
       <c r="K11" s="34"/>
       <c r="L11" s="34"/>
       <c r="M11" s="29"/>
     </row>
-    <row r="12" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="25"/>
       <c r="B12" s="36"/>
       <c r="C12" s="37"/>
-      <c r="D12" s="77"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="77"/>
-      <c r="G12" s="78"/>
-      <c r="H12" s="78"/>
-      <c r="I12" s="78"/>
-      <c r="J12" s="79"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="74"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="73"/>
       <c r="K12" s="36"/>
       <c r="L12" s="36"/>
       <c r="M12" s="29"/>
     </row>
-    <row r="13" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="25"/>
       <c r="B13" s="36"/>
       <c r="C13" s="37"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="78"/>
-      <c r="H13" s="78"/>
-      <c r="I13" s="78"/>
-      <c r="J13" s="79"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="74"/>
+      <c r="J13" s="73"/>
       <c r="K13" s="36"/>
       <c r="L13" s="36"/>
       <c r="M13" s="29"/>
     </row>
-    <row r="14" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="25"/>
       <c r="B14" s="36"/>
       <c r="C14" s="37"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="77"/>
-      <c r="G14" s="78"/>
-      <c r="H14" s="78"/>
-      <c r="I14" s="78"/>
-      <c r="J14" s="79"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="74"/>
+      <c r="I14" s="74"/>
+      <c r="J14" s="73"/>
       <c r="K14" s="36"/>
       <c r="L14" s="36"/>
       <c r="M14" s="29"/>
     </row>
-    <row r="15" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="25"/>
       <c r="B15" s="36"/>
       <c r="C15" s="37"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="78"/>
-      <c r="H15" s="78"/>
-      <c r="I15" s="78"/>
-      <c r="J15" s="79"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="74"/>
+      <c r="I15" s="74"/>
+      <c r="J15" s="73"/>
       <c r="K15" s="36"/>
       <c r="L15" s="36"/>
       <c r="M15" s="29"/>
     </row>
-    <row r="16" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="25"/>
       <c r="B16" s="36"/>
       <c r="C16" s="37"/>
-      <c r="D16" s="77"/>
-      <c r="E16" s="79"/>
-      <c r="F16" s="77"/>
-      <c r="G16" s="78"/>
-      <c r="H16" s="78"/>
-      <c r="I16" s="78"/>
-      <c r="J16" s="79"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="74"/>
+      <c r="I16" s="74"/>
+      <c r="J16" s="73"/>
       <c r="K16" s="36"/>
       <c r="L16" s="36"/>
       <c r="M16" s="29"/>
     </row>
-    <row r="17" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="25"/>
       <c r="B17" s="34"/>
       <c r="C17" s="35"/>
-      <c r="D17" s="77"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="77"/>
-      <c r="G17" s="78"/>
-      <c r="H17" s="78"/>
-      <c r="I17" s="78"/>
-      <c r="J17" s="79"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="74"/>
+      <c r="I17" s="74"/>
+      <c r="J17" s="73"/>
       <c r="K17" s="34"/>
       <c r="L17" s="34"/>
       <c r="M17" s="29"/>
     </row>
-    <row r="18" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="25"/>
       <c r="B18" s="34"/>
       <c r="C18" s="35"/>
-      <c r="D18" s="77"/>
-      <c r="E18" s="79"/>
-      <c r="F18" s="77"/>
-      <c r="G18" s="78"/>
-      <c r="H18" s="78"/>
-      <c r="I18" s="78"/>
-      <c r="J18" s="79"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="74"/>
+      <c r="I18" s="74"/>
+      <c r="J18" s="73"/>
       <c r="K18" s="34"/>
       <c r="L18" s="34"/>
       <c r="M18" s="29"/>
     </row>
-    <row r="19" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="25"/>
       <c r="B19" s="34"/>
       <c r="C19" s="35"/>
-      <c r="D19" s="77"/>
-      <c r="E19" s="79"/>
-      <c r="F19" s="77"/>
-      <c r="G19" s="78"/>
-      <c r="H19" s="78"/>
-      <c r="I19" s="78"/>
-      <c r="J19" s="79"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="74"/>
+      <c r="H19" s="74"/>
+      <c r="I19" s="74"/>
+      <c r="J19" s="73"/>
       <c r="K19" s="34"/>
       <c r="L19" s="34"/>
       <c r="M19" s="29"/>
     </row>
-    <row r="20" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="25"/>
       <c r="B20" s="34"/>
       <c r="C20" s="35"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="77"/>
-      <c r="G20" s="78"/>
-      <c r="H20" s="78"/>
-      <c r="I20" s="78"/>
-      <c r="J20" s="79"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="74"/>
+      <c r="I20" s="74"/>
+      <c r="J20" s="73"/>
       <c r="K20" s="34"/>
       <c r="L20" s="34"/>
       <c r="M20" s="29"/>
     </row>
-    <row r="21" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="25"/>
       <c r="B21" s="34"/>
       <c r="C21" s="35"/>
-      <c r="D21" s="77"/>
-      <c r="E21" s="79"/>
-      <c r="F21" s="77"/>
-      <c r="G21" s="78"/>
-      <c r="H21" s="78"/>
-      <c r="I21" s="78"/>
-      <c r="J21" s="79"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="74"/>
+      <c r="H21" s="74"/>
+      <c r="I21" s="74"/>
+      <c r="J21" s="73"/>
       <c r="K21" s="34"/>
       <c r="L21" s="34"/>
       <c r="M21" s="29"/>
     </row>
-    <row r="22" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="25"/>
       <c r="B22" s="34"/>
       <c r="C22" s="35"/>
-      <c r="D22" s="77"/>
-      <c r="E22" s="79"/>
-      <c r="F22" s="77"/>
-      <c r="G22" s="78"/>
-      <c r="H22" s="78"/>
-      <c r="I22" s="78"/>
-      <c r="J22" s="79"/>
+      <c r="D22" s="72"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="74"/>
+      <c r="I22" s="74"/>
+      <c r="J22" s="73"/>
       <c r="K22" s="34"/>
       <c r="L22" s="34"/>
       <c r="M22" s="29"/>
     </row>
-    <row r="23" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="25"/>
       <c r="B23" s="34"/>
       <c r="C23" s="35"/>
-      <c r="D23" s="77"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="77"/>
-      <c r="G23" s="78"/>
-      <c r="H23" s="78"/>
-      <c r="I23" s="78"/>
-      <c r="J23" s="79"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="74"/>
+      <c r="I23" s="74"/>
+      <c r="J23" s="73"/>
       <c r="K23" s="34"/>
       <c r="L23" s="34"/>
       <c r="M23" s="29"/>
     </row>
-    <row r="24" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="25"/>
       <c r="B24" s="34"/>
       <c r="C24" s="35"/>
-      <c r="D24" s="77"/>
-      <c r="E24" s="79"/>
-      <c r="F24" s="77"/>
-      <c r="G24" s="78"/>
-      <c r="H24" s="78"/>
-      <c r="I24" s="78"/>
-      <c r="J24" s="79"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="74"/>
+      <c r="I24" s="74"/>
+      <c r="J24" s="73"/>
       <c r="K24" s="34"/>
       <c r="L24" s="34"/>
       <c r="M24" s="29"/>
     </row>
-    <row r="25" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="25"/>
       <c r="B25" s="33"/>
       <c r="C25" s="27"/>
@@ -3374,7 +3374,7 @@
       <c r="L25" s="33"/>
       <c r="M25" s="29"/>
     </row>
-    <row r="26" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="25"/>
       <c r="B26" s="33"/>
       <c r="C26" s="27"/>
@@ -3389,7 +3389,7 @@
       <c r="L26" s="33"/>
       <c r="M26" s="29"/>
     </row>
-    <row r="27" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="25"/>
       <c r="B27" s="33"/>
       <c r="C27" s="27"/>
@@ -3404,7 +3404,7 @@
       <c r="L27" s="33"/>
       <c r="M27" s="29"/>
     </row>
-    <row r="28" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="25"/>
       <c r="B28" s="33"/>
       <c r="C28" s="27"/>
@@ -3419,7 +3419,7 @@
       <c r="L28" s="33"/>
       <c r="M28" s="29"/>
     </row>
-    <row r="29" spans="1:13" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A29" s="38"/>
       <c r="B29" s="39"/>
       <c r="C29" s="40"/>
@@ -3436,6 +3436,36 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="B4:L4"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:J7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:J19"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="F23:J23"/>
     <mergeCell ref="D24:E24"/>
@@ -3446,41 +3476,11 @@
     <mergeCell ref="F21:J21"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="F22:J22"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:J17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:J18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:J19"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:J14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:J15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:J11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:J8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:J10"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="B4:L4"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:J7"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="82" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="78" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3491,33 +3491,33 @@
   </sheetPr>
   <dimension ref="A1:Q71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R45" sqref="R45"/>
+    <sheetView tabSelected="1" topLeftCell="D10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J54" sqref="J54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="20" style="45" customWidth="1"/>
-    <col min="2" max="2" width="4.296875" style="45" customWidth="1"/>
-    <col min="3" max="3" width="11.796875" style="45" customWidth="1"/>
-    <col min="4" max="4" width="3.3984375" style="46" customWidth="1"/>
-    <col min="5" max="5" width="17.296875" style="45" customWidth="1"/>
-    <col min="6" max="6" width="3.296875" style="46" customWidth="1"/>
+    <col min="2" max="2" width="4.33203125" style="45" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" style="45" customWidth="1"/>
+    <col min="4" max="4" width="3.44140625" style="46" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" style="45" customWidth="1"/>
+    <col min="6" max="6" width="3.33203125" style="46" customWidth="1"/>
     <col min="7" max="7" width="20" style="45" customWidth="1"/>
-    <col min="8" max="8" width="3.69921875" style="45" customWidth="1"/>
-    <col min="9" max="9" width="26.69921875" style="45" customWidth="1"/>
-    <col min="10" max="10" width="4.3984375" style="45" customWidth="1"/>
-    <col min="11" max="11" width="25.09765625" style="45" customWidth="1"/>
-    <col min="12" max="12" width="4.3984375" style="45" customWidth="1"/>
-    <col min="13" max="13" width="11.09765625" style="45" customWidth="1"/>
-    <col min="14" max="14" width="4.09765625" style="45" customWidth="1"/>
-    <col min="15" max="15" width="7.796875" style="45" customWidth="1"/>
-    <col min="16" max="16" width="13.3984375" style="45" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.09765625" style="45" customWidth="1"/>
-    <col min="18" max="16384" width="8.796875" style="45"/>
+    <col min="8" max="8" width="3.6640625" style="45" customWidth="1"/>
+    <col min="9" max="9" width="26.6640625" style="45" customWidth="1"/>
+    <col min="10" max="10" width="4.44140625" style="45" customWidth="1"/>
+    <col min="11" max="11" width="25.109375" style="45" customWidth="1"/>
+    <col min="12" max="12" width="4.44140625" style="45" customWidth="1"/>
+    <col min="13" max="13" width="11.109375" style="45" customWidth="1"/>
+    <col min="14" max="14" width="4.109375" style="45" customWidth="1"/>
+    <col min="15" max="15" width="7.77734375" style="45" customWidth="1"/>
+    <col min="16" max="16" width="13.44140625" style="45" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.109375" style="45" customWidth="1"/>
+    <col min="18" max="16384" width="8.77734375" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1" s="57"/>
       <c r="B1" s="57"/>
       <c r="C1" s="57"/>
@@ -3536,7 +3536,7 @@
       <c r="P1" s="57"/>
       <c r="Q1" s="57"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2" s="57"/>
       <c r="B2" s="57"/>
       <c r="C2" s="57"/>
@@ -3555,7 +3555,7 @@
       <c r="P2" s="57"/>
       <c r="Q2" s="57"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" s="57"/>
       <c r="B3" s="57"/>
       <c r="C3" s="57"/>
@@ -3574,7 +3574,7 @@
       <c r="P3" s="57"/>
       <c r="Q3" s="57"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A4" s="57"/>
       <c r="B4" s="57"/>
       <c r="C4" s="57"/>
@@ -3593,7 +3593,7 @@
       <c r="P4" s="57"/>
       <c r="Q4" s="57"/>
     </row>
-    <row r="5" spans="1:17" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="57"/>
       <c r="B5" s="57"/>
       <c r="C5" s="57"/>
@@ -3612,7 +3612,7 @@
       <c r="P5" s="57"/>
       <c r="Q5" s="57"/>
     </row>
-    <row r="6" spans="1:17" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="54" t="s">
         <v>9</v>
       </c>
@@ -3651,7 +3651,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A7" s="47" t="s">
         <v>38</v>
       </c>
@@ -3676,7 +3676,7 @@
       <c r="P7" s="51"/>
       <c r="Q7" s="52"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A8" s="47" t="s">
         <v>39</v>
       </c>
@@ -3701,7 +3701,7 @@
       <c r="P8" s="51"/>
       <c r="Q8" s="52"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A9" s="47" t="s">
         <v>66</v>
       </c>
@@ -3726,7 +3726,7 @@
       <c r="P9" s="51"/>
       <c r="Q9" s="52"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A10" s="47" t="s">
         <v>87</v>
       </c>
@@ -3751,7 +3751,7 @@
       <c r="P10" s="51"/>
       <c r="Q10" s="52"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A11" s="47" t="s">
         <v>88</v>
       </c>
@@ -3776,7 +3776,7 @@
       <c r="P11" s="51"/>
       <c r="Q11" s="52"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A12" s="47" t="s">
         <v>89</v>
       </c>
@@ -3801,7 +3801,7 @@
       <c r="P12" s="51"/>
       <c r="Q12" s="52"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A13" s="47" t="s">
         <v>90</v>
       </c>
@@ -3826,7 +3826,7 @@
       <c r="P13" s="51"/>
       <c r="Q13" s="52"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A14" s="47" t="s">
         <v>91</v>
       </c>
@@ -3851,7 +3851,7 @@
       <c r="P14" s="51"/>
       <c r="Q14" s="52"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A15" s="47" t="s">
         <v>92</v>
       </c>
@@ -3876,7 +3876,7 @@
       <c r="P15" s="51"/>
       <c r="Q15" s="52"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A16" s="47" t="s">
         <v>147</v>
       </c>
@@ -3901,7 +3901,7 @@
       <c r="P16" s="51"/>
       <c r="Q16" s="52"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A17" s="47" t="s">
         <v>148</v>
       </c>
@@ -3926,7 +3926,7 @@
       <c r="P17" s="51"/>
       <c r="Q17" s="52"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A18" s="47" t="s">
         <v>40</v>
       </c>
@@ -3951,7 +3951,7 @@
       <c r="P18" s="51"/>
       <c r="Q18" s="52"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A19" s="47" t="s">
         <v>93</v>
       </c>
@@ -3976,7 +3976,7 @@
       <c r="P19" s="51"/>
       <c r="Q19" s="52"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A20" s="47" t="s">
         <v>94</v>
       </c>
@@ -4001,7 +4001,7 @@
       <c r="P20" s="51"/>
       <c r="Q20" s="52"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A21" s="47" t="s">
         <v>95</v>
       </c>
@@ -4026,7 +4026,7 @@
       <c r="P21" s="51"/>
       <c r="Q21" s="52"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A22" s="47" t="s">
         <v>96</v>
       </c>
@@ -4051,7 +4051,7 @@
       <c r="P22" s="51"/>
       <c r="Q22" s="52"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A23" s="47" t="s">
         <v>98</v>
       </c>
@@ -4076,7 +4076,7 @@
       <c r="P23" s="51"/>
       <c r="Q23" s="52"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A24" s="47" t="s">
         <v>97</v>
       </c>
@@ -4101,7 +4101,7 @@
       <c r="P24" s="51"/>
       <c r="Q24" s="52"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A25" s="47" t="s">
         <v>99</v>
       </c>
@@ -4126,7 +4126,7 @@
       <c r="P25" s="51"/>
       <c r="Q25" s="52"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A26" s="47" t="s">
         <v>100</v>
       </c>
@@ -4151,7 +4151,7 @@
       <c r="P26" s="51"/>
       <c r="Q26" s="52"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A27" s="47" t="s">
         <v>101</v>
       </c>
@@ -4176,7 +4176,7 @@
       <c r="P27" s="51"/>
       <c r="Q27" s="52"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A28" s="47" t="s">
         <v>102</v>
       </c>
@@ -4201,7 +4201,7 @@
       <c r="P28" s="51"/>
       <c r="Q28" s="52"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A29" s="58" t="s">
         <v>103</v>
       </c>
@@ -4226,7 +4226,7 @@
       <c r="P29" s="51"/>
       <c r="Q29" s="52"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A30" s="58" t="s">
         <v>104</v>
       </c>
@@ -4251,7 +4251,7 @@
       <c r="P30" s="51"/>
       <c r="Q30" s="52"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A31" s="58" t="s">
         <v>105</v>
       </c>
@@ -4276,7 +4276,7 @@
       <c r="P31" s="51"/>
       <c r="Q31" s="52"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A32" s="58" t="s">
         <v>106</v>
       </c>
@@ -4301,7 +4301,7 @@
       <c r="P32" s="51"/>
       <c r="Q32" s="52"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A33" s="58" t="s">
         <v>107</v>
       </c>
@@ -4326,7 +4326,7 @@
       <c r="P33" s="51"/>
       <c r="Q33" s="52"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A34" s="58" t="s">
         <v>108</v>
       </c>
@@ -4351,7 +4351,7 @@
       <c r="P34" s="51"/>
       <c r="Q34" s="52"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A35" s="58" t="s">
         <v>109</v>
       </c>
@@ -4376,7 +4376,7 @@
       <c r="P35" s="51"/>
       <c r="Q35" s="52"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A36" s="58" t="s">
         <v>110</v>
       </c>
@@ -4401,7 +4401,7 @@
       <c r="P36" s="51"/>
       <c r="Q36" s="52"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A37" s="58" t="s">
         <v>111</v>
       </c>
@@ -4426,7 +4426,7 @@
       <c r="P37" s="51"/>
       <c r="Q37" s="52"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A38" s="58" t="s">
         <v>112</v>
       </c>
@@ -4451,7 +4451,7 @@
       <c r="P38" s="51"/>
       <c r="Q38" s="52"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A39" s="58" t="s">
         <v>113</v>
       </c>
@@ -4476,7 +4476,7 @@
       <c r="P39" s="51"/>
       <c r="Q39" s="52"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A40" s="58" t="s">
         <v>114</v>
       </c>
@@ -4501,7 +4501,7 @@
       <c r="P40" s="51"/>
       <c r="Q40" s="52"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A41" s="58" t="s">
         <v>115</v>
       </c>
@@ -4526,7 +4526,7 @@
       <c r="P41" s="51"/>
       <c r="Q41" s="52"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A42" s="58" t="s">
         <v>116</v>
       </c>
@@ -4551,7 +4551,7 @@
       <c r="P42" s="51"/>
       <c r="Q42" s="52"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A43" s="58" t="s">
         <v>117</v>
       </c>
@@ -4576,7 +4576,7 @@
       <c r="P43" s="51"/>
       <c r="Q43" s="52"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A44" s="58" t="s">
         <v>118</v>
       </c>
@@ -4601,7 +4601,7 @@
       <c r="P44" s="53"/>
       <c r="Q44" s="50"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A45" s="58" t="s">
         <v>119</v>
       </c>
@@ -4626,7 +4626,7 @@
       <c r="P45" s="51"/>
       <c r="Q45" s="52"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A46" s="58" t="s">
         <v>120</v>
       </c>
@@ -4651,7 +4651,7 @@
       <c r="P46" s="51"/>
       <c r="Q46" s="52"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A47" s="58" t="s">
         <v>121</v>
       </c>
@@ -4676,7 +4676,7 @@
       <c r="P47" s="51"/>
       <c r="Q47" s="52"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A48" s="58" t="s">
         <v>122</v>
       </c>
@@ -4701,7 +4701,7 @@
       <c r="P48" s="51"/>
       <c r="Q48" s="52"/>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A49" s="58" t="s">
         <v>123</v>
       </c>
@@ -4726,7 +4726,7 @@
       <c r="P49" s="51"/>
       <c r="Q49" s="52"/>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A50" s="58" t="s">
         <v>124</v>
       </c>
@@ -4751,7 +4751,7 @@
       <c r="P50" s="51"/>
       <c r="Q50" s="52"/>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A51" s="58" t="s">
         <v>125</v>
       </c>
@@ -4776,7 +4776,7 @@
       <c r="P51" s="51"/>
       <c r="Q51" s="52"/>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A52" s="58" t="s">
         <v>41</v>
       </c>
@@ -4801,7 +4801,7 @@
       <c r="P52" s="51"/>
       <c r="Q52" s="52"/>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A53" s="58" t="s">
         <v>126</v>
       </c>
@@ -4826,7 +4826,7 @@
       <c r="P53" s="57"/>
       <c r="Q53" s="57"/>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A54" s="58" t="s">
         <v>127</v>
       </c>
@@ -4851,7 +4851,7 @@
       <c r="P54" s="57"/>
       <c r="Q54" s="57"/>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A55" s="58" t="s">
         <v>128</v>
       </c>
@@ -4876,7 +4876,7 @@
       <c r="P55" s="57"/>
       <c r="Q55" s="57"/>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A56" s="58" t="s">
         <v>129</v>
       </c>
@@ -4901,7 +4901,7 @@
       <c r="P56" s="57"/>
       <c r="Q56" s="57"/>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A57" s="58" t="s">
         <v>130</v>
       </c>
@@ -4926,7 +4926,7 @@
       <c r="P57" s="57"/>
       <c r="Q57" s="57"/>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A58" s="58" t="s">
         <v>42</v>
       </c>
@@ -4951,7 +4951,7 @@
       <c r="P58" s="57"/>
       <c r="Q58" s="57"/>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A59" s="58" t="s">
         <v>131</v>
       </c>
@@ -4976,7 +4976,7 @@
       <c r="P59" s="57"/>
       <c r="Q59" s="57"/>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A60" s="58" t="s">
         <v>132</v>
       </c>
@@ -5001,7 +5001,7 @@
       <c r="P60" s="57"/>
       <c r="Q60" s="57"/>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A61" s="58" t="s">
         <v>134</v>
       </c>
@@ -5026,7 +5026,7 @@
       <c r="P61" s="57"/>
       <c r="Q61" s="57"/>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A62" s="58" t="s">
         <v>135</v>
       </c>
@@ -5051,7 +5051,7 @@
       <c r="P62" s="57"/>
       <c r="Q62" s="57"/>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A63" s="58" t="s">
         <v>133</v>
       </c>
@@ -5076,7 +5076,7 @@
       <c r="P63" s="56"/>
       <c r="Q63" s="56"/>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A64" s="58" t="s">
         <v>136</v>
       </c>
@@ -5101,7 +5101,7 @@
       <c r="P64" s="56"/>
       <c r="Q64" s="56"/>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A65" s="58" t="s">
         <v>137</v>
       </c>
@@ -5126,7 +5126,7 @@
       <c r="P65" s="56"/>
       <c r="Q65" s="56"/>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A66" s="58" t="s">
         <v>138</v>
       </c>
@@ -5151,7 +5151,7 @@
       <c r="P66" s="56"/>
       <c r="Q66" s="56"/>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A67" s="58" t="s">
         <v>139</v>
       </c>
@@ -5176,7 +5176,7 @@
       <c r="P67" s="56"/>
       <c r="Q67" s="56"/>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A68" s="58" t="s">
         <v>140</v>
       </c>
@@ -5201,7 +5201,7 @@
       <c r="P68" s="56"/>
       <c r="Q68" s="56"/>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A69" s="58" t="s">
         <v>141</v>
       </c>
@@ -5226,7 +5226,7 @@
       <c r="P69" s="56"/>
       <c r="Q69" s="56"/>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A70" s="58" t="s">
         <v>142</v>
       </c>
@@ -5251,7 +5251,7 @@
       <c r="P70" s="56"/>
       <c r="Q70" s="56"/>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A71" s="58" t="s">
         <v>143</v>
       </c>

--- a/_documents/메뉴구조도(KPC-SCC-IA01).xlsx
+++ b/_documents/메뉴구조도(KPC-SCC-IA01).xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\silver-car-community\_documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\silver-car-community\_documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12168" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="표지" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="154">
   <si>
     <t>버전</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -187,10 +187,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>SCCUP000000</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>SCCUP100000</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -416,11 +412,223 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>SCCUP211100</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP211200</t>
+    <t>SCCUP300000</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP310000</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP311000</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP311100</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP320000</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP321000</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP321100</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP330000</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP331000</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP331100</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP340000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP341000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP341100</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP341200</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP350000</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP351000</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP351100</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP360000</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP361000</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP370000</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP371000</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP372000</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP380000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP381000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP381100</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP382000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP382100</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP410000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP411000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP411100</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP412000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP412100</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP510000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP511000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP512000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP511100</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP511200</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP512100</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP512110</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP512120</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP512200</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP512210</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP512300</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP512310</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP512320</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용 수정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>전반적</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>강다솜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP121100</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP121200</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글, 대댓글 목록</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그아웃</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP230000</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP231000</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP220000</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -428,212 +636,20 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>SCCUP220000</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP300000</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP310000</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP311000</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP311100</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP320000</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP321000</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP321100</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP330000</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP331000</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP331100</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP340000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP341000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP341100</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP341200</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP350000</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP351000</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP351100</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP360000</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP361000</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP370000</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP371000</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP372000</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP380000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP381000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP381100</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP382000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP382100</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP410000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP411000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP411100</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP412000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP412100</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP510000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP511000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP512000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP511100</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP511200</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP512100</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP512110</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP512120</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP512200</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP512210</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP512300</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP512310</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP512320</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>내용 수정</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>전반적</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>강다솜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP121100</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP121200</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>댓글, 대댓글 목록</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>SCCUP221100</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP221200</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그아웃 알람</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP000000</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1232,29 +1248,29 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1403,7 +1419,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="0" y="38100"/>
-          <a:ext cx="16841028" cy="769364"/>
+          <a:ext cx="14927356" cy="820521"/>
           <a:chOff x="136071" y="136071"/>
           <a:chExt cx="11112954" cy="530680"/>
         </a:xfrm>
@@ -2475,15 +2491,15 @@
       <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" style="2" customWidth="1"/>
-    <col min="2" max="12" width="11.44140625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="7.33203125" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="8.77734375" style="1"/>
+    <col min="1" max="1" width="6.296875" style="2" customWidth="1"/>
+    <col min="2" max="12" width="11.3984375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="7.296875" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7"/>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -2498,7 +2514,7 @@
       <c r="L1" s="8"/>
       <c r="M1" s="9"/>
     </row>
-    <row r="2" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -2513,7 +2529,7 @@
       <c r="L2" s="11"/>
       <c r="M2" s="12"/>
     </row>
-    <row r="3" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -2527,12 +2543,12 @@
         <v>7</v>
       </c>
       <c r="K3" s="71" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L3" s="71"/>
       <c r="M3" s="12"/>
     </row>
-    <row r="4" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -2547,7 +2563,7 @@
       <c r="L4" s="11"/>
       <c r="M4" s="12"/>
     </row>
-    <row r="5" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -2562,7 +2578,7 @@
       <c r="L5" s="11"/>
       <c r="M5" s="12"/>
     </row>
-    <row r="6" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -2577,7 +2593,7 @@
       <c r="L6" s="11"/>
       <c r="M6" s="12"/>
     </row>
-    <row r="7" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -2592,7 +2608,7 @@
       <c r="L7" s="11"/>
       <c r="M7" s="12"/>
     </row>
-    <row r="8" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -2607,7 +2623,7 @@
       <c r="L8" s="11"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -2622,7 +2638,7 @@
       <c r="L9" s="11"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -2637,7 +2653,7 @@
       <c r="L10" s="11"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="66" t="s">
         <v>8</v>
@@ -2654,7 +2670,7 @@
       <c r="L11" s="66"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" s="67"/>
       <c r="C12" s="67"/>
@@ -2669,7 +2685,7 @@
       <c r="L12" s="67"/>
       <c r="M12" s="12"/>
     </row>
-    <row r="13" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="67"/>
       <c r="C13" s="67"/>
@@ -2684,7 +2700,7 @@
       <c r="L13" s="67"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" s="67"/>
       <c r="C14" s="67"/>
@@ -2699,7 +2715,7 @@
       <c r="L14" s="67"/>
       <c r="M14" s="12"/>
     </row>
-    <row r="15" spans="1:13" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10"/>
       <c r="B15" s="68"/>
       <c r="C15" s="68"/>
@@ -2714,7 +2730,7 @@
       <c r="L15" s="68"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="1:13" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
@@ -2729,7 +2745,7 @@
       <c r="L16" s="14"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
@@ -2744,7 +2760,7 @@
       <c r="L17" s="14"/>
       <c r="M17" s="12"/>
     </row>
-    <row r="18" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
@@ -2759,7 +2775,7 @@
       <c r="L18" s="14"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -2774,7 +2790,7 @@
       <c r="L19" s="11"/>
       <c r="M19" s="12"/>
     </row>
-    <row r="20" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -2789,7 +2805,7 @@
       <c r="L20" s="11"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -2804,7 +2820,7 @@
       <c r="L21" s="11"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -2821,7 +2837,7 @@
       <c r="L22" s="11"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -2836,7 +2852,7 @@
       <c r="L23" s="11"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -2851,7 +2867,7 @@
       <c r="L24" s="11"/>
       <c r="M24" s="12"/>
     </row>
-    <row r="25" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -2866,7 +2882,7 @@
       <c r="L25" s="11"/>
       <c r="M25" s="12"/>
     </row>
-    <row r="26" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -2881,7 +2897,7 @@
       <c r="L26" s="11"/>
       <c r="M26" s="12"/>
     </row>
-    <row r="27" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -2896,7 +2912,7 @@
       <c r="L27" s="11"/>
       <c r="M27" s="12"/>
     </row>
-    <row r="28" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -2911,7 +2927,7 @@
       <c r="L28" s="11"/>
       <c r="M28" s="12"/>
     </row>
-    <row r="29" spans="1:13" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="17"/>
       <c r="B29" s="18"/>
       <c r="C29" s="18"/>
@@ -2951,18 +2967,18 @@
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" style="6" customWidth="1"/>
-    <col min="4" max="10" width="11.44140625" style="4" customWidth="1"/>
-    <col min="11" max="12" width="11.44140625" style="5" customWidth="1"/>
-    <col min="13" max="13" width="7.33203125" style="4" customWidth="1"/>
-    <col min="14" max="16384" width="8.77734375" style="3"/>
+    <col min="1" max="1" width="6.296875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.3984375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="11.3984375" style="6" customWidth="1"/>
+    <col min="4" max="10" width="11.3984375" style="4" customWidth="1"/>
+    <col min="11" max="12" width="11.3984375" style="5" customWidth="1"/>
+    <col min="13" max="13" width="7.296875" style="4" customWidth="1"/>
+    <col min="14" max="16384" width="8.796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="20"/>
       <c r="B1" s="21"/>
       <c r="C1" s="22"/>
@@ -2977,10 +2993,10 @@
       <c r="L1" s="21"/>
       <c r="M1" s="24"/>
     </row>
-    <row r="2" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="25"/>
       <c r="B2" s="26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" s="27"/>
       <c r="D2" s="28"/>
@@ -2990,14 +3006,14 @@
       <c r="H2" s="28"/>
       <c r="I2" s="28"/>
       <c r="J2" s="28"/>
-      <c r="K2" s="77" t="str">
+      <c r="K2" s="72" t="str">
         <f>표지!B11</f>
         <v>메뉴구조도</v>
       </c>
-      <c r="L2" s="77"/>
+      <c r="L2" s="72"/>
       <c r="M2" s="29"/>
     </row>
-    <row r="3" spans="1:13" ht="31.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="25"/>
       <c r="B3" s="30"/>
       <c r="C3" s="31"/>
@@ -3012,24 +3028,24 @@
       <c r="L3" s="30"/>
       <c r="M3" s="29"/>
     </row>
-    <row r="4" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="25"/>
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78"/>
-      <c r="K4" s="78"/>
-      <c r="L4" s="78"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
       <c r="M4" s="29"/>
     </row>
-    <row r="5" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="25"/>
       <c r="B5" s="33"/>
       <c r="C5" s="27"/>
@@ -3044,7 +3060,7 @@
       <c r="L5" s="33"/>
       <c r="M5" s="29"/>
     </row>
-    <row r="6" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="25"/>
       <c r="B6" s="43" t="s">
         <v>0</v>
@@ -3052,17 +3068,17 @@
       <c r="C6" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="79" t="s">
+      <c r="D6" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79" t="s">
+      <c r="E6" s="74"/>
+      <c r="F6" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="79"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="74"/>
       <c r="K6" s="43" t="s">
         <v>3</v>
       </c>
@@ -3071,7 +3087,7 @@
       </c>
       <c r="M6" s="29"/>
     </row>
-    <row r="7" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="65">
         <v>1</v>
@@ -3083,18 +3099,18 @@
         <v>21</v>
       </c>
       <c r="E7" s="76"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="74"/>
-      <c r="J7" s="73"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="78"/>
+      <c r="I7" s="78"/>
+      <c r="J7" s="79"/>
       <c r="K7" s="34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L7" s="34"/>
       <c r="M7" s="29"/>
     </row>
-    <row r="8" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="25"/>
       <c r="B8" s="65">
         <v>2</v>
@@ -3103,263 +3119,263 @@
         <v>45278</v>
       </c>
       <c r="D8" s="75" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E8" s="76"/>
-      <c r="F8" s="72" t="s">
-        <v>145</v>
-      </c>
-      <c r="G8" s="74"/>
-      <c r="H8" s="74"/>
-      <c r="I8" s="74"/>
-      <c r="J8" s="73"/>
+      <c r="F8" s="77" t="s">
+        <v>140</v>
+      </c>
+      <c r="G8" s="78"/>
+      <c r="H8" s="78"/>
+      <c r="I8" s="78"/>
+      <c r="J8" s="79"/>
       <c r="K8" s="34" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="L8" s="34"/>
       <c r="M8" s="29"/>
     </row>
-    <row r="9" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="25"/>
       <c r="B9" s="34"/>
       <c r="C9" s="35"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="74"/>
-      <c r="H9" s="74"/>
-      <c r="I9" s="74"/>
-      <c r="J9" s="73"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="78"/>
+      <c r="H9" s="78"/>
+      <c r="I9" s="78"/>
+      <c r="J9" s="79"/>
       <c r="K9" s="34"/>
       <c r="L9" s="34"/>
       <c r="M9" s="29"/>
     </row>
-    <row r="10" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="25"/>
       <c r="B10" s="34"/>
       <c r="C10" s="35"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="72"/>
-      <c r="G10" s="74"/>
-      <c r="H10" s="74"/>
-      <c r="I10" s="74"/>
-      <c r="J10" s="73"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="78"/>
+      <c r="I10" s="78"/>
+      <c r="J10" s="79"/>
       <c r="K10" s="34"/>
       <c r="L10" s="34"/>
       <c r="M10" s="29"/>
     </row>
-    <row r="11" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="25"/>
       <c r="B11" s="34"/>
       <c r="C11" s="35"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="72"/>
-      <c r="G11" s="74"/>
-      <c r="H11" s="74"/>
-      <c r="I11" s="74"/>
-      <c r="J11" s="73"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="78"/>
+      <c r="H11" s="78"/>
+      <c r="I11" s="78"/>
+      <c r="J11" s="79"/>
       <c r="K11" s="34"/>
       <c r="L11" s="34"/>
       <c r="M11" s="29"/>
     </row>
-    <row r="12" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="25"/>
       <c r="B12" s="36"/>
       <c r="C12" s="37"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="74"/>
-      <c r="H12" s="74"/>
-      <c r="I12" s="74"/>
-      <c r="J12" s="73"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="79"/>
       <c r="K12" s="36"/>
       <c r="L12" s="36"/>
       <c r="M12" s="29"/>
     </row>
-    <row r="13" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="25"/>
       <c r="B13" s="36"/>
       <c r="C13" s="37"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="72"/>
-      <c r="G13" s="74"/>
-      <c r="H13" s="74"/>
-      <c r="I13" s="74"/>
-      <c r="J13" s="73"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="78"/>
+      <c r="I13" s="78"/>
+      <c r="J13" s="79"/>
       <c r="K13" s="36"/>
       <c r="L13" s="36"/>
       <c r="M13" s="29"/>
     </row>
-    <row r="14" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="25"/>
       <c r="B14" s="36"/>
       <c r="C14" s="37"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="74"/>
-      <c r="H14" s="74"/>
-      <c r="I14" s="74"/>
-      <c r="J14" s="73"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="78"/>
+      <c r="I14" s="78"/>
+      <c r="J14" s="79"/>
       <c r="K14" s="36"/>
       <c r="L14" s="36"/>
       <c r="M14" s="29"/>
     </row>
-    <row r="15" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="25"/>
       <c r="B15" s="36"/>
       <c r="C15" s="37"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="74"/>
-      <c r="H15" s="74"/>
-      <c r="I15" s="74"/>
-      <c r="J15" s="73"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="78"/>
+      <c r="H15" s="78"/>
+      <c r="I15" s="78"/>
+      <c r="J15" s="79"/>
       <c r="K15" s="36"/>
       <c r="L15" s="36"/>
       <c r="M15" s="29"/>
     </row>
-    <row r="16" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="25"/>
       <c r="B16" s="36"/>
       <c r="C16" s="37"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="74"/>
-      <c r="H16" s="74"/>
-      <c r="I16" s="74"/>
-      <c r="J16" s="73"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="78"/>
+      <c r="H16" s="78"/>
+      <c r="I16" s="78"/>
+      <c r="J16" s="79"/>
       <c r="K16" s="36"/>
       <c r="L16" s="36"/>
       <c r="M16" s="29"/>
     </row>
-    <row r="17" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="25"/>
       <c r="B17" s="34"/>
       <c r="C17" s="35"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="74"/>
-      <c r="H17" s="74"/>
-      <c r="I17" s="74"/>
-      <c r="J17" s="73"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="78"/>
+      <c r="I17" s="78"/>
+      <c r="J17" s="79"/>
       <c r="K17" s="34"/>
       <c r="L17" s="34"/>
       <c r="M17" s="29"/>
     </row>
-    <row r="18" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="25"/>
       <c r="B18" s="34"/>
       <c r="C18" s="35"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="74"/>
-      <c r="H18" s="74"/>
-      <c r="I18" s="74"/>
-      <c r="J18" s="73"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="78"/>
+      <c r="I18" s="78"/>
+      <c r="J18" s="79"/>
       <c r="K18" s="34"/>
       <c r="L18" s="34"/>
       <c r="M18" s="29"/>
     </row>
-    <row r="19" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="25"/>
       <c r="B19" s="34"/>
       <c r="C19" s="35"/>
-      <c r="D19" s="72"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="72"/>
-      <c r="G19" s="74"/>
-      <c r="H19" s="74"/>
-      <c r="I19" s="74"/>
-      <c r="J19" s="73"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="78"/>
+      <c r="H19" s="78"/>
+      <c r="I19" s="78"/>
+      <c r="J19" s="79"/>
       <c r="K19" s="34"/>
       <c r="L19" s="34"/>
       <c r="M19" s="29"/>
     </row>
-    <row r="20" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="25"/>
       <c r="B20" s="34"/>
       <c r="C20" s="35"/>
-      <c r="D20" s="72"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="74"/>
-      <c r="H20" s="74"/>
-      <c r="I20" s="74"/>
-      <c r="J20" s="73"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="78"/>
+      <c r="H20" s="78"/>
+      <c r="I20" s="78"/>
+      <c r="J20" s="79"/>
       <c r="K20" s="34"/>
       <c r="L20" s="34"/>
       <c r="M20" s="29"/>
     </row>
-    <row r="21" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="25"/>
       <c r="B21" s="34"/>
       <c r="C21" s="35"/>
-      <c r="D21" s="72"/>
-      <c r="E21" s="73"/>
-      <c r="F21" s="72"/>
-      <c r="G21" s="74"/>
-      <c r="H21" s="74"/>
-      <c r="I21" s="74"/>
-      <c r="J21" s="73"/>
+      <c r="D21" s="77"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="77"/>
+      <c r="G21" s="78"/>
+      <c r="H21" s="78"/>
+      <c r="I21" s="78"/>
+      <c r="J21" s="79"/>
       <c r="K21" s="34"/>
       <c r="L21" s="34"/>
       <c r="M21" s="29"/>
     </row>
-    <row r="22" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="25"/>
       <c r="B22" s="34"/>
       <c r="C22" s="35"/>
-      <c r="D22" s="72"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="72"/>
-      <c r="G22" s="74"/>
-      <c r="H22" s="74"/>
-      <c r="I22" s="74"/>
-      <c r="J22" s="73"/>
+      <c r="D22" s="77"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="77"/>
+      <c r="G22" s="78"/>
+      <c r="H22" s="78"/>
+      <c r="I22" s="78"/>
+      <c r="J22" s="79"/>
       <c r="K22" s="34"/>
       <c r="L22" s="34"/>
       <c r="M22" s="29"/>
     </row>
-    <row r="23" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="25"/>
       <c r="B23" s="34"/>
       <c r="C23" s="35"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="74"/>
-      <c r="H23" s="74"/>
-      <c r="I23" s="74"/>
-      <c r="J23" s="73"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="78"/>
+      <c r="H23" s="78"/>
+      <c r="I23" s="78"/>
+      <c r="J23" s="79"/>
       <c r="K23" s="34"/>
       <c r="L23" s="34"/>
       <c r="M23" s="29"/>
     </row>
-    <row r="24" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="25"/>
       <c r="B24" s="34"/>
       <c r="C24" s="35"/>
-      <c r="D24" s="72"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="72"/>
-      <c r="G24" s="74"/>
-      <c r="H24" s="74"/>
-      <c r="I24" s="74"/>
-      <c r="J24" s="73"/>
+      <c r="D24" s="77"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="78"/>
+      <c r="H24" s="78"/>
+      <c r="I24" s="78"/>
+      <c r="J24" s="79"/>
       <c r="K24" s="34"/>
       <c r="L24" s="34"/>
       <c r="M24" s="29"/>
     </row>
-    <row r="25" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="25"/>
       <c r="B25" s="33"/>
       <c r="C25" s="27"/>
@@ -3374,7 +3390,7 @@
       <c r="L25" s="33"/>
       <c r="M25" s="29"/>
     </row>
-    <row r="26" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="25"/>
       <c r="B26" s="33"/>
       <c r="C26" s="27"/>
@@ -3389,7 +3405,7 @@
       <c r="L26" s="33"/>
       <c r="M26" s="29"/>
     </row>
-    <row r="27" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="25"/>
       <c r="B27" s="33"/>
       <c r="C27" s="27"/>
@@ -3404,7 +3420,7 @@
       <c r="L27" s="33"/>
       <c r="M27" s="29"/>
     </row>
-    <row r="28" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="25"/>
       <c r="B28" s="33"/>
       <c r="C28" s="27"/>
@@ -3419,7 +3435,7 @@
       <c r="L28" s="33"/>
       <c r="M28" s="29"/>
     </row>
-    <row r="29" spans="1:13" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="38"/>
       <c r="B29" s="39"/>
       <c r="C29" s="40"/>
@@ -3436,36 +3452,6 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="B4:L4"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:J7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:J8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:J10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:J11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:J14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:J15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:J17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:J18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:J19"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="F23:J23"/>
     <mergeCell ref="D24:E24"/>
@@ -3476,11 +3462,41 @@
     <mergeCell ref="F21:J21"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="F22:J22"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="B4:L4"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:J7"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="78" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="82" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3489,35 +3505,35 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q71"/>
+  <dimension ref="A1:Q73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J54" sqref="J54"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" style="45" customWidth="1"/>
-    <col min="2" max="2" width="4.33203125" style="45" customWidth="1"/>
-    <col min="3" max="3" width="11.77734375" style="45" customWidth="1"/>
-    <col min="4" max="4" width="3.44140625" style="46" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" style="45" customWidth="1"/>
-    <col min="6" max="6" width="3.33203125" style="46" customWidth="1"/>
+    <col min="2" max="2" width="4.296875" style="45" customWidth="1"/>
+    <col min="3" max="3" width="11.796875" style="45" customWidth="1"/>
+    <col min="4" max="4" width="3.3984375" style="46" customWidth="1"/>
+    <col min="5" max="5" width="17.296875" style="45" customWidth="1"/>
+    <col min="6" max="6" width="3.296875" style="46" customWidth="1"/>
     <col min="7" max="7" width="20" style="45" customWidth="1"/>
-    <col min="8" max="8" width="3.6640625" style="45" customWidth="1"/>
-    <col min="9" max="9" width="26.6640625" style="45" customWidth="1"/>
-    <col min="10" max="10" width="4.44140625" style="45" customWidth="1"/>
-    <col min="11" max="11" width="25.109375" style="45" customWidth="1"/>
-    <col min="12" max="12" width="4.44140625" style="45" customWidth="1"/>
-    <col min="13" max="13" width="11.109375" style="45" customWidth="1"/>
-    <col min="14" max="14" width="4.109375" style="45" customWidth="1"/>
-    <col min="15" max="15" width="7.77734375" style="45" customWidth="1"/>
-    <col min="16" max="16" width="13.44140625" style="45" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.109375" style="45" customWidth="1"/>
-    <col min="18" max="16384" width="8.77734375" style="45"/>
+    <col min="8" max="8" width="3.69921875" style="45" customWidth="1"/>
+    <col min="9" max="9" width="26.69921875" style="45" customWidth="1"/>
+    <col min="10" max="10" width="4.3984375" style="45" customWidth="1"/>
+    <col min="11" max="11" width="25.09765625" style="45" customWidth="1"/>
+    <col min="12" max="12" width="4.3984375" style="45" customWidth="1"/>
+    <col min="13" max="13" width="11.09765625" style="45" customWidth="1"/>
+    <col min="14" max="14" width="4.09765625" style="45" customWidth="1"/>
+    <col min="15" max="15" width="7.796875" style="45" customWidth="1"/>
+    <col min="16" max="16" width="13.3984375" style="45" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.09765625" style="45" customWidth="1"/>
+    <col min="18" max="16384" width="8.796875" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="57"/>
       <c r="B1" s="57"/>
       <c r="C1" s="57"/>
@@ -3536,7 +3552,7 @@
       <c r="P1" s="57"/>
       <c r="Q1" s="57"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="57"/>
       <c r="B2" s="57"/>
       <c r="C2" s="57"/>
@@ -3555,7 +3571,7 @@
       <c r="P2" s="57"/>
       <c r="Q2" s="57"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="57"/>
       <c r="B3" s="57"/>
       <c r="C3" s="57"/>
@@ -3574,7 +3590,7 @@
       <c r="P3" s="57"/>
       <c r="Q3" s="57"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="57"/>
       <c r="B4" s="57"/>
       <c r="C4" s="57"/>
@@ -3593,7 +3609,7 @@
       <c r="P4" s="57"/>
       <c r="Q4" s="57"/>
     </row>
-    <row r="5" spans="1:17" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:17" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="57"/>
       <c r="B5" s="57"/>
       <c r="C5" s="57"/>
@@ -3612,7 +3628,7 @@
       <c r="P5" s="57"/>
       <c r="Q5" s="57"/>
     </row>
-    <row r="6" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:17" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A6" s="54" t="s">
         <v>9</v>
       </c>
@@ -3651,9 +3667,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="47" t="s">
-        <v>38</v>
+        <v>153</v>
       </c>
       <c r="B7" s="48" t="s">
         <v>19</v>
@@ -3676,9 +3692,9 @@
       <c r="P7" s="51"/>
       <c r="Q7" s="52"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="47" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B8" s="48"/>
       <c r="C8" s="49"/>
@@ -3686,7 +3702,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="50" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F8" s="48"/>
       <c r="G8" s="50"/>
@@ -3701,9 +3717,9 @@
       <c r="P8" s="51"/>
       <c r="Q8" s="52"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="47" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B9" s="48"/>
       <c r="C9" s="49"/>
@@ -3713,7 +3729,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="50" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H9" s="55"/>
       <c r="I9" s="61"/>
@@ -3726,9 +3742,9 @@
       <c r="P9" s="51"/>
       <c r="Q9" s="52"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10" s="48"/>
       <c r="C10" s="49"/>
@@ -3740,7 +3756,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="61" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J10" s="48"/>
       <c r="K10" s="53"/>
@@ -3751,9 +3767,9 @@
       <c r="P10" s="51"/>
       <c r="Q10" s="52"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="47" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B11" s="48"/>
       <c r="C11" s="49"/>
@@ -3767,7 +3783,7 @@
         <v>1</v>
       </c>
       <c r="K11" s="53" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L11" s="48"/>
       <c r="M11" s="53"/>
@@ -3776,9 +3792,9 @@
       <c r="P11" s="51"/>
       <c r="Q11" s="52"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="47" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B12" s="48"/>
       <c r="C12" s="49"/>
@@ -3792,7 +3808,7 @@
         <v>2</v>
       </c>
       <c r="K12" s="53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L12" s="48"/>
       <c r="M12" s="53"/>
@@ -3801,9 +3817,9 @@
       <c r="P12" s="51"/>
       <c r="Q12" s="52"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="47" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B13" s="48"/>
       <c r="C13" s="49"/>
@@ -3817,7 +3833,7 @@
         <v>3</v>
       </c>
       <c r="K13" s="53" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L13" s="48"/>
       <c r="M13" s="53"/>
@@ -3826,9 +3842,9 @@
       <c r="P13" s="51"/>
       <c r="Q13" s="52"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="47" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B14" s="48"/>
       <c r="C14" s="49"/>
@@ -3838,7 +3854,7 @@
         <v>2</v>
       </c>
       <c r="G14" s="50" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H14" s="55"/>
       <c r="I14" s="61"/>
@@ -3851,9 +3867,9 @@
       <c r="P14" s="51"/>
       <c r="Q14" s="52"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="47" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B15" s="48"/>
       <c r="C15" s="49"/>
@@ -3865,7 +3881,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="61" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J15" s="48"/>
       <c r="K15" s="53"/>
@@ -3876,9 +3892,9 @@
       <c r="P15" s="51"/>
       <c r="Q15" s="52"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="47" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B16" s="48"/>
       <c r="C16" s="49"/>
@@ -3892,7 +3908,7 @@
         <v>1</v>
       </c>
       <c r="K16" s="53" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L16" s="48"/>
       <c r="M16" s="53"/>
@@ -3901,9 +3917,9 @@
       <c r="P16" s="51"/>
       <c r="Q16" s="52"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="47" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B17" s="48"/>
       <c r="C17" s="49"/>
@@ -3917,7 +3933,7 @@
         <v>2</v>
       </c>
       <c r="K17" s="53" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L17" s="48"/>
       <c r="M17" s="53"/>
@@ -3926,9 +3942,9 @@
       <c r="P17" s="51"/>
       <c r="Q17" s="52"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="47" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B18" s="48"/>
       <c r="C18" s="49"/>
@@ -3936,7 +3952,7 @@
         <v>2</v>
       </c>
       <c r="E18" s="50" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F18" s="48"/>
       <c r="G18" s="50"/>
@@ -3951,9 +3967,9 @@
       <c r="P18" s="51"/>
       <c r="Q18" s="52"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="47" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B19" s="48"/>
       <c r="C19" s="49"/>
@@ -3963,7 +3979,7 @@
         <v>1</v>
       </c>
       <c r="G19" s="50" t="s">
-        <v>61</v>
+        <v>145</v>
       </c>
       <c r="H19" s="55"/>
       <c r="I19" s="61"/>
@@ -3976,9 +3992,9 @@
       <c r="P19" s="51"/>
       <c r="Q19" s="52"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="47" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B20" s="48"/>
       <c r="C20" s="49"/>
@@ -3990,7 +4006,7 @@
         <v>1</v>
       </c>
       <c r="I20" s="61" t="s">
-        <v>62</v>
+        <v>152</v>
       </c>
       <c r="J20" s="48"/>
       <c r="K20" s="53"/>
@@ -4001,24 +4017,24 @@
       <c r="P20" s="51"/>
       <c r="Q20" s="52"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="47" t="s">
-        <v>95</v>
+        <v>148</v>
       </c>
       <c r="B21" s="48"/>
       <c r="C21" s="49"/>
       <c r="D21" s="48"/>
       <c r="E21" s="50"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="50"/>
+      <c r="F21" s="48">
+        <v>2</v>
+      </c>
+      <c r="G21" s="50" t="s">
+        <v>60</v>
+      </c>
       <c r="H21" s="55"/>
       <c r="I21" s="61"/>
-      <c r="J21" s="48">
-        <v>1</v>
-      </c>
-      <c r="K21" s="53" t="s">
-        <v>61</v>
-      </c>
+      <c r="J21" s="48"/>
+      <c r="K21" s="53"/>
       <c r="L21" s="48"/>
       <c r="M21" s="53"/>
       <c r="N21" s="48"/>
@@ -4026,9 +4042,9 @@
       <c r="P21" s="51"/>
       <c r="Q21" s="52"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="47" t="s">
-        <v>96</v>
+        <v>149</v>
       </c>
       <c r="B22" s="48"/>
       <c r="C22" s="49"/>
@@ -4036,14 +4052,14 @@
       <c r="E22" s="50"/>
       <c r="F22" s="48"/>
       <c r="G22" s="50"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="61"/>
-      <c r="J22" s="48">
-        <v>2</v>
-      </c>
-      <c r="K22" s="53" t="s">
-        <v>64</v>
-      </c>
+      <c r="H22" s="55">
+        <v>1</v>
+      </c>
+      <c r="I22" s="61" t="s">
+        <v>61</v>
+      </c>
+      <c r="J22" s="48"/>
+      <c r="K22" s="53"/>
       <c r="L22" s="48"/>
       <c r="M22" s="53"/>
       <c r="N22" s="48"/>
@@ -4051,24 +4067,24 @@
       <c r="P22" s="51"/>
       <c r="Q22" s="52"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="47" t="s">
-        <v>98</v>
+        <v>150</v>
       </c>
       <c r="B23" s="48"/>
       <c r="C23" s="49"/>
       <c r="D23" s="48"/>
       <c r="E23" s="50"/>
-      <c r="F23" s="48">
-        <v>2</v>
-      </c>
-      <c r="G23" s="50" t="s">
-        <v>65</v>
-      </c>
+      <c r="F23" s="48"/>
+      <c r="G23" s="50"/>
       <c r="H23" s="55"/>
       <c r="I23" s="61"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="53"/>
+      <c r="J23" s="48">
+        <v>1</v>
+      </c>
+      <c r="K23" s="53" t="s">
+        <v>60</v>
+      </c>
       <c r="L23" s="48"/>
       <c r="M23" s="53"/>
       <c r="N23" s="48"/>
@@ -4076,9 +4092,9 @@
       <c r="P23" s="51"/>
       <c r="Q23" s="52"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="47" t="s">
-        <v>97</v>
+        <v>151</v>
       </c>
       <c r="B24" s="48"/>
       <c r="C24" s="49"/>
@@ -4086,14 +4102,14 @@
       <c r="E24" s="50"/>
       <c r="F24" s="48"/>
       <c r="G24" s="50"/>
-      <c r="H24" s="55">
-        <v>1</v>
-      </c>
-      <c r="I24" s="61" t="s">
-        <v>67</v>
-      </c>
-      <c r="J24" s="48"/>
-      <c r="K24" s="53"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="61"/>
+      <c r="J24" s="48">
+        <v>2</v>
+      </c>
+      <c r="K24" s="53" t="s">
+        <v>63</v>
+      </c>
       <c r="L24" s="48"/>
       <c r="M24" s="53"/>
       <c r="N24" s="48"/>
@@ -4101,20 +4117,20 @@
       <c r="P24" s="51"/>
       <c r="Q24" s="52"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="47" t="s">
-        <v>99</v>
+        <v>146</v>
       </c>
       <c r="B25" s="48"/>
       <c r="C25" s="49"/>
-      <c r="D25" s="48">
+      <c r="D25" s="48"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="48">
         <v>3</v>
       </c>
-      <c r="E25" s="50" t="s">
-        <v>68</v>
-      </c>
-      <c r="F25" s="48"/>
-      <c r="G25" s="50"/>
+      <c r="G25" s="50" t="s">
+        <v>64</v>
+      </c>
       <c r="H25" s="55"/>
       <c r="I25" s="61"/>
       <c r="J25" s="48"/>
@@ -4126,22 +4142,22 @@
       <c r="P25" s="51"/>
       <c r="Q25" s="52"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="47" t="s">
-        <v>100</v>
+        <v>147</v>
       </c>
       <c r="B26" s="48"/>
       <c r="C26" s="49"/>
       <c r="D26" s="48"/>
       <c r="E26" s="50"/>
-      <c r="F26" s="48">
+      <c r="F26" s="48"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="55">
         <v>1</v>
       </c>
-      <c r="G26" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="H26" s="55"/>
-      <c r="I26" s="61"/>
+      <c r="I26" s="61" t="s">
+        <v>66</v>
+      </c>
       <c r="J26" s="48"/>
       <c r="K26" s="53"/>
       <c r="L26" s="48"/>
@@ -4151,22 +4167,22 @@
       <c r="P26" s="51"/>
       <c r="Q26" s="52"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="47" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B27" s="48"/>
       <c r="C27" s="49"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="50"/>
+      <c r="D27" s="48">
+        <v>3</v>
+      </c>
+      <c r="E27" s="50" t="s">
+        <v>67</v>
+      </c>
       <c r="F27" s="48"/>
       <c r="G27" s="50"/>
-      <c r="H27" s="55">
-        <v>1</v>
-      </c>
-      <c r="I27" s="61" t="s">
-        <v>33</v>
-      </c>
+      <c r="H27" s="55"/>
+      <c r="I27" s="61"/>
       <c r="J27" s="48"/>
       <c r="K27" s="53"/>
       <c r="L27" s="48"/>
@@ -4176,24 +4192,24 @@
       <c r="P27" s="51"/>
       <c r="Q27" s="52"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="47" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B28" s="48"/>
       <c r="C28" s="49"/>
       <c r="D28" s="48"/>
       <c r="E28" s="50"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="50"/>
+      <c r="F28" s="48">
+        <v>1</v>
+      </c>
+      <c r="G28" s="50" t="s">
+        <v>56</v>
+      </c>
       <c r="H28" s="55"/>
       <c r="I28" s="61"/>
-      <c r="J28" s="48">
-        <v>1</v>
-      </c>
-      <c r="K28" s="53" t="s">
-        <v>58</v>
-      </c>
+      <c r="J28" s="48"/>
+      <c r="K28" s="53"/>
       <c r="L28" s="48"/>
       <c r="M28" s="53"/>
       <c r="N28" s="48"/>
@@ -4201,22 +4217,22 @@
       <c r="P28" s="51"/>
       <c r="Q28" s="52"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A29" s="58" t="s">
-        <v>103</v>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="47" t="s">
+        <v>96</v>
       </c>
       <c r="B29" s="48"/>
       <c r="C29" s="49"/>
       <c r="D29" s="48"/>
       <c r="E29" s="50"/>
-      <c r="F29" s="48">
-        <v>2</v>
-      </c>
-      <c r="G29" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="H29" s="55"/>
-      <c r="I29" s="61"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="55">
+        <v>1</v>
+      </c>
+      <c r="I29" s="61" t="s">
+        <v>33</v>
+      </c>
       <c r="J29" s="48"/>
       <c r="K29" s="53"/>
       <c r="L29" s="48"/>
@@ -4226,9 +4242,9 @@
       <c r="P29" s="51"/>
       <c r="Q29" s="52"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A30" s="58" t="s">
-        <v>104</v>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="47" t="s">
+        <v>97</v>
       </c>
       <c r="B30" s="48"/>
       <c r="C30" s="49"/>
@@ -4236,14 +4252,14 @@
       <c r="E30" s="50"/>
       <c r="F30" s="48"/>
       <c r="G30" s="50"/>
-      <c r="H30" s="55">
+      <c r="H30" s="55"/>
+      <c r="I30" s="61"/>
+      <c r="J30" s="48">
         <v>1</v>
       </c>
-      <c r="I30" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="J30" s="48"/>
-      <c r="K30" s="53"/>
+      <c r="K30" s="53" t="s">
+        <v>57</v>
+      </c>
       <c r="L30" s="48"/>
       <c r="M30" s="53"/>
       <c r="N30" s="48"/>
@@ -4251,24 +4267,24 @@
       <c r="P30" s="51"/>
       <c r="Q30" s="52"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="58" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B31" s="48"/>
       <c r="C31" s="49"/>
       <c r="D31" s="48"/>
       <c r="E31" s="50"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="50"/>
+      <c r="F31" s="48">
+        <v>2</v>
+      </c>
+      <c r="G31" s="50" t="s">
+        <v>23</v>
+      </c>
       <c r="H31" s="55"/>
       <c r="I31" s="61"/>
-      <c r="J31" s="48">
-        <v>1</v>
-      </c>
-      <c r="K31" s="53" t="s">
-        <v>32</v>
-      </c>
+      <c r="J31" s="48"/>
+      <c r="K31" s="53"/>
       <c r="L31" s="48"/>
       <c r="M31" s="53"/>
       <c r="N31" s="48"/>
@@ -4276,22 +4292,22 @@
       <c r="P31" s="51"/>
       <c r="Q31" s="52"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="58" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B32" s="48"/>
       <c r="C32" s="49"/>
       <c r="D32" s="48"/>
       <c r="E32" s="50"/>
-      <c r="F32" s="48">
-        <v>3</v>
-      </c>
-      <c r="G32" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="H32" s="55"/>
-      <c r="I32" s="61"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="55">
+        <v>1</v>
+      </c>
+      <c r="I32" s="61" t="s">
+        <v>31</v>
+      </c>
       <c r="J32" s="48"/>
       <c r="K32" s="53"/>
       <c r="L32" s="48"/>
@@ -4301,9 +4317,9 @@
       <c r="P32" s="51"/>
       <c r="Q32" s="52"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="58" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B33" s="48"/>
       <c r="C33" s="49"/>
@@ -4311,14 +4327,14 @@
       <c r="E33" s="50"/>
       <c r="F33" s="48"/>
       <c r="G33" s="50"/>
-      <c r="H33" s="55">
+      <c r="H33" s="55"/>
+      <c r="I33" s="61"/>
+      <c r="J33" s="48">
         <v>1</v>
       </c>
-      <c r="I33" s="61" t="s">
-        <v>34</v>
-      </c>
-      <c r="J33" s="48"/>
-      <c r="K33" s="53"/>
+      <c r="K33" s="53" t="s">
+        <v>32</v>
+      </c>
       <c r="L33" s="48"/>
       <c r="M33" s="53"/>
       <c r="N33" s="48"/>
@@ -4326,24 +4342,24 @@
       <c r="P33" s="51"/>
       <c r="Q33" s="52"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="58" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B34" s="48"/>
       <c r="C34" s="49"/>
       <c r="D34" s="48"/>
       <c r="E34" s="50"/>
-      <c r="F34" s="48"/>
-      <c r="G34" s="50"/>
+      <c r="F34" s="48">
+        <v>3</v>
+      </c>
+      <c r="G34" s="50" t="s">
+        <v>24</v>
+      </c>
       <c r="H34" s="55"/>
       <c r="I34" s="61"/>
-      <c r="J34" s="48">
-        <v>1</v>
-      </c>
-      <c r="K34" s="53" t="s">
-        <v>35</v>
-      </c>
+      <c r="J34" s="48"/>
+      <c r="K34" s="53"/>
       <c r="L34" s="48"/>
       <c r="M34" s="53"/>
       <c r="N34" s="48"/>
@@ -4351,22 +4367,22 @@
       <c r="P34" s="51"/>
       <c r="Q34" s="52"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="58" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B35" s="48"/>
       <c r="C35" s="49"/>
       <c r="D35" s="48"/>
       <c r="E35" s="50"/>
-      <c r="F35" s="48">
-        <v>4</v>
-      </c>
-      <c r="G35" s="50" t="s">
-        <v>25</v>
-      </c>
-      <c r="H35" s="55"/>
-      <c r="I35" s="61"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="55">
+        <v>1</v>
+      </c>
+      <c r="I35" s="61" t="s">
+        <v>34</v>
+      </c>
       <c r="J35" s="48"/>
       <c r="K35" s="53"/>
       <c r="L35" s="48"/>
@@ -4376,9 +4392,9 @@
       <c r="P35" s="51"/>
       <c r="Q35" s="52"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="58" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B36" s="48"/>
       <c r="C36" s="49"/>
@@ -4386,14 +4402,14 @@
       <c r="E36" s="50"/>
       <c r="F36" s="48"/>
       <c r="G36" s="50"/>
-      <c r="H36" s="55">
+      <c r="H36" s="55"/>
+      <c r="I36" s="61"/>
+      <c r="J36" s="48">
         <v>1</v>
       </c>
-      <c r="I36" s="61" t="s">
-        <v>36</v>
-      </c>
-      <c r="J36" s="48"/>
-      <c r="K36" s="53"/>
+      <c r="K36" s="53" t="s">
+        <v>35</v>
+      </c>
       <c r="L36" s="48"/>
       <c r="M36" s="53"/>
       <c r="N36" s="48"/>
@@ -4401,24 +4417,24 @@
       <c r="P36" s="51"/>
       <c r="Q36" s="52"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="58" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B37" s="48"/>
       <c r="C37" s="49"/>
       <c r="D37" s="48"/>
       <c r="E37" s="50"/>
-      <c r="F37" s="48"/>
-      <c r="G37" s="50"/>
+      <c r="F37" s="48">
+        <v>4</v>
+      </c>
+      <c r="G37" s="50" t="s">
+        <v>25</v>
+      </c>
       <c r="H37" s="55"/>
       <c r="I37" s="61"/>
-      <c r="J37" s="48">
-        <v>1</v>
-      </c>
-      <c r="K37" s="53" t="s">
-        <v>37</v>
-      </c>
+      <c r="J37" s="48"/>
+      <c r="K37" s="53"/>
       <c r="L37" s="48"/>
       <c r="M37" s="53"/>
       <c r="N37" s="48"/>
@@ -4426,9 +4442,9 @@
       <c r="P37" s="51"/>
       <c r="Q37" s="52"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="58" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B38" s="48"/>
       <c r="C38" s="49"/>
@@ -4436,14 +4452,14 @@
       <c r="E38" s="50"/>
       <c r="F38" s="48"/>
       <c r="G38" s="50"/>
-      <c r="H38" s="55"/>
-      <c r="I38" s="61"/>
-      <c r="J38" s="48">
-        <v>2</v>
-      </c>
-      <c r="K38" s="53" t="s">
-        <v>149</v>
-      </c>
+      <c r="H38" s="55">
+        <v>1</v>
+      </c>
+      <c r="I38" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="J38" s="48"/>
+      <c r="K38" s="53"/>
       <c r="L38" s="48"/>
       <c r="M38" s="53"/>
       <c r="N38" s="48"/>
@@ -4451,24 +4467,24 @@
       <c r="P38" s="51"/>
       <c r="Q38" s="52"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="58" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B39" s="48"/>
       <c r="C39" s="49"/>
       <c r="D39" s="48"/>
       <c r="E39" s="50"/>
-      <c r="F39" s="48">
-        <v>5</v>
-      </c>
-      <c r="G39" s="50" t="s">
-        <v>69</v>
-      </c>
+      <c r="F39" s="48"/>
+      <c r="G39" s="50"/>
       <c r="H39" s="55"/>
       <c r="I39" s="61"/>
-      <c r="J39" s="48"/>
-      <c r="K39" s="53"/>
+      <c r="J39" s="48">
+        <v>1</v>
+      </c>
+      <c r="K39" s="53" t="s">
+        <v>37</v>
+      </c>
       <c r="L39" s="48"/>
       <c r="M39" s="53"/>
       <c r="N39" s="48"/>
@@ -4476,24 +4492,24 @@
       <c r="P39" s="51"/>
       <c r="Q39" s="52"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="58" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B40" s="48"/>
       <c r="C40" s="49"/>
       <c r="D40" s="48"/>
       <c r="E40" s="50"/>
-      <c r="F40" s="56"/>
-      <c r="G40" s="57"/>
-      <c r="H40" s="48">
-        <v>1</v>
-      </c>
-      <c r="I40" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="J40" s="55"/>
-      <c r="K40" s="61"/>
+      <c r="F40" s="48"/>
+      <c r="G40" s="50"/>
+      <c r="H40" s="55"/>
+      <c r="I40" s="61"/>
+      <c r="J40" s="48">
+        <v>2</v>
+      </c>
+      <c r="K40" s="53" t="s">
+        <v>144</v>
+      </c>
       <c r="L40" s="48"/>
       <c r="M40" s="53"/>
       <c r="N40" s="48"/>
@@ -4501,24 +4517,24 @@
       <c r="P40" s="51"/>
       <c r="Q40" s="52"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="58" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B41" s="48"/>
       <c r="C41" s="49"/>
       <c r="D41" s="48"/>
       <c r="E41" s="50"/>
-      <c r="F41" s="56"/>
-      <c r="G41" s="57"/>
-      <c r="H41" s="48"/>
-      <c r="I41" s="53"/>
-      <c r="J41" s="55">
-        <v>1</v>
-      </c>
-      <c r="K41" s="61" t="s">
-        <v>49</v>
-      </c>
+      <c r="F41" s="48">
+        <v>5</v>
+      </c>
+      <c r="G41" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="H41" s="55"/>
+      <c r="I41" s="61"/>
+      <c r="J41" s="48"/>
+      <c r="K41" s="53"/>
       <c r="L41" s="48"/>
       <c r="M41" s="53"/>
       <c r="N41" s="48"/>
@@ -4526,24 +4542,24 @@
       <c r="P41" s="51"/>
       <c r="Q41" s="52"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="58" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B42" s="48"/>
       <c r="C42" s="49"/>
       <c r="D42" s="48"/>
       <c r="E42" s="50"/>
-      <c r="F42" s="48">
-        <v>6</v>
-      </c>
-      <c r="G42" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="H42" s="48"/>
-      <c r="I42" s="53"/>
-      <c r="J42" s="57"/>
-      <c r="K42" s="63"/>
+      <c r="F42" s="56"/>
+      <c r="G42" s="57"/>
+      <c r="H42" s="48">
+        <v>1</v>
+      </c>
+      <c r="I42" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="J42" s="55"/>
+      <c r="K42" s="61"/>
       <c r="L42" s="48"/>
       <c r="M42" s="53"/>
       <c r="N42" s="48"/>
@@ -4551,24 +4567,24 @@
       <c r="P42" s="51"/>
       <c r="Q42" s="52"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="58" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B43" s="48"/>
       <c r="C43" s="49"/>
       <c r="D43" s="48"/>
       <c r="E43" s="50"/>
-      <c r="F43" s="48"/>
-      <c r="G43" s="50"/>
-      <c r="H43" s="48">
+      <c r="F43" s="56"/>
+      <c r="G43" s="57"/>
+      <c r="H43" s="48"/>
+      <c r="I43" s="53"/>
+      <c r="J43" s="55">
         <v>1</v>
       </c>
-      <c r="I43" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="J43" s="57"/>
-      <c r="K43" s="63"/>
+      <c r="K43" s="61" t="s">
+        <v>48</v>
+      </c>
       <c r="L43" s="48"/>
       <c r="M43" s="53"/>
       <c r="N43" s="48"/>
@@ -4576,19 +4592,19 @@
       <c r="P43" s="51"/>
       <c r="Q43" s="52"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="58" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B44" s="48"/>
       <c r="C44" s="49"/>
-      <c r="D44" s="56"/>
-      <c r="E44" s="57"/>
+      <c r="D44" s="48"/>
+      <c r="E44" s="50"/>
       <c r="F44" s="48">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G44" s="50" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H44" s="48"/>
       <c r="I44" s="53"/>
@@ -4598,24 +4614,24 @@
       <c r="M44" s="53"/>
       <c r="N44" s="48"/>
       <c r="O44" s="50"/>
-      <c r="P44" s="53"/>
-      <c r="Q44" s="50"/>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="P44" s="51"/>
+      <c r="Q44" s="52"/>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="58" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B45" s="48"/>
       <c r="C45" s="49"/>
-      <c r="D45" s="56"/>
-      <c r="E45" s="57"/>
+      <c r="D45" s="48"/>
+      <c r="E45" s="50"/>
       <c r="F45" s="48"/>
       <c r="G45" s="50"/>
       <c r="H45" s="48">
         <v>1</v>
       </c>
       <c r="I45" s="53" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J45" s="57"/>
       <c r="K45" s="63"/>
@@ -4626,49 +4642,49 @@
       <c r="P45" s="51"/>
       <c r="Q45" s="52"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="58" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B46" s="48"/>
       <c r="C46" s="49"/>
       <c r="D46" s="56"/>
       <c r="E46" s="57"/>
-      <c r="F46" s="48"/>
-      <c r="G46" s="50"/>
-      <c r="H46" s="48">
-        <v>2</v>
-      </c>
-      <c r="I46" s="53" t="s">
-        <v>30</v>
-      </c>
+      <c r="F46" s="48">
+        <v>7</v>
+      </c>
+      <c r="G46" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="H46" s="48"/>
+      <c r="I46" s="53"/>
       <c r="J46" s="57"/>
       <c r="K46" s="63"/>
       <c r="L46" s="48"/>
       <c r="M46" s="53"/>
       <c r="N46" s="48"/>
       <c r="O46" s="50"/>
-      <c r="P46" s="51"/>
-      <c r="Q46" s="52"/>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="P46" s="53"/>
+      <c r="Q46" s="50"/>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="58" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B47" s="48"/>
       <c r="C47" s="49"/>
       <c r="D47" s="56"/>
       <c r="E47" s="57"/>
-      <c r="F47" s="48">
-        <v>8</v>
-      </c>
-      <c r="G47" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="H47" s="48"/>
-      <c r="I47" s="62"/>
-      <c r="J47" s="55"/>
-      <c r="K47" s="61"/>
+      <c r="F47" s="48"/>
+      <c r="G47" s="50"/>
+      <c r="H47" s="48">
+        <v>1</v>
+      </c>
+      <c r="I47" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="J47" s="57"/>
+      <c r="K47" s="63"/>
       <c r="L47" s="48"/>
       <c r="M47" s="53"/>
       <c r="N47" s="48"/>
@@ -4676,9 +4692,9 @@
       <c r="P47" s="51"/>
       <c r="Q47" s="52"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="58" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B48" s="48"/>
       <c r="C48" s="49"/>
@@ -4687,13 +4703,13 @@
       <c r="F48" s="48"/>
       <c r="G48" s="50"/>
       <c r="H48" s="48">
-        <v>1</v>
-      </c>
-      <c r="I48" s="62" t="s">
-        <v>45</v>
-      </c>
-      <c r="J48" s="55"/>
-      <c r="K48" s="61"/>
+        <v>2</v>
+      </c>
+      <c r="I48" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="J48" s="57"/>
+      <c r="K48" s="63"/>
       <c r="L48" s="48"/>
       <c r="M48" s="53"/>
       <c r="N48" s="48"/>
@@ -4701,24 +4717,24 @@
       <c r="P48" s="51"/>
       <c r="Q48" s="52"/>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="58" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B49" s="48"/>
       <c r="C49" s="49"/>
       <c r="D49" s="56"/>
       <c r="E49" s="57"/>
-      <c r="F49" s="48"/>
-      <c r="G49" s="50"/>
+      <c r="F49" s="48">
+        <v>8</v>
+      </c>
+      <c r="G49" s="50" t="s">
+        <v>49</v>
+      </c>
       <c r="H49" s="48"/>
       <c r="I49" s="62"/>
-      <c r="J49" s="55">
-        <v>1</v>
-      </c>
-      <c r="K49" s="61" t="s">
-        <v>43</v>
-      </c>
+      <c r="J49" s="55"/>
+      <c r="K49" s="61"/>
       <c r="L49" s="48"/>
       <c r="M49" s="53"/>
       <c r="N49" s="48"/>
@@ -4726,9 +4742,9 @@
       <c r="P49" s="51"/>
       <c r="Q49" s="52"/>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="58" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B50" s="48"/>
       <c r="C50" s="49"/>
@@ -4737,7 +4753,7 @@
       <c r="F50" s="48"/>
       <c r="G50" s="50"/>
       <c r="H50" s="48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I50" s="62" t="s">
         <v>44</v>
@@ -4751,9 +4767,9 @@
       <c r="P50" s="51"/>
       <c r="Q50" s="52"/>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="58" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B51" s="48"/>
       <c r="C51" s="49"/>
@@ -4767,7 +4783,7 @@
         <v>1</v>
       </c>
       <c r="K51" s="61" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="L51" s="48"/>
       <c r="M51" s="53"/>
@@ -4776,22 +4792,22 @@
       <c r="P51" s="51"/>
       <c r="Q51" s="52"/>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="58" t="s">
-        <v>41</v>
+        <v>119</v>
       </c>
       <c r="B52" s="48"/>
       <c r="C52" s="49"/>
-      <c r="D52" s="56">
-        <v>4</v>
-      </c>
-      <c r="E52" s="59" t="s">
-        <v>75</v>
-      </c>
+      <c r="D52" s="56"/>
+      <c r="E52" s="57"/>
       <c r="F52" s="48"/>
       <c r="G52" s="50"/>
-      <c r="H52" s="48"/>
-      <c r="I52" s="62"/>
+      <c r="H52" s="48">
+        <v>2</v>
+      </c>
+      <c r="I52" s="62" t="s">
+        <v>43</v>
+      </c>
       <c r="J52" s="55"/>
       <c r="K52" s="61"/>
       <c r="L52" s="48"/>
@@ -4801,74 +4817,74 @@
       <c r="P52" s="51"/>
       <c r="Q52" s="52"/>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="58" t="s">
-        <v>126</v>
-      </c>
-      <c r="B53" s="57"/>
-      <c r="C53" s="57"/>
+        <v>120</v>
+      </c>
+      <c r="B53" s="48"/>
+      <c r="C53" s="49"/>
       <c r="D53" s="56"/>
       <c r="E53" s="57"/>
-      <c r="F53" s="48">
+      <c r="F53" s="48"/>
+      <c r="G53" s="50"/>
+      <c r="H53" s="48"/>
+      <c r="I53" s="62"/>
+      <c r="J53" s="55">
         <v>1</v>
       </c>
-      <c r="G53" s="50" t="s">
-        <v>71</v>
-      </c>
-      <c r="H53" s="55"/>
-      <c r="I53" s="61"/>
-      <c r="J53" s="48"/>
-      <c r="K53" s="53"/>
-      <c r="L53" s="57"/>
-      <c r="M53" s="63"/>
-      <c r="N53" s="57"/>
-      <c r="O53" s="57"/>
-      <c r="P53" s="57"/>
-      <c r="Q53" s="57"/>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="K53" s="61" t="s">
+        <v>69</v>
+      </c>
+      <c r="L53" s="48"/>
+      <c r="M53" s="53"/>
+      <c r="N53" s="48"/>
+      <c r="O53" s="50"/>
+      <c r="P53" s="51"/>
+      <c r="Q53" s="52"/>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="58" t="s">
-        <v>127</v>
-      </c>
-      <c r="B54" s="57"/>
-      <c r="C54" s="57"/>
-      <c r="D54" s="56"/>
-      <c r="E54" s="57"/>
+        <v>40</v>
+      </c>
+      <c r="B54" s="48"/>
+      <c r="C54" s="49"/>
+      <c r="D54" s="56">
+        <v>4</v>
+      </c>
+      <c r="E54" s="59" t="s">
+        <v>74</v>
+      </c>
       <c r="F54" s="48"/>
       <c r="G54" s="50"/>
-      <c r="H54" s="55">
-        <v>1</v>
-      </c>
-      <c r="I54" s="61" t="s">
-        <v>72</v>
-      </c>
-      <c r="J54" s="48"/>
-      <c r="K54" s="53"/>
-      <c r="L54" s="57"/>
-      <c r="M54" s="63"/>
-      <c r="N54" s="57"/>
-      <c r="O54" s="57"/>
-      <c r="P54" s="57"/>
-      <c r="Q54" s="57"/>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="H54" s="48"/>
+      <c r="I54" s="62"/>
+      <c r="J54" s="55"/>
+      <c r="K54" s="61"/>
+      <c r="L54" s="48"/>
+      <c r="M54" s="53"/>
+      <c r="N54" s="48"/>
+      <c r="O54" s="50"/>
+      <c r="P54" s="51"/>
+      <c r="Q54" s="52"/>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="58" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B55" s="57"/>
       <c r="C55" s="57"/>
       <c r="D55" s="56"/>
       <c r="E55" s="57"/>
-      <c r="F55" s="48"/>
-      <c r="G55" s="50"/>
+      <c r="F55" s="48">
+        <v>1</v>
+      </c>
+      <c r="G55" s="50" t="s">
+        <v>70</v>
+      </c>
       <c r="H55" s="55"/>
       <c r="I55" s="61"/>
-      <c r="J55" s="48">
-        <v>1</v>
-      </c>
-      <c r="K55" s="53" t="s">
-        <v>73</v>
-      </c>
+      <c r="J55" s="48"/>
+      <c r="K55" s="53"/>
       <c r="L55" s="57"/>
       <c r="M55" s="63"/>
       <c r="N55" s="57"/>
@@ -4876,9 +4892,9 @@
       <c r="P55" s="57"/>
       <c r="Q55" s="57"/>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="58" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B56" s="57"/>
       <c r="C56" s="57"/>
@@ -4887,10 +4903,10 @@
       <c r="F56" s="48"/>
       <c r="G56" s="50"/>
       <c r="H56" s="55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I56" s="61" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="J56" s="48"/>
       <c r="K56" s="53"/>
@@ -4901,9 +4917,9 @@
       <c r="P56" s="57"/>
       <c r="Q56" s="57"/>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="58" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B57" s="57"/>
       <c r="C57" s="57"/>
@@ -4917,7 +4933,7 @@
         <v>1</v>
       </c>
       <c r="K57" s="53" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L57" s="57"/>
       <c r="M57" s="63"/>
@@ -4926,24 +4942,24 @@
       <c r="P57" s="57"/>
       <c r="Q57" s="57"/>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="58" t="s">
-        <v>42</v>
+        <v>124</v>
       </c>
       <c r="B58" s="57"/>
       <c r="C58" s="57"/>
-      <c r="D58" s="56">
-        <v>5</v>
-      </c>
-      <c r="E58" s="60" t="s">
-        <v>86</v>
-      </c>
+      <c r="D58" s="56"/>
+      <c r="E58" s="57"/>
       <c r="F58" s="48"/>
       <c r="G58" s="50"/>
-      <c r="H58" s="48"/>
-      <c r="I58" s="62"/>
-      <c r="J58" s="55"/>
-      <c r="K58" s="61"/>
+      <c r="H58" s="55">
+        <v>2</v>
+      </c>
+      <c r="I58" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="J58" s="48"/>
+      <c r="K58" s="53"/>
       <c r="L58" s="57"/>
       <c r="M58" s="63"/>
       <c r="N58" s="57"/>
@@ -4951,24 +4967,24 @@
       <c r="P58" s="57"/>
       <c r="Q58" s="57"/>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="58" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B59" s="57"/>
       <c r="C59" s="57"/>
       <c r="D59" s="56"/>
       <c r="E59" s="57"/>
-      <c r="F59" s="48">
-        <v>1</v>
-      </c>
-      <c r="G59" s="50" t="s">
-        <v>71</v>
-      </c>
+      <c r="F59" s="48"/>
+      <c r="G59" s="50"/>
       <c r="H59" s="55"/>
       <c r="I59" s="61"/>
-      <c r="J59" s="48"/>
-      <c r="K59" s="53"/>
+      <c r="J59" s="48">
+        <v>1</v>
+      </c>
+      <c r="K59" s="53" t="s">
+        <v>72</v>
+      </c>
       <c r="L59" s="57"/>
       <c r="M59" s="63"/>
       <c r="N59" s="57"/>
@@ -4976,24 +4992,24 @@
       <c r="P59" s="57"/>
       <c r="Q59" s="57"/>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="58" t="s">
-        <v>132</v>
+        <v>41</v>
       </c>
       <c r="B60" s="57"/>
       <c r="C60" s="57"/>
-      <c r="D60" s="56"/>
-      <c r="E60" s="57"/>
+      <c r="D60" s="56">
+        <v>5</v>
+      </c>
+      <c r="E60" s="60" t="s">
+        <v>85</v>
+      </c>
       <c r="F60" s="48"/>
       <c r="G60" s="50"/>
-      <c r="H60" s="55">
-        <v>1</v>
-      </c>
-      <c r="I60" s="61" t="s">
-        <v>72</v>
-      </c>
-      <c r="J60" s="48"/>
-      <c r="K60" s="53"/>
+      <c r="H60" s="48"/>
+      <c r="I60" s="62"/>
+      <c r="J60" s="55"/>
+      <c r="K60" s="61"/>
       <c r="L60" s="57"/>
       <c r="M60" s="63"/>
       <c r="N60" s="57"/>
@@ -5001,24 +5017,24 @@
       <c r="P60" s="57"/>
       <c r="Q60" s="57"/>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="58" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B61" s="57"/>
       <c r="C61" s="57"/>
       <c r="D61" s="56"/>
       <c r="E61" s="57"/>
-      <c r="F61" s="48"/>
-      <c r="G61" s="50"/>
+      <c r="F61" s="48">
+        <v>1</v>
+      </c>
+      <c r="G61" s="50" t="s">
+        <v>70</v>
+      </c>
       <c r="H61" s="55"/>
       <c r="I61" s="61"/>
-      <c r="J61" s="48">
-        <v>1</v>
-      </c>
-      <c r="K61" s="53" t="s">
-        <v>76</v>
-      </c>
+      <c r="J61" s="48"/>
+      <c r="K61" s="53"/>
       <c r="L61" s="57"/>
       <c r="M61" s="63"/>
       <c r="N61" s="57"/>
@@ -5026,9 +5042,9 @@
       <c r="P61" s="57"/>
       <c r="Q61" s="57"/>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="58" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B62" s="57"/>
       <c r="C62" s="57"/>
@@ -5036,14 +5052,14 @@
       <c r="E62" s="57"/>
       <c r="F62" s="48"/>
       <c r="G62" s="50"/>
-      <c r="H62" s="55"/>
-      <c r="I62" s="61"/>
-      <c r="J62" s="48">
-        <v>2</v>
-      </c>
-      <c r="K62" s="53" t="s">
-        <v>77</v>
-      </c>
+      <c r="H62" s="55">
+        <v>1</v>
+      </c>
+      <c r="I62" s="61" t="s">
+        <v>71</v>
+      </c>
+      <c r="J62" s="48"/>
+      <c r="K62" s="53"/>
       <c r="L62" s="57"/>
       <c r="M62" s="63"/>
       <c r="N62" s="57"/>
@@ -5051,59 +5067,59 @@
       <c r="P62" s="57"/>
       <c r="Q62" s="57"/>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="58" t="s">
-        <v>133</v>
-      </c>
-      <c r="B63" s="56"/>
-      <c r="C63" s="56"/>
+        <v>129</v>
+      </c>
+      <c r="B63" s="57"/>
+      <c r="C63" s="57"/>
       <c r="D63" s="56"/>
-      <c r="E63" s="56"/>
+      <c r="E63" s="57"/>
       <c r="F63" s="48"/>
-      <c r="G63" s="49"/>
-      <c r="H63" s="55">
-        <v>2</v>
-      </c>
-      <c r="I63" s="61" t="s">
-        <v>82</v>
-      </c>
-      <c r="J63" s="48"/>
-      <c r="K63" s="53"/>
-      <c r="L63" s="56"/>
+      <c r="G63" s="50"/>
+      <c r="H63" s="55"/>
+      <c r="I63" s="61"/>
+      <c r="J63" s="48">
+        <v>1</v>
+      </c>
+      <c r="K63" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="L63" s="57"/>
       <c r="M63" s="63"/>
-      <c r="N63" s="56"/>
-      <c r="O63" s="56"/>
-      <c r="P63" s="56"/>
-      <c r="Q63" s="56"/>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="N63" s="57"/>
+      <c r="O63" s="57"/>
+      <c r="P63" s="57"/>
+      <c r="Q63" s="57"/>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="58" t="s">
-        <v>136</v>
-      </c>
-      <c r="B64" s="56"/>
-      <c r="C64" s="56"/>
+        <v>130</v>
+      </c>
+      <c r="B64" s="57"/>
+      <c r="C64" s="57"/>
       <c r="D64" s="56"/>
-      <c r="E64" s="56"/>
+      <c r="E64" s="57"/>
       <c r="F64" s="48"/>
-      <c r="G64" s="49"/>
+      <c r="G64" s="50"/>
       <c r="H64" s="55"/>
       <c r="I64" s="61"/>
       <c r="J64" s="48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K64" s="53" t="s">
-        <v>83</v>
-      </c>
-      <c r="L64" s="56"/>
+        <v>76</v>
+      </c>
+      <c r="L64" s="57"/>
       <c r="M64" s="63"/>
-      <c r="N64" s="56"/>
-      <c r="O64" s="56"/>
-      <c r="P64" s="56"/>
-      <c r="Q64" s="56"/>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="N64" s="57"/>
+      <c r="O64" s="57"/>
+      <c r="P64" s="57"/>
+      <c r="Q64" s="57"/>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="58" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="B65" s="56"/>
       <c r="C65" s="56"/>
@@ -5111,24 +5127,24 @@
       <c r="E65" s="56"/>
       <c r="F65" s="48"/>
       <c r="G65" s="49"/>
-      <c r="H65" s="55"/>
-      <c r="I65" s="61"/>
+      <c r="H65" s="55">
+        <v>2</v>
+      </c>
+      <c r="I65" s="61" t="s">
+        <v>81</v>
+      </c>
       <c r="J65" s="48"/>
       <c r="K65" s="53"/>
-      <c r="L65" s="56">
-        <v>1</v>
-      </c>
-      <c r="M65" s="64" t="s">
-        <v>84</v>
-      </c>
+      <c r="L65" s="56"/>
+      <c r="M65" s="63"/>
       <c r="N65" s="56"/>
       <c r="O65" s="56"/>
       <c r="P65" s="56"/>
       <c r="Q65" s="56"/>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="58" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B66" s="56"/>
       <c r="C66" s="56"/>
@@ -5138,22 +5154,22 @@
       <c r="G66" s="49"/>
       <c r="H66" s="55"/>
       <c r="I66" s="61"/>
-      <c r="J66" s="48"/>
-      <c r="K66" s="53"/>
-      <c r="L66" s="56">
-        <v>2</v>
-      </c>
-      <c r="M66" s="64" t="s">
-        <v>85</v>
-      </c>
+      <c r="J66" s="48">
+        <v>1</v>
+      </c>
+      <c r="K66" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="L66" s="56"/>
+      <c r="M66" s="63"/>
       <c r="N66" s="56"/>
       <c r="O66" s="56"/>
       <c r="P66" s="56"/>
       <c r="Q66" s="56"/>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="58" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B67" s="56"/>
       <c r="C67" s="56"/>
@@ -5161,24 +5177,24 @@
       <c r="E67" s="56"/>
       <c r="F67" s="48"/>
       <c r="G67" s="49"/>
-      <c r="H67" s="56"/>
-      <c r="I67" s="63"/>
-      <c r="J67" s="55">
-        <v>2</v>
-      </c>
-      <c r="K67" s="61" t="s">
-        <v>74</v>
-      </c>
-      <c r="L67" s="48"/>
-      <c r="M67" s="53"/>
+      <c r="H67" s="55"/>
+      <c r="I67" s="61"/>
+      <c r="J67" s="48"/>
+      <c r="K67" s="53"/>
+      <c r="L67" s="56">
+        <v>1</v>
+      </c>
+      <c r="M67" s="64" t="s">
+        <v>83</v>
+      </c>
       <c r="N67" s="56"/>
       <c r="O67" s="56"/>
       <c r="P67" s="56"/>
       <c r="Q67" s="56"/>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="58" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B68" s="56"/>
       <c r="C68" s="56"/>
@@ -5186,74 +5202,74 @@
       <c r="E68" s="56"/>
       <c r="F68" s="48"/>
       <c r="G68" s="49"/>
-      <c r="H68" s="56"/>
-      <c r="I68" s="63"/>
-      <c r="J68" s="55"/>
-      <c r="K68" s="61"/>
-      <c r="L68" s="48">
-        <v>1</v>
-      </c>
-      <c r="M68" s="53" t="s">
-        <v>78</v>
+      <c r="H68" s="55"/>
+      <c r="I68" s="61"/>
+      <c r="J68" s="48"/>
+      <c r="K68" s="53"/>
+      <c r="L68" s="56">
+        <v>2</v>
+      </c>
+      <c r="M68" s="64" t="s">
+        <v>84</v>
       </c>
       <c r="N68" s="56"/>
       <c r="O68" s="56"/>
       <c r="P68" s="56"/>
       <c r="Q68" s="56"/>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="58" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B69" s="56"/>
       <c r="C69" s="56"/>
       <c r="D69" s="56"/>
       <c r="E69" s="56"/>
-      <c r="F69" s="56"/>
-      <c r="G69" s="56"/>
+      <c r="F69" s="48"/>
+      <c r="G69" s="49"/>
       <c r="H69" s="56"/>
       <c r="I69" s="63"/>
-      <c r="J69" s="56">
-        <v>3</v>
-      </c>
-      <c r="K69" s="64" t="s">
-        <v>79</v>
-      </c>
-      <c r="L69" s="56"/>
-      <c r="M69" s="63"/>
+      <c r="J69" s="55">
+        <v>2</v>
+      </c>
+      <c r="K69" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="L69" s="48"/>
+      <c r="M69" s="53"/>
       <c r="N69" s="56"/>
       <c r="O69" s="56"/>
       <c r="P69" s="56"/>
       <c r="Q69" s="56"/>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="58" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B70" s="56"/>
       <c r="C70" s="56"/>
       <c r="D70" s="56"/>
       <c r="E70" s="56"/>
-      <c r="F70" s="56"/>
-      <c r="G70" s="56"/>
+      <c r="F70" s="48"/>
+      <c r="G70" s="49"/>
       <c r="H70" s="56"/>
       <c r="I70" s="63"/>
-      <c r="J70" s="56"/>
-      <c r="K70" s="63"/>
-      <c r="L70" s="56">
+      <c r="J70" s="55"/>
+      <c r="K70" s="61"/>
+      <c r="L70" s="48">
         <v>1</v>
       </c>
-      <c r="M70" s="64" t="s">
-        <v>80</v>
+      <c r="M70" s="53" t="s">
+        <v>77</v>
       </c>
       <c r="N70" s="56"/>
       <c r="O70" s="56"/>
       <c r="P70" s="56"/>
       <c r="Q70" s="56"/>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="58" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B71" s="56"/>
       <c r="C71" s="56"/>
@@ -5263,18 +5279,68 @@
       <c r="G71" s="56"/>
       <c r="H71" s="56"/>
       <c r="I71" s="63"/>
-      <c r="J71" s="56"/>
-      <c r="K71" s="63"/>
-      <c r="L71" s="56">
-        <v>2</v>
-      </c>
-      <c r="M71" s="64" t="s">
-        <v>81</v>
-      </c>
+      <c r="J71" s="56">
+        <v>3</v>
+      </c>
+      <c r="K71" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="L71" s="56"/>
+      <c r="M71" s="63"/>
       <c r="N71" s="56"/>
       <c r="O71" s="56"/>
       <c r="P71" s="56"/>
       <c r="Q71" s="56"/>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A72" s="58" t="s">
+        <v>137</v>
+      </c>
+      <c r="B72" s="56"/>
+      <c r="C72" s="56"/>
+      <c r="D72" s="56"/>
+      <c r="E72" s="56"/>
+      <c r="F72" s="56"/>
+      <c r="G72" s="56"/>
+      <c r="H72" s="56"/>
+      <c r="I72" s="63"/>
+      <c r="J72" s="56"/>
+      <c r="K72" s="63"/>
+      <c r="L72" s="56">
+        <v>1</v>
+      </c>
+      <c r="M72" s="64" t="s">
+        <v>79</v>
+      </c>
+      <c r="N72" s="56"/>
+      <c r="O72" s="56"/>
+      <c r="P72" s="56"/>
+      <c r="Q72" s="56"/>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A73" s="58" t="s">
+        <v>138</v>
+      </c>
+      <c r="B73" s="56"/>
+      <c r="C73" s="56"/>
+      <c r="D73" s="56"/>
+      <c r="E73" s="56"/>
+      <c r="F73" s="56"/>
+      <c r="G73" s="56"/>
+      <c r="H73" s="56"/>
+      <c r="I73" s="63"/>
+      <c r="J73" s="56"/>
+      <c r="K73" s="63"/>
+      <c r="L73" s="56">
+        <v>2</v>
+      </c>
+      <c r="M73" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="N73" s="56"/>
+      <c r="O73" s="56"/>
+      <c r="P73" s="56"/>
+      <c r="Q73" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="7">
